--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A5B5D1-93BE-428B-A6E9-DE6C20614536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9182ED-FC5C-48F8-98CA-CAEDAE0A0CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="8" xr2:uid="{B74AC252-927F-4C09-A505-39545D92C6DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" firstSheet="3" activeTab="16" xr2:uid="{B74AC252-927F-4C09-A505-39545D92C6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Processes_BASE" sheetId="31" r:id="rId14"/>
     <sheet name="ANSv2-692-ProcData" sheetId="25" state="veryHidden" r:id="rId15"/>
     <sheet name="ProcData_PGM" sheetId="56" r:id="rId16"/>
-    <sheet name="Summary" sheetId="65" r:id="rId17"/>
+    <sheet name="PGM methodology" sheetId="65" r:id="rId17"/>
     <sheet name="Production of minerals" sheetId="61" r:id="rId18"/>
     <sheet name="Energy data" sheetId="62" r:id="rId19"/>
     <sheet name="Students report" sheetId="63" r:id="rId20"/>
@@ -3750,14 +3750,20 @@
     <xf numFmtId="4" fontId="55" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="41" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="41" fillId="9" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="41" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="41" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="55" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3772,12 +3778,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="55" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="41" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="41" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3926,7 +3926,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4030,7 +4030,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4118,7 +4118,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4162,7 +4162,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10421,8 +10421,8 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10479,9 +10479,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10537,9 +10537,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10594,10 +10594,10 @@
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10652,9 +10652,9 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10715,10 +10715,10 @@
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1304925</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10774,9 +10774,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10831,10 +10831,10 @@
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10890,9 +10890,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10948,9 +10948,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11006,9 +11006,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11064,9 +11064,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11127,9 +11127,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1295400</xdr:colOff>
+          <xdr:colOff>847725</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11185,9 +11185,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>781050</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11242,10 +11242,10 @@
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11301,9 +11301,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11359,9 +11359,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11417,9 +11417,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11475,9 +11475,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13075,10 +13075,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13134,9 +13134,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13255,9 +13255,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13312,10 +13312,10 @@
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13371,9 +13371,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13428,10 +13428,10 @@
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13487,9 +13487,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13545,9 +13545,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13602,10 +13602,10 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13665,10 +13665,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13724,9 +13724,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13782,9 +13782,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13840,9 +13840,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13902,10 +13902,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13961,9 +13961,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14019,9 +14019,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14077,9 +14077,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14135,9 +14135,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14193,9 +14193,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14251,9 +14251,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14309,9 +14309,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14424,9 +14424,9 @@
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14488,9 +14488,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>819150</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14546,9 +14546,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14604,9 +14604,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14662,9 +14662,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14720,9 +14720,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14778,9 +14778,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14836,9 +14836,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14894,9 +14894,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14956,10 +14956,10 @@
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>857250</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15015,9 +15015,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15073,9 +15073,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15131,9 +15131,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15189,9 +15189,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15247,9 +15247,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15305,9 +15305,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15363,9 +15363,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15420,10 +15420,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15478,10 +15478,10 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>847725</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15542,9 +15542,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15600,9 +15600,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15658,9 +15658,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15716,9 +15716,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15774,9 +15774,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15832,9 +15832,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15890,9 +15890,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16005,10 +16005,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16063,10 +16063,10 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16126,10 +16126,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16185,9 +16185,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16243,9 +16243,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16301,9 +16301,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16359,9 +16359,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16417,9 +16417,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16475,9 +16475,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16533,9 +16533,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16595,10 +16595,10 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16654,9 +16654,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16712,9 +16712,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16770,9 +16770,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16828,9 +16828,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16886,9 +16886,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16944,9 +16944,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17002,9 +17002,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17060,9 +17060,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17118,9 +17118,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>666750</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17180,10 +17180,10 @@
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1924050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17238,10 +17238,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17296,10 +17296,10 @@
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17359,10 +17359,10 @@
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1924050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17417,10 +17417,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17475,10 +17475,10 @@
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17538,10 +17538,10 @@
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17596,10 +17596,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17654,10 +17654,10 @@
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17775,10 +17775,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>790575</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17833,10 +17833,10 @@
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17896,10 +17896,10 @@
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17955,9 +17955,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>495300</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18012,10 +18012,10 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18070,10 +18070,10 @@
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18128,10 +18128,10 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18191,10 +18191,10 @@
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18250,9 +18250,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>495300</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18307,10 +18307,10 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18365,10 +18365,10 @@
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18423,10 +18423,10 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18486,10 +18486,10 @@
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18544,10 +18544,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18602,10 +18602,10 @@
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19406,52 +19406,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -19481,52 +19481,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19599,18 +19599,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -19619,7 +19619,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -19649,18 +19649,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -19669,7 +19669,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19745,18 +19745,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -19765,7 +19765,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -19795,18 +19795,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -19815,7 +19815,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19872,19 +19872,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -19892,32 +19917,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -19947,19 +19947,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -19967,32 +19992,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20110,27 +20110,27 @@
         <v>117</v>
       </c>
       <c r="E8" s="305">
-        <f>Summary!G12</f>
+        <f>'PGM methodology'!G12</f>
         <v>152.69952392131813</v>
       </c>
       <c r="F8" s="305">
-        <f>Summary!H12</f>
+        <f>'PGM methodology'!H12</f>
         <v>158.71131620168498</v>
       </c>
       <c r="G8" s="305">
-        <f>Summary!I12</f>
+        <f>'PGM methodology'!I12</f>
         <v>113.02169487089688</v>
       </c>
       <c r="H8" s="305">
-        <f>Summary!J12</f>
+        <f>'PGM methodology'!J12</f>
         <v>165.92546693812523</v>
       </c>
       <c r="I8" s="305">
-        <f>Summary!K12</f>
+        <f>'PGM methodology'!K12</f>
         <v>158.71131620168498</v>
       </c>
       <c r="J8" s="305">
-        <f>Summary!L12</f>
+        <f>'PGM methodology'!L12</f>
         <v>156.30659928953824</v>
       </c>
     </row>
@@ -20147,27 +20147,27 @@
         <v>117</v>
       </c>
       <c r="E9" s="305">
-        <f>Summary!G13</f>
+        <f>'PGM methodology'!G13</f>
         <v>101.30047607868187</v>
       </c>
       <c r="F9" s="305">
-        <f>Summary!H13</f>
+        <f>'PGM methodology'!H13</f>
         <v>105.28868379831502</v>
       </c>
       <c r="G9" s="305">
-        <f>Summary!I13</f>
+        <f>'PGM methodology'!I13</f>
         <v>74.97830512910312</v>
       </c>
       <c r="H9" s="305">
-        <f>Summary!J13</f>
+        <f>'PGM methodology'!J13</f>
         <v>110.07453306187479</v>
       </c>
       <c r="I9" s="305">
-        <f>Summary!K13</f>
+        <f>'PGM methodology'!K13</f>
         <v>105.28868379831502</v>
       </c>
       <c r="J9" s="305">
-        <f>Summary!L13</f>
+        <f>'PGM methodology'!L13</f>
         <v>103.69340071046176</v>
       </c>
     </row>
@@ -20182,52 +20182,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20257,52 +20257,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20695,18 +20695,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20715,7 +20715,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20745,18 +20745,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20765,7 +20765,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20846,43 +20846,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -20891,32 +20866,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20946,18 +20946,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -20966,57 +20991,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21429,7 +21429,7 @@
         <v>1</v>
       </c>
       <c r="X13" s="121">
-        <f>Summary!F8</f>
+        <f>'PGM methodology'!F8</f>
         <v>0.60117922803668555</v>
       </c>
       <c r="Y13" s="121"/>
@@ -21457,7 +21457,7 @@
       <c r="R14" s="12"/>
       <c r="X14" s="121"/>
       <c r="Y14" s="121">
-        <f>Summary!F9</f>
+        <f>'PGM methodology'!F9</f>
         <v>0.39882077196331445</v>
       </c>
     </row>
@@ -21610,15 +21610,15 @@
         <v>2025</v>
       </c>
       <c r="O19" s="12">
-        <f>Summary!L55</f>
+        <f>'PGM methodology'!L55</f>
         <v>1159.5845779193976</v>
       </c>
       <c r="P19" s="12">
-        <f>Summary!L54</f>
+        <f>'PGM methodology'!L54</f>
         <v>214.83825141995794</v>
       </c>
       <c r="Q19" s="12">
-        <f>Summary!L56</f>
+        <f>'PGM methodology'!L56</f>
         <v>45</v>
       </c>
       <c r="R19" s="12">
@@ -21657,43 +21657,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -21702,32 +21677,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21757,18 +21757,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -21777,57 +21802,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21841,8 +21841,8 @@
   </sheetPr>
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30644,59 +30644,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="336" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="I1" s="333" t="s">
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="I1" s="336" t="s">
         <v>393</v>
       </c>
-      <c r="J1" s="333"/>
-      <c r="K1" s="333"/>
-      <c r="M1" s="333"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="M1" s="336"/>
       <c r="N1" s="243" t="s">
         <v>394</v>
       </c>
       <c r="O1" s="243"/>
       <c r="P1" s="243"/>
-      <c r="Z1" s="333"/>
-      <c r="AA1" s="334" t="s">
+      <c r="Z1" s="336"/>
+      <c r="AA1" s="337" t="s">
         <v>395</v>
       </c>
-      <c r="AB1" s="334"/>
-      <c r="AC1" s="334"/>
-      <c r="AD1" s="334"/>
-      <c r="AE1" s="334"/>
-      <c r="AF1" s="334"/>
-      <c r="AG1" s="334"/>
-      <c r="AH1" s="334"/>
-      <c r="AI1" s="334"/>
-      <c r="AJ1" s="334"/>
-      <c r="AK1" s="334"/>
-      <c r="AL1" s="334"/>
-      <c r="AM1" s="334"/>
+      <c r="AB1" s="337"/>
+      <c r="AC1" s="337"/>
+      <c r="AD1" s="337"/>
+      <c r="AE1" s="337"/>
+      <c r="AF1" s="337"/>
+      <c r="AG1" s="337"/>
+      <c r="AH1" s="337"/>
+      <c r="AI1" s="337"/>
+      <c r="AJ1" s="337"/>
+      <c r="AK1" s="337"/>
+      <c r="AL1" s="337"/>
+      <c r="AM1" s="337"/>
       <c r="AN1" s="244"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="333" t="s">
         <v>396</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="I2" s="335" t="s">
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="I2" s="333" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="M2" s="333"/>
-      <c r="Z2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="M2" s="336"/>
+      <c r="Z2" s="336"/>
       <c r="AN2" s="244"/>
     </row>
     <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -30727,7 +30727,7 @@
       <c r="K3" s="245" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="333"/>
+      <c r="M3" s="336"/>
       <c r="N3" s="242" t="s">
         <v>399</v>
       </c>
@@ -30737,18 +30737,18 @@
       <c r="P3" s="242" t="s">
         <v>400</v>
       </c>
-      <c r="Z3" s="333"/>
-      <c r="AA3" s="336" t="s">
+      <c r="Z3" s="336"/>
+      <c r="AA3" s="338" t="s">
         <v>401</v>
       </c>
-      <c r="AB3" s="336"/>
-      <c r="AD3" s="337" t="s">
+      <c r="AB3" s="338"/>
+      <c r="AD3" s="339" t="s">
         <v>402</v>
       </c>
-      <c r="AE3" s="338"/>
-      <c r="AF3" s="338"/>
-      <c r="AG3" s="338"/>
-      <c r="AH3" s="338"/>
+      <c r="AE3" s="340"/>
+      <c r="AF3" s="340"/>
+      <c r="AG3" s="340"/>
+      <c r="AH3" s="340"/>
       <c r="AN3" s="244"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -30780,8 +30780,8 @@
       <c r="K4" s="245">
         <v>0.21</v>
       </c>
-      <c r="M4" s="333"/>
-      <c r="Z4" s="333"/>
+      <c r="M4" s="336"/>
+      <c r="Z4" s="336"/>
       <c r="AA4" s="245" t="s">
         <v>179</v>
       </c>
@@ -30840,12 +30840,12 @@
       <c r="K5" s="245">
         <v>0.78</v>
       </c>
-      <c r="M5" s="333"/>
-      <c r="N5" s="336" t="s">
+      <c r="M5" s="336"/>
+      <c r="N5" s="338" t="s">
         <v>407</v>
       </c>
-      <c r="O5" s="336"/>
-      <c r="Z5" s="333"/>
+      <c r="O5" s="338"/>
+      <c r="Z5" s="336"/>
       <c r="AA5" s="245" t="s">
         <v>143</v>
       </c>
@@ -30898,7 +30898,7 @@
       <c r="K6" s="245">
         <v>0.01</v>
       </c>
-      <c r="M6" s="333"/>
+      <c r="M6" s="336"/>
       <c r="N6" s="245" t="s">
         <v>409</v>
       </c>
@@ -30906,7 +30906,7 @@
         <f>O3/B34</f>
         <v>99500000</v>
       </c>
-      <c r="Z6" s="333"/>
+      <c r="Z6" s="336"/>
       <c r="AA6" s="245" t="s">
         <v>235</v>
       </c>
@@ -30955,7 +30955,7 @@
       <c r="K7" s="245">
         <v>100</v>
       </c>
-      <c r="M7" s="333"/>
+      <c r="M7" s="336"/>
       <c r="N7" s="245" t="s">
         <v>410</v>
       </c>
@@ -30963,7 +30963,7 @@
         <f>O3/B35</f>
         <v>1990000.0000000002</v>
       </c>
-      <c r="Z7" s="333"/>
+      <c r="Z7" s="336"/>
       <c r="AA7" s="245" t="s">
         <v>180</v>
       </c>
@@ -31011,7 +31011,7 @@
         <f>SUM('Students worksheet'!B8:E8)</f>
         <v>23.700000000000003</v>
       </c>
-      <c r="M8" s="333"/>
+      <c r="M8" s="336"/>
       <c r="N8" s="245" t="s">
         <v>411</v>
       </c>
@@ -31019,7 +31019,7 @@
         <f>O3/B38</f>
         <v>298.64932466233114</v>
       </c>
-      <c r="Z8" s="333"/>
+      <c r="Z8" s="336"/>
       <c r="AA8" s="245" t="s">
         <v>408</v>
       </c>
@@ -31042,18 +31042,18 @@
       <c r="AN8" s="244"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="I9" s="335" t="s">
+      <c r="I9" s="333" t="s">
         <v>412</v>
       </c>
-      <c r="J9" s="335"/>
-      <c r="M9" s="333"/>
-      <c r="R9" s="339" t="s">
+      <c r="J9" s="333"/>
+      <c r="M9" s="336"/>
+      <c r="R9" s="341" t="s">
         <v>402</v>
       </c>
-      <c r="S9" s="339"/>
-      <c r="T9" s="339"/>
-      <c r="U9" s="339"/>
-      <c r="Z9" s="333"/>
+      <c r="S9" s="341"/>
+      <c r="T9" s="341"/>
+      <c r="U9" s="341"/>
+      <c r="Z9" s="336"/>
       <c r="AD9" s="250" t="s">
         <v>242</v>
       </c>
@@ -31070,20 +31070,20 @@
       <c r="AN9" s="244"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="335" t="s">
+      <c r="A10" s="333" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="335"/>
-      <c r="C10" s="335"/>
-      <c r="D10" s="335"/>
-      <c r="E10" s="335"/>
+      <c r="B10" s="333"/>
+      <c r="C10" s="333"/>
+      <c r="D10" s="333"/>
+      <c r="E10" s="333"/>
       <c r="I10" s="245" t="s">
         <v>294</v>
       </c>
       <c r="J10" s="245" t="s">
         <v>413</v>
       </c>
-      <c r="M10" s="333"/>
+      <c r="M10" s="336"/>
       <c r="N10" s="245" t="s">
         <v>404</v>
       </c>
@@ -31111,7 +31111,7 @@
       <c r="V10" s="245" t="s">
         <v>417</v>
       </c>
-      <c r="Z10" s="333"/>
+      <c r="Z10" s="336"/>
       <c r="AN10" s="244"/>
     </row>
     <row r="11" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -31138,7 +31138,7 @@
         <v>296</v>
       </c>
       <c r="J11" s="245"/>
-      <c r="M11" s="333"/>
+      <c r="M11" s="336"/>
       <c r="N11" s="245" t="s">
         <v>229</v>
       </c>
@@ -31171,14 +31171,14 @@
         <f>Q11/$O$3</f>
         <v>0.1</v>
       </c>
-      <c r="Z11" s="333"/>
-      <c r="AD11" s="340" t="s">
+      <c r="Z11" s="336"/>
+      <c r="AD11" s="342" t="s">
         <v>418</v>
       </c>
-      <c r="AE11" s="340"/>
-      <c r="AF11" s="340"/>
-      <c r="AG11" s="340"/>
-      <c r="AH11" s="340"/>
+      <c r="AE11" s="342"/>
+      <c r="AF11" s="342"/>
+      <c r="AG11" s="342"/>
+      <c r="AH11" s="342"/>
       <c r="AN11" s="244"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -31208,7 +31208,7 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M12" s="333"/>
+      <c r="M12" s="336"/>
       <c r="N12" s="245" t="s">
         <v>327</v>
       </c>
@@ -31237,7 +31237,7 @@
         <f>Q12/$O$3</f>
         <v>4.2753623188405795E-2</v>
       </c>
-      <c r="Z12" s="333"/>
+      <c r="Z12" s="336"/>
       <c r="AD12" s="245" t="s">
         <v>404</v>
       </c>
@@ -31288,7 +31288,7 @@
         <f>(C29+C30)/2</f>
         <v>64.481351981351992</v>
       </c>
-      <c r="M13" s="333"/>
+      <c r="M13" s="336"/>
       <c r="N13" s="245" t="s">
         <v>231</v>
       </c>
@@ -31323,7 +31323,7 @@
         <f>Q13/$O$3</f>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="Z13" s="333"/>
+      <c r="Z13" s="336"/>
       <c r="AD13" s="245" t="s">
         <v>229</v>
       </c>
@@ -31368,7 +31368,7 @@
         <f t="shared" si="0"/>
         <v>1.9083969465648859E-2</v>
       </c>
-      <c r="M14" s="333"/>
+      <c r="M14" s="336"/>
       <c r="N14" s="245" t="s">
         <v>232</v>
       </c>
@@ -31403,7 +31403,7 @@
         <f>Q14/$O$3</f>
         <v>1.1800000000000001E-2</v>
       </c>
-      <c r="Z14" s="333"/>
+      <c r="Z14" s="336"/>
       <c r="AA14" s="254"/>
       <c r="AD14" s="245" t="s">
         <v>327</v>
@@ -31450,7 +31450,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="256"/>
-      <c r="M15" s="333"/>
+      <c r="M15" s="336"/>
       <c r="N15" s="257" t="s">
         <v>242</v>
       </c>
@@ -31482,7 +31482,7 @@
         <f>Q15/$O$3</f>
         <v>2.0866666666666669E-2</v>
       </c>
-      <c r="Z15" s="333"/>
+      <c r="Z15" s="336"/>
       <c r="AD15" s="245" t="s">
         <v>231</v>
       </c>
@@ -31510,10 +31510,10 @@
       <c r="AN15" s="244"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M16" s="333"/>
+      <c r="M16" s="336"/>
       <c r="Q16" s="259"/>
       <c r="R16" s="259"/>
-      <c r="Z16" s="333"/>
+      <c r="Z16" s="336"/>
       <c r="AD16" s="245" t="s">
         <v>232</v>
       </c>
@@ -31540,14 +31540,14 @@
       <c r="AN16" s="244"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="335" t="s">
+      <c r="A17" s="333" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="335"/>
-      <c r="C17" s="335"/>
-      <c r="M17" s="333"/>
+      <c r="B17" s="333"/>
+      <c r="C17" s="333"/>
+      <c r="M17" s="336"/>
       <c r="Q17" s="260"/>
-      <c r="Z17" s="333"/>
+      <c r="Z17" s="336"/>
       <c r="AD17" s="245" t="s">
         <v>242</v>
       </c>
@@ -31581,8 +31581,8 @@
       <c r="C18" s="245" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="333"/>
-      <c r="Z18" s="333"/>
+      <c r="M18" s="336"/>
+      <c r="Z18" s="336"/>
       <c r="AN18" s="244"/>
     </row>
     <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -31596,8 +31596,8 @@
         <v>239</v>
       </c>
       <c r="J19" s="256"/>
-      <c r="M19" s="333"/>
-      <c r="Z19" s="333"/>
+      <c r="M19" s="336"/>
+      <c r="Z19" s="336"/>
       <c r="AA19" s="332" t="s">
         <v>422</v>
       </c>
@@ -31625,7 +31625,7 @@
         <v>240</v>
       </c>
       <c r="J20" s="261"/>
-      <c r="M20" s="333"/>
+      <c r="M20" s="336"/>
       <c r="N20" s="332" t="s">
         <v>423</v>
       </c>
@@ -31640,7 +31640,7 @@
       <c r="W20" s="332"/>
       <c r="X20" s="332"/>
       <c r="Y20" s="332"/>
-      <c r="Z20" s="333"/>
+      <c r="Z20" s="336"/>
       <c r="AN20" s="244"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -31653,7 +31653,7 @@
       <c r="C21" s="245" t="s">
         <v>241</v>
       </c>
-      <c r="M21" s="333"/>
+      <c r="M21" s="336"/>
       <c r="N21" s="245"/>
       <c r="O21" s="245" t="s">
         <v>179</v>
@@ -31667,7 +31667,7 @@
       <c r="R21" s="245" t="s">
         <v>405</v>
       </c>
-      <c r="Z21" s="333"/>
+      <c r="Z21" s="336"/>
       <c r="AJ21" s="262"/>
       <c r="AN21" s="244"/>
     </row>
@@ -31681,7 +31681,7 @@
       <c r="C22" s="245" t="s">
         <v>241</v>
       </c>
-      <c r="M22" s="333"/>
+      <c r="M22" s="336"/>
       <c r="N22" s="245" t="s">
         <v>229</v>
       </c>
@@ -31701,12 +31701,12 @@
         <f t="shared" si="1"/>
         <v>5.1005160550458708</v>
       </c>
-      <c r="Z22" s="333"/>
+      <c r="Z22" s="336"/>
       <c r="AJ22" s="262"/>
       <c r="AN22" s="244"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M23" s="333"/>
+      <c r="M23" s="336"/>
       <c r="N23" s="245" t="s">
         <v>424</v>
       </c>
@@ -31726,12 +31726,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="333"/>
+      <c r="Z23" s="336"/>
       <c r="AJ23" s="262"/>
       <c r="AN23" s="244"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M24" s="333"/>
+      <c r="M24" s="336"/>
       <c r="N24" s="245" t="s">
         <v>231</v>
       </c>
@@ -31751,17 +31751,17 @@
         <f t="shared" si="1"/>
         <v>2.6909552238805975E-2</v>
       </c>
-      <c r="Z24" s="333"/>
+      <c r="Z24" s="336"/>
       <c r="AJ24" s="262"/>
       <c r="AN24" s="244"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="335" t="s">
+      <c r="A25" s="333" t="s">
         <v>425</v>
       </c>
-      <c r="B25" s="335"/>
-      <c r="C25" s="335"/>
-      <c r="M25" s="333"/>
+      <c r="B25" s="333"/>
+      <c r="C25" s="333"/>
+      <c r="M25" s="336"/>
       <c r="N25" s="245" t="s">
         <v>232</v>
       </c>
@@ -31781,7 +31781,7 @@
         <f t="shared" si="1"/>
         <v>6.721946564885499E-2</v>
       </c>
-      <c r="Z25" s="333"/>
+      <c r="Z25" s="336"/>
       <c r="AN25" s="244"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -31792,7 +31792,7 @@
       <c r="C26" s="245" t="s">
         <v>413</v>
       </c>
-      <c r="M26" s="333"/>
+      <c r="M26" s="336"/>
       <c r="N26" s="245" t="s">
         <v>242</v>
       </c>
@@ -31812,7 +31812,7 @@
         <f t="shared" si="1"/>
         <v>6.2287000000000009E-2</v>
       </c>
-      <c r="Z26" s="333"/>
+      <c r="Z26" s="336"/>
       <c r="AN26" s="244"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -31823,8 +31823,8 @@
         <v>234</v>
       </c>
       <c r="C27" s="245"/>
-      <c r="M27" s="333"/>
-      <c r="Z27" s="333"/>
+      <c r="M27" s="336"/>
+      <c r="Z27" s="336"/>
       <c r="AN27" s="244"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -31838,8 +31838,8 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M28" s="333"/>
-      <c r="Z28" s="333"/>
+      <c r="M28" s="336"/>
+      <c r="Z28" s="336"/>
       <c r="AN28" s="244"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -31853,8 +31853,8 @@
         <f>109/1.56</f>
         <v>69.871794871794876</v>
       </c>
-      <c r="M29" s="333"/>
-      <c r="Z29" s="333"/>
+      <c r="M29" s="336"/>
+      <c r="Z29" s="336"/>
       <c r="AN29" s="244"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -31868,23 +31868,23 @@
         <f>13/0.22</f>
         <v>59.090909090909093</v>
       </c>
-      <c r="M30" s="333"/>
-      <c r="Z30" s="333"/>
+      <c r="M30" s="336"/>
+      <c r="Z30" s="336"/>
       <c r="AN30" s="244"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M31" s="333"/>
-      <c r="Z31" s="333"/>
+      <c r="M31" s="336"/>
+      <c r="Z31" s="336"/>
       <c r="AN31" s="244"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="341" t="s">
+      <c r="A32" s="334" t="s">
         <v>427</v>
       </c>
-      <c r="B32" s="341"/>
-      <c r="C32" s="341"/>
-      <c r="M32" s="333"/>
-      <c r="Z32" s="333"/>
+      <c r="B32" s="334"/>
+      <c r="C32" s="334"/>
+      <c r="M32" s="336"/>
+      <c r="Z32" s="336"/>
       <c r="AN32" s="244"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -31894,8 +31894,8 @@
       <c r="B33" s="245" t="s">
         <v>246</v>
       </c>
-      <c r="M33" s="333"/>
-      <c r="Z33" s="333"/>
+      <c r="M33" s="336"/>
+      <c r="Z33" s="336"/>
       <c r="AN33" s="244"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -31905,8 +31905,8 @@
       <c r="B34" s="263">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="M34" s="333"/>
-      <c r="Z34" s="333"/>
+      <c r="M34" s="336"/>
+      <c r="Z34" s="336"/>
       <c r="AN34" s="244"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -31916,8 +31916,8 @@
       <c r="B35" s="252">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M35" s="333"/>
-      <c r="Z35" s="333"/>
+      <c r="M35" s="336"/>
+      <c r="Z35" s="336"/>
       <c r="AN35" s="244"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -31927,8 +31927,8 @@
       <c r="B36" s="252">
         <v>2E-3</v>
       </c>
-      <c r="M36" s="333"/>
-      <c r="Z36" s="333"/>
+      <c r="M36" s="336"/>
+      <c r="Z36" s="336"/>
       <c r="AN36" s="244"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -31938,8 +31938,8 @@
       <c r="B37" s="252">
         <v>0.5</v>
       </c>
-      <c r="M37" s="333"/>
-      <c r="Z37" s="333"/>
+      <c r="M37" s="336"/>
+      <c r="Z37" s="336"/>
       <c r="AN37" s="244"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -31949,31 +31949,31 @@
       <c r="B38" s="252">
         <v>0.99950000000000006</v>
       </c>
-      <c r="M38" s="333"/>
-      <c r="Z38" s="333"/>
+      <c r="M38" s="336"/>
+      <c r="Z38" s="336"/>
       <c r="AN38" s="244"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M39" s="333"/>
-      <c r="Z39" s="333"/>
+      <c r="M39" s="336"/>
+      <c r="Z39" s="336"/>
       <c r="AN39" s="244"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M40" s="333"/>
-      <c r="Z40" s="333"/>
+      <c r="M40" s="336"/>
+      <c r="Z40" s="336"/>
       <c r="AN40" s="244"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="264" t="s">
         <v>428</v>
       </c>
-      <c r="M41" s="333"/>
-      <c r="Z41" s="333"/>
+      <c r="M41" s="336"/>
+      <c r="Z41" s="336"/>
       <c r="AN41" s="244"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M42" s="333"/>
-      <c r="Z42" s="333"/>
+      <c r="M42" s="336"/>
+      <c r="Z42" s="336"/>
       <c r="AN42" s="244"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -31987,8 +31987,8 @@
       <c r="D43" s="245" t="s">
         <v>429</v>
       </c>
-      <c r="M43" s="333"/>
-      <c r="Z43" s="333"/>
+      <c r="M43" s="336"/>
+      <c r="Z43" s="336"/>
       <c r="AN43" s="244"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -32007,8 +32007,8 @@
         <f>D45/B35/1000000</f>
         <v>1.9933333333333334</v>
       </c>
-      <c r="M44" s="333"/>
-      <c r="Z44" s="333"/>
+      <c r="M44" s="336"/>
+      <c r="Z44" s="336"/>
       <c r="AN44" s="244"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -32024,8 +32024,8 @@
       <c r="D45" s="248">
         <v>299</v>
       </c>
-      <c r="M45" s="333"/>
-      <c r="Z45" s="333"/>
+      <c r="M45" s="336"/>
+      <c r="Z45" s="336"/>
       <c r="AN45" s="244"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -32044,47 +32044,47 @@
         <f>((D44*1000000)-D45)/1000000</f>
         <v>1.9930343333333336</v>
       </c>
-      <c r="M46" s="333"/>
-      <c r="Z46" s="333"/>
+      <c r="M46" s="336"/>
+      <c r="Z46" s="336"/>
       <c r="AN46" s="244"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M47" s="333"/>
-      <c r="Z47" s="333"/>
+      <c r="M47" s="336"/>
+      <c r="Z47" s="336"/>
       <c r="AN47" s="244"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M48" s="333"/>
-      <c r="Z48" s="333"/>
+      <c r="M48" s="336"/>
+      <c r="Z48" s="336"/>
       <c r="AN48" s="244"/>
     </row>
     <row r="49" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M49" s="333"/>
-      <c r="Z49" s="333"/>
+      <c r="M49" s="336"/>
+      <c r="Z49" s="336"/>
       <c r="AN49" s="244"/>
     </row>
     <row r="50" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M50" s="333"/>
-      <c r="Z50" s="333"/>
+      <c r="M50" s="336"/>
+      <c r="Z50" s="336"/>
       <c r="AN50" s="244"/>
     </row>
     <row r="51" spans="13:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="M51" s="333"/>
-      <c r="N51" s="342" t="s">
+      <c r="M51" s="336"/>
+      <c r="N51" s="335" t="s">
         <v>433</v>
       </c>
-      <c r="O51" s="342"/>
-      <c r="P51" s="342"/>
-      <c r="Q51" s="342"/>
-      <c r="R51" s="342"/>
-      <c r="S51" s="342"/>
-      <c r="T51" s="342"/>
-      <c r="U51" s="342"/>
-      <c r="V51" s="342"/>
-      <c r="W51" s="342"/>
-      <c r="X51" s="342"/>
-      <c r="Y51" s="342"/>
-      <c r="Z51" s="333"/>
+      <c r="O51" s="335"/>
+      <c r="P51" s="335"/>
+      <c r="Q51" s="335"/>
+      <c r="R51" s="335"/>
+      <c r="S51" s="335"/>
+      <c r="T51" s="335"/>
+      <c r="U51" s="335"/>
+      <c r="V51" s="335"/>
+      <c r="W51" s="335"/>
+      <c r="X51" s="335"/>
+      <c r="Y51" s="335"/>
+      <c r="Z51" s="336"/>
       <c r="AA51" s="332" t="s">
         <v>434</v>
       </c>
@@ -32102,12 +32102,12 @@
       <c r="AN51" s="244"/>
     </row>
     <row r="52" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M52" s="333"/>
-      <c r="Z52" s="333"/>
+      <c r="M52" s="336"/>
+      <c r="Z52" s="336"/>
       <c r="AN52" s="244"/>
     </row>
     <row r="53" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M53" s="333"/>
+      <c r="M53" s="336"/>
       <c r="N53" s="245"/>
       <c r="O53" s="245" t="s">
         <v>229</v>
@@ -32127,7 +32127,7 @@
       <c r="T53" s="242" t="s">
         <v>225</v>
       </c>
-      <c r="Z53" s="333"/>
+      <c r="Z53" s="336"/>
       <c r="AA53" s="245"/>
       <c r="AB53" s="245" t="s">
         <v>229</v>
@@ -32153,7 +32153,7 @@
       <c r="AN53" s="244"/>
     </row>
     <row r="54" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M54" s="333"/>
+      <c r="M54" s="336"/>
       <c r="N54" s="245" t="s">
         <v>437</v>
       </c>
@@ -32180,7 +32180,7 @@
         <f>SUM(O54:S54)</f>
         <v>55.148956521739137</v>
       </c>
-      <c r="Z54" s="333"/>
+      <c r="Z54" s="336"/>
       <c r="AA54" s="245" t="s">
         <v>438</v>
       </c>
@@ -32217,7 +32217,7 @@
       <c r="AN54" s="244"/>
     </row>
     <row r="55" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M55" s="333"/>
+      <c r="M55" s="336"/>
       <c r="N55" s="245" t="s">
         <v>439</v>
       </c>
@@ -32243,7 +32243,7 @@
         <f>SUM(O55:S55)</f>
         <v>48.840656521739135</v>
       </c>
-      <c r="Z55" s="333"/>
+      <c r="Z55" s="336"/>
       <c r="AA55" s="245" t="s">
         <v>440</v>
       </c>
@@ -32279,27 +32279,27 @@
       <c r="AN55" s="244"/>
     </row>
     <row r="56" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M56" s="333"/>
-      <c r="Z56" s="333"/>
+      <c r="M56" s="336"/>
+      <c r="Z56" s="336"/>
       <c r="AH56" s="260"/>
       <c r="AN56" s="244"/>
     </row>
     <row r="57" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M57" s="333"/>
-      <c r="Z57" s="333"/>
+      <c r="M57" s="336"/>
+      <c r="Z57" s="336"/>
       <c r="AN57" s="244"/>
     </row>
     <row r="58" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M58" s="333"/>
+      <c r="M58" s="336"/>
       <c r="R58" s="260"/>
       <c r="V58" s="266"/>
-      <c r="Z58" s="333"/>
+      <c r="Z58" s="336"/>
       <c r="AN58" s="244"/>
     </row>
     <row r="59" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M59" s="333"/>
+      <c r="M59" s="336"/>
       <c r="V59" s="266"/>
-      <c r="Z59" s="333"/>
+      <c r="Z59" s="336"/>
       <c r="AA59" s="245"/>
       <c r="AB59" s="245" t="s">
         <v>229</v>
@@ -32320,8 +32320,8 @@
       <c r="AN59" s="244"/>
     </row>
     <row r="60" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M60" s="333"/>
-      <c r="Z60" s="333"/>
+      <c r="M60" s="336"/>
+      <c r="Z60" s="336"/>
       <c r="AA60" s="245" t="s">
         <v>437</v>
       </c>
@@ -32347,8 +32347,8 @@
       <c r="AN60" s="244"/>
     </row>
     <row r="61" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M61" s="333"/>
-      <c r="Z61" s="333"/>
+      <c r="M61" s="336"/>
+      <c r="Z61" s="336"/>
       <c r="AA61" s="245" t="s">
         <v>442</v>
       </c>
@@ -32374,116 +32374,116 @@
       <c r="AN61" s="244"/>
     </row>
     <row r="62" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M62" s="333"/>
-      <c r="Z62" s="333"/>
+      <c r="M62" s="336"/>
+      <c r="Z62" s="336"/>
       <c r="AN62" s="244"/>
     </row>
     <row r="63" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M63" s="333"/>
-      <c r="Z63" s="333"/>
+      <c r="M63" s="336"/>
+      <c r="Z63" s="336"/>
       <c r="AN63" s="244"/>
     </row>
     <row r="64" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M64" s="333"/>
-      <c r="Z64" s="333"/>
+      <c r="M64" s="336"/>
+      <c r="Z64" s="336"/>
       <c r="AN64" s="244"/>
     </row>
     <row r="65" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M65" s="333"/>
-      <c r="Z65" s="333"/>
+      <c r="M65" s="336"/>
+      <c r="Z65" s="336"/>
       <c r="AN65" s="244"/>
     </row>
     <row r="66" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M66" s="333"/>
-      <c r="Z66" s="333"/>
+      <c r="M66" s="336"/>
+      <c r="Z66" s="336"/>
       <c r="AN66" s="244"/>
     </row>
     <row r="67" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M67" s="333"/>
-      <c r="Z67" s="333"/>
+      <c r="M67" s="336"/>
+      <c r="Z67" s="336"/>
       <c r="AN67" s="244"/>
     </row>
     <row r="68" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M68" s="333"/>
-      <c r="Z68" s="333"/>
+      <c r="M68" s="336"/>
+      <c r="Z68" s="336"/>
       <c r="AN68" s="244"/>
     </row>
     <row r="69" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M69" s="333"/>
-      <c r="Z69" s="333"/>
+      <c r="M69" s="336"/>
+      <c r="Z69" s="336"/>
       <c r="AN69" s="244"/>
     </row>
     <row r="70" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M70" s="333"/>
-      <c r="Z70" s="333"/>
+      <c r="M70" s="336"/>
+      <c r="Z70" s="336"/>
       <c r="AN70" s="244"/>
     </row>
     <row r="71" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M71" s="333"/>
-      <c r="Z71" s="333"/>
+      <c r="M71" s="336"/>
+      <c r="Z71" s="336"/>
       <c r="AN71" s="244"/>
     </row>
     <row r="72" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M72" s="333"/>
-      <c r="Z72" s="333"/>
+      <c r="M72" s="336"/>
+      <c r="Z72" s="336"/>
       <c r="AN72" s="244"/>
     </row>
     <row r="73" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M73" s="333"/>
-      <c r="Z73" s="333"/>
+      <c r="M73" s="336"/>
+      <c r="Z73" s="336"/>
       <c r="AN73" s="244"/>
     </row>
     <row r="74" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M74" s="333"/>
-      <c r="Z74" s="333"/>
+      <c r="M74" s="336"/>
+      <c r="Z74" s="336"/>
       <c r="AN74" s="244"/>
     </row>
     <row r="75" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M75" s="333"/>
-      <c r="Z75" s="333"/>
+      <c r="M75" s="336"/>
+      <c r="Z75" s="336"/>
       <c r="AN75" s="244"/>
     </row>
     <row r="76" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M76" s="333"/>
-      <c r="Z76" s="333"/>
+      <c r="M76" s="336"/>
+      <c r="Z76" s="336"/>
       <c r="AN76" s="244"/>
     </row>
     <row r="77" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M77" s="333"/>
-      <c r="Z77" s="333"/>
+      <c r="M77" s="336"/>
+      <c r="Z77" s="336"/>
       <c r="AN77" s="244"/>
     </row>
     <row r="78" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M78" s="333"/>
-      <c r="Z78" s="333"/>
+      <c r="M78" s="336"/>
+      <c r="Z78" s="336"/>
       <c r="AN78" s="244"/>
     </row>
     <row r="79" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M79" s="333"/>
-      <c r="Z79" s="333"/>
+      <c r="M79" s="336"/>
+      <c r="Z79" s="336"/>
       <c r="AN79" s="244"/>
     </row>
     <row r="80" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M80" s="333"/>
-      <c r="Z80" s="333"/>
+      <c r="M80" s="336"/>
+      <c r="Z80" s="336"/>
       <c r="AN80" s="244"/>
     </row>
     <row r="81" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M81" s="333"/>
-      <c r="Z81" s="333"/>
+      <c r="M81" s="336"/>
+      <c r="Z81" s="336"/>
       <c r="AN81" s="244"/>
     </row>
     <row r="82" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M82" s="333"/>
-      <c r="Z82" s="333"/>
+      <c r="M82" s="336"/>
+      <c r="Z82" s="336"/>
       <c r="AN82" s="244"/>
     </row>
     <row r="83" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z83" s="333"/>
+      <c r="Z83" s="336"/>
       <c r="AN83" s="244"/>
     </row>
     <row r="84" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z84" s="333"/>
+      <c r="Z84" s="336"/>
       <c r="AN84" s="244"/>
     </row>
     <row r="85" spans="13:40" x14ac:dyDescent="0.2">
@@ -32491,11 +32491,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N20:Y20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="N51:Y51"/>
-    <mergeCell ref="AA51:AL51"/>
     <mergeCell ref="AA19:AL19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:K1"/>
@@ -32512,6 +32507,11 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="AD11:AH11"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="N20:Y20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="N51:Y51"/>
+    <mergeCell ref="AA51:AL51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33242,8 +33242,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId6" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId14" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -33262,182 +33437,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId8" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId16" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -33586,8 +33586,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -33606,82 +33681,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -33796,8 +33796,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -33816,232 +34041,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -34105,8 +34105,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -34125,182 +34300,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -34375,8 +34375,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -34395,232 +34620,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -34707,8 +34707,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -34727,232 +34952,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35029,8 +35029,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -35049,182 +35224,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35310,8 +35310,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -35330,232 +35555,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -38374,7 +38374,7 @@
         <v>469</v>
       </c>
       <c r="D19" s="143">
-        <f>Summary!L4</f>
+        <f>'PGM methodology'!L4</f>
         <v>260</v>
       </c>
     </row>
@@ -38383,7 +38383,7 @@
         <v>185</v>
       </c>
       <c r="D20" s="311">
-        <f>Summary!L12</f>
+        <f>'PGM methodology'!L12</f>
         <v>156.30659928953824</v>
       </c>
       <c r="E20" s="92" t="s">
@@ -38396,7 +38396,7 @@
         <v>562</v>
       </c>
       <c r="D21" s="311">
-        <f>Summary!L13</f>
+        <f>'PGM methodology'!L13</f>
         <v>103.69340071046176</v>
       </c>
     </row>
@@ -38424,7 +38424,7 @@
         <v>143</v>
       </c>
       <c r="D25" s="154">
-        <f>Summary!L44</f>
+        <f>'PGM methodology'!L44</f>
         <v>3.9478462800501317</v>
       </c>
       <c r="E25" s="154"/>
@@ -38435,7 +38435,7 @@
         <v>179</v>
       </c>
       <c r="D26" s="154">
-        <f>Summary!L42</f>
+        <f>'PGM methodology'!L42</f>
         <v>39.297699837949885</v>
       </c>
       <c r="E26" s="154"/>
@@ -38446,7 +38446,7 @@
         <v>180</v>
       </c>
       <c r="D27" s="154">
-        <f>Summary!L45</f>
+        <f>'PGM methodology'!L45</f>
         <v>0.26574693623601153</v>
       </c>
       <c r="E27" s="154"/>
@@ -38457,7 +38457,7 @@
         <v>181</v>
       </c>
       <c r="D28" s="154">
-        <f>Summary!L43</f>
+        <f>'PGM methodology'!L43</f>
         <v>4.5246489747494749</v>
       </c>
       <c r="M28" s="92"/>
@@ -38680,8 +38680,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -38700,32 +38725,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -38786,18 +38786,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -38806,7 +38806,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -38836,18 +38836,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -38856,7 +38856,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -38870,8 +38870,8 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -39088,18 +39088,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -39108,7 +39108,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -39138,18 +39138,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -39158,7 +39158,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A270001-895D-4C5D-868C-C7811A49A5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF3C084-8F93-4180-BCF1-0DE8A9FEA3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4272" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -3941,20 +3941,14 @@
     <xf numFmtId="4" fontId="56" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="42" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="42" fillId="9" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="42" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3969,6 +3963,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4118,7 +4118,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4250,7 +4250,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4338,7 +4338,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4382,7 +4382,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10643,7 +10643,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10701,7 +10701,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>238125</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10759,7 +10759,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10815,9 +10815,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10874,8 +10874,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11173,7 +11173,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -13830,7 +13830,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13886,7 +13886,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
@@ -13944,7 +13944,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
@@ -15878,7 +15878,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>847725</xdr:colOff>
+          <xdr:colOff>857250</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -16404,8 +16404,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -16462,8 +16462,8 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -17459,7 +17459,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -18233,9 +18233,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18472,7 +18472,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20001,52 +20001,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20062,9 +20062,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -20076,52 +20076,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20194,18 +20194,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20214,7 +20214,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20244,18 +20244,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1933575</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20264,7 +20264,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20340,18 +20340,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -20360,7 +20360,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20390,27 +20390,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20467,19 +20467,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -20487,13 +20512,38 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="90114" r:id="rId8" name="cmdCommNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90114" r:id="rId8" name="cmdCommNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -20512,82 +20562,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90114" r:id="rId8" name="cmdCommNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90114" r:id="rId8" name="cmdCommNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20769,52 +20769,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20844,52 +20844,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21697,18 +21697,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -21717,57 +21742,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21797,43 +21797,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -21842,32 +21817,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22276,18 +22276,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22296,7 +22296,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22326,18 +22326,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1933575</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22346,7 +22346,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22427,18 +22427,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1314450</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22447,57 +22472,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22527,43 +22527,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22572,32 +22547,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23010,43 +23010,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23055,32 +23030,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23110,18 +23110,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23130,57 +23155,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23189,7 +23189,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9187B226-B092-4276-89A7-F2530A5EE9E1}">
-  <sheetPr>
+  <sheetPr codeName="Sheet21">
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A1:AA104"/>
@@ -25184,6 +25184,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E023E63F-12CB-4433-8E90-01B75D41B72D}">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="B2:Y85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26242,6 +26243,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F221B7-BC77-4E5A-B737-513AAF1E0EE5}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="C1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26281,6 +26283,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD244F0B-A485-4D5A-822B-74959A562279}">
+  <sheetPr codeName="Sheet23"/>
   <dimension ref="B2:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27303,6 +27306,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E178350-17D8-4D5F-86C2-D2FB3973A594}">
+  <sheetPr codeName="Sheet24"/>
   <dimension ref="C5:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27498,6 +27502,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E885DD5-56F9-4503-BCD2-E8D533BF5B91}">
+  <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:AC65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27796,6 +27801,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8941959-FA8C-460D-8273-6BE90A393496}">
+  <sheetPr codeName="Sheet26"/>
   <dimension ref="D3:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27950,6 +27956,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979EC88E-DC5C-4582-A0BA-246715114C7C}">
+  <sheetPr codeName="Sheet27"/>
   <dimension ref="B2:P110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28479,6 +28486,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2351742D-B968-4513-838F-39D28A598FDE}">
+  <sheetPr codeName="Sheet32"/>
   <dimension ref="B3:AH187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -32423,6 +32431,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC634B0-FC79-419A-B280-7FAFE045829E}">
+  <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:AN85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32469,59 +32478,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="359" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="I1" s="362" t="s">
+      <c r="B1" s="359"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+      <c r="E1" s="359"/>
+      <c r="F1" s="359"/>
+      <c r="I1" s="359" t="s">
         <v>385</v>
       </c>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="M1" s="362"/>
+      <c r="J1" s="359"/>
+      <c r="K1" s="359"/>
+      <c r="M1" s="359"/>
       <c r="N1" s="241" t="s">
         <v>386</v>
       </c>
       <c r="O1" s="241"/>
       <c r="P1" s="241"/>
-      <c r="Z1" s="362"/>
-      <c r="AA1" s="363" t="s">
+      <c r="Z1" s="359"/>
+      <c r="AA1" s="360" t="s">
         <v>387</v>
       </c>
-      <c r="AB1" s="363"/>
-      <c r="AC1" s="363"/>
-      <c r="AD1" s="363"/>
-      <c r="AE1" s="363"/>
-      <c r="AF1" s="363"/>
-      <c r="AG1" s="363"/>
-      <c r="AH1" s="363"/>
-      <c r="AI1" s="363"/>
-      <c r="AJ1" s="363"/>
-      <c r="AK1" s="363"/>
-      <c r="AL1" s="363"/>
-      <c r="AM1" s="363"/>
+      <c r="AB1" s="360"/>
+      <c r="AC1" s="360"/>
+      <c r="AD1" s="360"/>
+      <c r="AE1" s="360"/>
+      <c r="AF1" s="360"/>
+      <c r="AG1" s="360"/>
+      <c r="AH1" s="360"/>
+      <c r="AI1" s="360"/>
+      <c r="AJ1" s="360"/>
+      <c r="AK1" s="360"/>
+      <c r="AL1" s="360"/>
+      <c r="AM1" s="360"/>
       <c r="AN1" s="242"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="361" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="359"/>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="359"/>
-      <c r="I2" s="359" t="s">
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="361"/>
+      <c r="F2" s="361"/>
+      <c r="I2" s="361" t="s">
         <v>235</v>
       </c>
-      <c r="J2" s="359"/>
-      <c r="K2" s="359"/>
-      <c r="M2" s="362"/>
-      <c r="Z2" s="362"/>
+      <c r="J2" s="361"/>
+      <c r="K2" s="361"/>
+      <c r="M2" s="359"/>
+      <c r="Z2" s="359"/>
       <c r="AN2" s="242"/>
     </row>
     <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -32552,7 +32561,7 @@
       <c r="K3" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="362"/>
+      <c r="M3" s="359"/>
       <c r="N3" s="240" t="s">
         <v>391</v>
       </c>
@@ -32562,18 +32571,18 @@
       <c r="P3" s="240" t="s">
         <v>392</v>
       </c>
-      <c r="Z3" s="362"/>
-      <c r="AA3" s="364" t="s">
+      <c r="Z3" s="359"/>
+      <c r="AA3" s="362" t="s">
         <v>393</v>
       </c>
-      <c r="AB3" s="364"/>
-      <c r="AD3" s="365" t="s">
+      <c r="AB3" s="362"/>
+      <c r="AD3" s="363" t="s">
         <v>394</v>
       </c>
-      <c r="AE3" s="366"/>
-      <c r="AF3" s="366"/>
-      <c r="AG3" s="366"/>
-      <c r="AH3" s="366"/>
+      <c r="AE3" s="364"/>
+      <c r="AF3" s="364"/>
+      <c r="AG3" s="364"/>
+      <c r="AH3" s="364"/>
       <c r="AN3" s="242"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -32605,8 +32614,8 @@
       <c r="K4" s="243">
         <v>0.21</v>
       </c>
-      <c r="M4" s="362"/>
-      <c r="Z4" s="362"/>
+      <c r="M4" s="359"/>
+      <c r="Z4" s="359"/>
       <c r="AA4" s="243" t="s">
         <v>178</v>
       </c>
@@ -32665,12 +32674,12 @@
       <c r="K5" s="243">
         <v>0.78</v>
       </c>
-      <c r="M5" s="362"/>
-      <c r="N5" s="364" t="s">
+      <c r="M5" s="359"/>
+      <c r="N5" s="362" t="s">
         <v>399</v>
       </c>
-      <c r="O5" s="364"/>
-      <c r="Z5" s="362"/>
+      <c r="O5" s="362"/>
+      <c r="Z5" s="359"/>
       <c r="AA5" s="243" t="s">
         <v>143</v>
       </c>
@@ -32723,7 +32732,7 @@
       <c r="K6" s="243">
         <v>0.01</v>
       </c>
-      <c r="M6" s="362"/>
+      <c r="M6" s="359"/>
       <c r="N6" s="243" t="s">
         <v>401</v>
       </c>
@@ -32731,7 +32740,7 @@
         <f>O3/B34</f>
         <v>99500000</v>
       </c>
-      <c r="Z6" s="362"/>
+      <c r="Z6" s="359"/>
       <c r="AA6" s="243" t="s">
         <v>232</v>
       </c>
@@ -32780,7 +32789,7 @@
       <c r="K7" s="243">
         <v>100</v>
       </c>
-      <c r="M7" s="362"/>
+      <c r="M7" s="359"/>
       <c r="N7" s="243" t="s">
         <v>402</v>
       </c>
@@ -32788,7 +32797,7 @@
         <f>O3/B35</f>
         <v>1990000.0000000002</v>
       </c>
-      <c r="Z7" s="362"/>
+      <c r="Z7" s="359"/>
       <c r="AA7" s="243" t="s">
         <v>179</v>
       </c>
@@ -32836,7 +32845,7 @@
         <f>SUM('Students worksheet'!B8:E8)</f>
         <v>23.700000000000003</v>
       </c>
-      <c r="M8" s="362"/>
+      <c r="M8" s="359"/>
       <c r="N8" s="243" t="s">
         <v>403</v>
       </c>
@@ -32844,7 +32853,7 @@
         <f>O3/B38</f>
         <v>298.64932466233114</v>
       </c>
-      <c r="Z8" s="362"/>
+      <c r="Z8" s="359"/>
       <c r="AA8" s="243" t="s">
         <v>400</v>
       </c>
@@ -32867,18 +32876,18 @@
       <c r="AN8" s="242"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="I9" s="359" t="s">
+      <c r="I9" s="361" t="s">
         <v>404</v>
       </c>
-      <c r="J9" s="359"/>
-      <c r="M9" s="362"/>
-      <c r="R9" s="367" t="s">
+      <c r="J9" s="361"/>
+      <c r="M9" s="359"/>
+      <c r="R9" s="365" t="s">
         <v>394</v>
       </c>
-      <c r="S9" s="367"/>
-      <c r="T9" s="367"/>
-      <c r="U9" s="367"/>
-      <c r="Z9" s="362"/>
+      <c r="S9" s="365"/>
+      <c r="T9" s="365"/>
+      <c r="U9" s="365"/>
+      <c r="Z9" s="359"/>
       <c r="AD9" s="248" t="s">
         <v>239</v>
       </c>
@@ -32895,20 +32904,20 @@
       <c r="AN9" s="242"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="359" t="s">
+      <c r="A10" s="361" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="359"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
+      <c r="B10" s="361"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
       <c r="I10" s="243" t="s">
         <v>291</v>
       </c>
       <c r="J10" s="243" t="s">
         <v>405</v>
       </c>
-      <c r="M10" s="362"/>
+      <c r="M10" s="359"/>
       <c r="N10" s="243" t="s">
         <v>396</v>
       </c>
@@ -32936,7 +32945,7 @@
       <c r="V10" s="243" t="s">
         <v>409</v>
       </c>
-      <c r="Z10" s="362"/>
+      <c r="Z10" s="359"/>
       <c r="AN10" s="242"/>
     </row>
     <row r="11" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -32963,7 +32972,7 @@
         <v>293</v>
       </c>
       <c r="J11" s="243"/>
-      <c r="M11" s="362"/>
+      <c r="M11" s="359"/>
       <c r="N11" s="243" t="s">
         <v>226</v>
       </c>
@@ -32996,14 +33005,14 @@
         <f>Q11/$O$3</f>
         <v>0.1</v>
       </c>
-      <c r="Z11" s="362"/>
-      <c r="AD11" s="368" t="s">
+      <c r="Z11" s="359"/>
+      <c r="AD11" s="366" t="s">
         <v>410</v>
       </c>
-      <c r="AE11" s="368"/>
-      <c r="AF11" s="368"/>
-      <c r="AG11" s="368"/>
-      <c r="AH11" s="368"/>
+      <c r="AE11" s="366"/>
+      <c r="AF11" s="366"/>
+      <c r="AG11" s="366"/>
+      <c r="AH11" s="366"/>
       <c r="AN11" s="242"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -33033,7 +33042,7 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M12" s="362"/>
+      <c r="M12" s="359"/>
       <c r="N12" s="243" t="s">
         <v>324</v>
       </c>
@@ -33062,7 +33071,7 @@
         <f>Q12/$O$3</f>
         <v>4.2753623188405795E-2</v>
       </c>
-      <c r="Z12" s="362"/>
+      <c r="Z12" s="359"/>
       <c r="AD12" s="243" t="s">
         <v>396</v>
       </c>
@@ -33113,7 +33122,7 @@
         <f>(C29+C30)/2</f>
         <v>64.481351981351992</v>
       </c>
-      <c r="M13" s="362"/>
+      <c r="M13" s="359"/>
       <c r="N13" s="243" t="s">
         <v>228</v>
       </c>
@@ -33148,7 +33157,7 @@
         <f>Q13/$O$3</f>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="Z13" s="362"/>
+      <c r="Z13" s="359"/>
       <c r="AD13" s="243" t="s">
         <v>226</v>
       </c>
@@ -33193,7 +33202,7 @@
         <f t="shared" si="0"/>
         <v>1.9083969465648859E-2</v>
       </c>
-      <c r="M14" s="362"/>
+      <c r="M14" s="359"/>
       <c r="N14" s="243" t="s">
         <v>229</v>
       </c>
@@ -33228,7 +33237,7 @@
         <f>Q14/$O$3</f>
         <v>1.1800000000000001E-2</v>
       </c>
-      <c r="Z14" s="362"/>
+      <c r="Z14" s="359"/>
       <c r="AA14" s="252"/>
       <c r="AD14" s="243" t="s">
         <v>324</v>
@@ -33275,7 +33284,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="254"/>
-      <c r="M15" s="362"/>
+      <c r="M15" s="359"/>
       <c r="N15" s="255" t="s">
         <v>239</v>
       </c>
@@ -33307,7 +33316,7 @@
         <f>Q15/$O$3</f>
         <v>2.0866666666666669E-2</v>
       </c>
-      <c r="Z15" s="362"/>
+      <c r="Z15" s="359"/>
       <c r="AD15" s="243" t="s">
         <v>228</v>
       </c>
@@ -33335,10 +33344,10 @@
       <c r="AN15" s="242"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M16" s="362"/>
+      <c r="M16" s="359"/>
       <c r="Q16" s="257"/>
       <c r="R16" s="257"/>
-      <c r="Z16" s="362"/>
+      <c r="Z16" s="359"/>
       <c r="AD16" s="243" t="s">
         <v>229</v>
       </c>
@@ -33365,14 +33374,14 @@
       <c r="AN16" s="242"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="359" t="s">
+      <c r="A17" s="361" t="s">
         <v>297</v>
       </c>
-      <c r="B17" s="359"/>
-      <c r="C17" s="359"/>
-      <c r="M17" s="362"/>
+      <c r="B17" s="361"/>
+      <c r="C17" s="361"/>
+      <c r="M17" s="359"/>
       <c r="Q17" s="258"/>
-      <c r="Z17" s="362"/>
+      <c r="Z17" s="359"/>
       <c r="AD17" s="243" t="s">
         <v>239</v>
       </c>
@@ -33406,8 +33415,8 @@
       <c r="C18" s="243" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="362"/>
-      <c r="Z18" s="362"/>
+      <c r="M18" s="359"/>
+      <c r="Z18" s="359"/>
       <c r="AN18" s="242"/>
     </row>
     <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33421,8 +33430,8 @@
         <v>236</v>
       </c>
       <c r="J19" s="254"/>
-      <c r="M19" s="362"/>
-      <c r="Z19" s="362"/>
+      <c r="M19" s="359"/>
+      <c r="Z19" s="359"/>
       <c r="AA19" s="358" t="s">
         <v>414</v>
       </c>
@@ -33450,7 +33459,7 @@
         <v>237</v>
       </c>
       <c r="J20" s="259"/>
-      <c r="M20" s="362"/>
+      <c r="M20" s="359"/>
       <c r="N20" s="358" t="s">
         <v>415</v>
       </c>
@@ -33465,7 +33474,7 @@
       <c r="W20" s="358"/>
       <c r="X20" s="358"/>
       <c r="Y20" s="358"/>
-      <c r="Z20" s="362"/>
+      <c r="Z20" s="359"/>
       <c r="AN20" s="242"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -33478,7 +33487,7 @@
       <c r="C21" s="243" t="s">
         <v>238</v>
       </c>
-      <c r="M21" s="362"/>
+      <c r="M21" s="359"/>
       <c r="N21" s="243"/>
       <c r="O21" s="243" t="s">
         <v>178</v>
@@ -33492,7 +33501,7 @@
       <c r="R21" s="243" t="s">
         <v>397</v>
       </c>
-      <c r="Z21" s="362"/>
+      <c r="Z21" s="359"/>
       <c r="AJ21" s="260"/>
       <c r="AN21" s="242"/>
     </row>
@@ -33506,7 +33515,7 @@
       <c r="C22" s="243" t="s">
         <v>238</v>
       </c>
-      <c r="M22" s="362"/>
+      <c r="M22" s="359"/>
       <c r="N22" s="243" t="s">
         <v>226</v>
       </c>
@@ -33526,12 +33535,12 @@
         <f t="shared" si="1"/>
         <v>5.1005160550458708</v>
       </c>
-      <c r="Z22" s="362"/>
+      <c r="Z22" s="359"/>
       <c r="AJ22" s="260"/>
       <c r="AN22" s="242"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M23" s="362"/>
+      <c r="M23" s="359"/>
       <c r="N23" s="243" t="s">
         <v>416</v>
       </c>
@@ -33551,12 +33560,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="362"/>
+      <c r="Z23" s="359"/>
       <c r="AJ23" s="260"/>
       <c r="AN23" s="242"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M24" s="362"/>
+      <c r="M24" s="359"/>
       <c r="N24" s="243" t="s">
         <v>228</v>
       </c>
@@ -33576,17 +33585,17 @@
         <f t="shared" si="1"/>
         <v>2.6909552238805975E-2</v>
       </c>
-      <c r="Z24" s="362"/>
+      <c r="Z24" s="359"/>
       <c r="AJ24" s="260"/>
       <c r="AN24" s="242"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="359" t="s">
+      <c r="A25" s="361" t="s">
         <v>417</v>
       </c>
-      <c r="B25" s="359"/>
-      <c r="C25" s="359"/>
-      <c r="M25" s="362"/>
+      <c r="B25" s="361"/>
+      <c r="C25" s="361"/>
+      <c r="M25" s="359"/>
       <c r="N25" s="243" t="s">
         <v>229</v>
       </c>
@@ -33606,7 +33615,7 @@
         <f t="shared" si="1"/>
         <v>6.721946564885499E-2</v>
       </c>
-      <c r="Z25" s="362"/>
+      <c r="Z25" s="359"/>
       <c r="AN25" s="242"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -33617,7 +33626,7 @@
       <c r="C26" s="243" t="s">
         <v>405</v>
       </c>
-      <c r="M26" s="362"/>
+      <c r="M26" s="359"/>
       <c r="N26" s="243" t="s">
         <v>239</v>
       </c>
@@ -33637,7 +33646,7 @@
         <f t="shared" si="1"/>
         <v>6.2287000000000009E-2</v>
       </c>
-      <c r="Z26" s="362"/>
+      <c r="Z26" s="359"/>
       <c r="AN26" s="242"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -33648,8 +33657,8 @@
         <v>231</v>
       </c>
       <c r="C27" s="243"/>
-      <c r="M27" s="362"/>
-      <c r="Z27" s="362"/>
+      <c r="M27" s="359"/>
+      <c r="Z27" s="359"/>
       <c r="AN27" s="242"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -33663,8 +33672,8 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M28" s="362"/>
-      <c r="Z28" s="362"/>
+      <c r="M28" s="359"/>
+      <c r="Z28" s="359"/>
       <c r="AN28" s="242"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -33678,8 +33687,8 @@
         <f>109/1.56</f>
         <v>69.871794871794876</v>
       </c>
-      <c r="M29" s="362"/>
-      <c r="Z29" s="362"/>
+      <c r="M29" s="359"/>
+      <c r="Z29" s="359"/>
       <c r="AN29" s="242"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -33693,23 +33702,23 @@
         <f>13/0.22</f>
         <v>59.090909090909093</v>
       </c>
-      <c r="M30" s="362"/>
-      <c r="Z30" s="362"/>
+      <c r="M30" s="359"/>
+      <c r="Z30" s="359"/>
       <c r="AN30" s="242"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M31" s="362"/>
-      <c r="Z31" s="362"/>
+      <c r="M31" s="359"/>
+      <c r="Z31" s="359"/>
       <c r="AN31" s="242"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="360" t="s">
+      <c r="A32" s="367" t="s">
         <v>419</v>
       </c>
-      <c r="B32" s="360"/>
-      <c r="C32" s="360"/>
-      <c r="M32" s="362"/>
-      <c r="Z32" s="362"/>
+      <c r="B32" s="367"/>
+      <c r="C32" s="367"/>
+      <c r="M32" s="359"/>
+      <c r="Z32" s="359"/>
       <c r="AN32" s="242"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -33719,8 +33728,8 @@
       <c r="B33" s="243" t="s">
         <v>243</v>
       </c>
-      <c r="M33" s="362"/>
-      <c r="Z33" s="362"/>
+      <c r="M33" s="359"/>
+      <c r="Z33" s="359"/>
       <c r="AN33" s="242"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -33730,8 +33739,8 @@
       <c r="B34" s="261">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="M34" s="362"/>
-      <c r="Z34" s="362"/>
+      <c r="M34" s="359"/>
+      <c r="Z34" s="359"/>
       <c r="AN34" s="242"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -33741,8 +33750,8 @@
       <c r="B35" s="250">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M35" s="362"/>
-      <c r="Z35" s="362"/>
+      <c r="M35" s="359"/>
+      <c r="Z35" s="359"/>
       <c r="AN35" s="242"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -33752,8 +33761,8 @@
       <c r="B36" s="250">
         <v>2E-3</v>
       </c>
-      <c r="M36" s="362"/>
-      <c r="Z36" s="362"/>
+      <c r="M36" s="359"/>
+      <c r="Z36" s="359"/>
       <c r="AN36" s="242"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -33763,8 +33772,8 @@
       <c r="B37" s="250">
         <v>0.5</v>
       </c>
-      <c r="M37" s="362"/>
-      <c r="Z37" s="362"/>
+      <c r="M37" s="359"/>
+      <c r="Z37" s="359"/>
       <c r="AN37" s="242"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -33774,31 +33783,31 @@
       <c r="B38" s="250">
         <v>0.99950000000000006</v>
       </c>
-      <c r="M38" s="362"/>
-      <c r="Z38" s="362"/>
+      <c r="M38" s="359"/>
+      <c r="Z38" s="359"/>
       <c r="AN38" s="242"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M39" s="362"/>
-      <c r="Z39" s="362"/>
+      <c r="M39" s="359"/>
+      <c r="Z39" s="359"/>
       <c r="AN39" s="242"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M40" s="362"/>
-      <c r="Z40" s="362"/>
+      <c r="M40" s="359"/>
+      <c r="Z40" s="359"/>
       <c r="AN40" s="242"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="262" t="s">
         <v>420</v>
       </c>
-      <c r="M41" s="362"/>
-      <c r="Z41" s="362"/>
+      <c r="M41" s="359"/>
+      <c r="Z41" s="359"/>
       <c r="AN41" s="242"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M42" s="362"/>
-      <c r="Z42" s="362"/>
+      <c r="M42" s="359"/>
+      <c r="Z42" s="359"/>
       <c r="AN42" s="242"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -33812,8 +33821,8 @@
       <c r="D43" s="243" t="s">
         <v>421</v>
       </c>
-      <c r="M43" s="362"/>
-      <c r="Z43" s="362"/>
+      <c r="M43" s="359"/>
+      <c r="Z43" s="359"/>
       <c r="AN43" s="242"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -33832,8 +33841,8 @@
         <f>D45/B35/1000000</f>
         <v>1.9933333333333334</v>
       </c>
-      <c r="M44" s="362"/>
-      <c r="Z44" s="362"/>
+      <c r="M44" s="359"/>
+      <c r="Z44" s="359"/>
       <c r="AN44" s="242"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -33849,8 +33858,8 @@
       <c r="D45" s="246">
         <v>299</v>
       </c>
-      <c r="M45" s="362"/>
-      <c r="Z45" s="362"/>
+      <c r="M45" s="359"/>
+      <c r="Z45" s="359"/>
       <c r="AN45" s="242"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -33869,47 +33878,47 @@
         <f>((D44*1000000)-D45)/1000000</f>
         <v>1.9930343333333336</v>
       </c>
-      <c r="M46" s="362"/>
-      <c r="Z46" s="362"/>
+      <c r="M46" s="359"/>
+      <c r="Z46" s="359"/>
       <c r="AN46" s="242"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M47" s="362"/>
-      <c r="Z47" s="362"/>
+      <c r="M47" s="359"/>
+      <c r="Z47" s="359"/>
       <c r="AN47" s="242"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M48" s="362"/>
-      <c r="Z48" s="362"/>
+      <c r="M48" s="359"/>
+      <c r="Z48" s="359"/>
       <c r="AN48" s="242"/>
     </row>
     <row r="49" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M49" s="362"/>
-      <c r="Z49" s="362"/>
+      <c r="M49" s="359"/>
+      <c r="Z49" s="359"/>
       <c r="AN49" s="242"/>
     </row>
     <row r="50" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M50" s="362"/>
-      <c r="Z50" s="362"/>
+      <c r="M50" s="359"/>
+      <c r="Z50" s="359"/>
       <c r="AN50" s="242"/>
     </row>
     <row r="51" spans="13:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="M51" s="362"/>
-      <c r="N51" s="361" t="s">
+      <c r="M51" s="359"/>
+      <c r="N51" s="368" t="s">
         <v>425</v>
       </c>
-      <c r="O51" s="361"/>
-      <c r="P51" s="361"/>
-      <c r="Q51" s="361"/>
-      <c r="R51" s="361"/>
-      <c r="S51" s="361"/>
-      <c r="T51" s="361"/>
-      <c r="U51" s="361"/>
-      <c r="V51" s="361"/>
-      <c r="W51" s="361"/>
-      <c r="X51" s="361"/>
-      <c r="Y51" s="361"/>
-      <c r="Z51" s="362"/>
+      <c r="O51" s="368"/>
+      <c r="P51" s="368"/>
+      <c r="Q51" s="368"/>
+      <c r="R51" s="368"/>
+      <c r="S51" s="368"/>
+      <c r="T51" s="368"/>
+      <c r="U51" s="368"/>
+      <c r="V51" s="368"/>
+      <c r="W51" s="368"/>
+      <c r="X51" s="368"/>
+      <c r="Y51" s="368"/>
+      <c r="Z51" s="359"/>
       <c r="AA51" s="358" t="s">
         <v>426</v>
       </c>
@@ -33927,12 +33936,12 @@
       <c r="AN51" s="242"/>
     </row>
     <row r="52" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M52" s="362"/>
-      <c r="Z52" s="362"/>
+      <c r="M52" s="359"/>
+      <c r="Z52" s="359"/>
       <c r="AN52" s="242"/>
     </row>
     <row r="53" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M53" s="362"/>
+      <c r="M53" s="359"/>
       <c r="N53" s="243"/>
       <c r="O53" s="243" t="s">
         <v>226</v>
@@ -33952,7 +33961,7 @@
       <c r="T53" s="240" t="s">
         <v>222</v>
       </c>
-      <c r="Z53" s="362"/>
+      <c r="Z53" s="359"/>
       <c r="AA53" s="243"/>
       <c r="AB53" s="243" t="s">
         <v>226</v>
@@ -33978,7 +33987,7 @@
       <c r="AN53" s="242"/>
     </row>
     <row r="54" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M54" s="362"/>
+      <c r="M54" s="359"/>
       <c r="N54" s="243" t="s">
         <v>429</v>
       </c>
@@ -34005,7 +34014,7 @@
         <f>SUM(O54:S54)</f>
         <v>55.148956521739137</v>
       </c>
-      <c r="Z54" s="362"/>
+      <c r="Z54" s="359"/>
       <c r="AA54" s="243" t="s">
         <v>430</v>
       </c>
@@ -34042,7 +34051,7 @@
       <c r="AN54" s="242"/>
     </row>
     <row r="55" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M55" s="362"/>
+      <c r="M55" s="359"/>
       <c r="N55" s="243" t="s">
         <v>431</v>
       </c>
@@ -34068,7 +34077,7 @@
         <f>SUM(O55:S55)</f>
         <v>48.840656521739135</v>
       </c>
-      <c r="Z55" s="362"/>
+      <c r="Z55" s="359"/>
       <c r="AA55" s="243" t="s">
         <v>432</v>
       </c>
@@ -34104,27 +34113,27 @@
       <c r="AN55" s="242"/>
     </row>
     <row r="56" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M56" s="362"/>
-      <c r="Z56" s="362"/>
+      <c r="M56" s="359"/>
+      <c r="Z56" s="359"/>
       <c r="AH56" s="258"/>
       <c r="AN56" s="242"/>
     </row>
     <row r="57" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M57" s="362"/>
-      <c r="Z57" s="362"/>
+      <c r="M57" s="359"/>
+      <c r="Z57" s="359"/>
       <c r="AN57" s="242"/>
     </row>
     <row r="58" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M58" s="362"/>
+      <c r="M58" s="359"/>
       <c r="R58" s="258"/>
       <c r="V58" s="264"/>
-      <c r="Z58" s="362"/>
+      <c r="Z58" s="359"/>
       <c r="AN58" s="242"/>
     </row>
     <row r="59" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M59" s="362"/>
+      <c r="M59" s="359"/>
       <c r="V59" s="264"/>
-      <c r="Z59" s="362"/>
+      <c r="Z59" s="359"/>
       <c r="AA59" s="243"/>
       <c r="AB59" s="243" t="s">
         <v>226</v>
@@ -34145,8 +34154,8 @@
       <c r="AN59" s="242"/>
     </row>
     <row r="60" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M60" s="362"/>
-      <c r="Z60" s="362"/>
+      <c r="M60" s="359"/>
+      <c r="Z60" s="359"/>
       <c r="AA60" s="243" t="s">
         <v>429</v>
       </c>
@@ -34172,8 +34181,8 @@
       <c r="AN60" s="242"/>
     </row>
     <row r="61" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M61" s="362"/>
-      <c r="Z61" s="362"/>
+      <c r="M61" s="359"/>
+      <c r="Z61" s="359"/>
       <c r="AA61" s="243" t="s">
         <v>434</v>
       </c>
@@ -34199,116 +34208,116 @@
       <c r="AN61" s="242"/>
     </row>
     <row r="62" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M62" s="362"/>
-      <c r="Z62" s="362"/>
+      <c r="M62" s="359"/>
+      <c r="Z62" s="359"/>
       <c r="AN62" s="242"/>
     </row>
     <row r="63" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M63" s="362"/>
-      <c r="Z63" s="362"/>
+      <c r="M63" s="359"/>
+      <c r="Z63" s="359"/>
       <c r="AN63" s="242"/>
     </row>
     <row r="64" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M64" s="362"/>
-      <c r="Z64" s="362"/>
+      <c r="M64" s="359"/>
+      <c r="Z64" s="359"/>
       <c r="AN64" s="242"/>
     </row>
     <row r="65" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M65" s="362"/>
-      <c r="Z65" s="362"/>
+      <c r="M65" s="359"/>
+      <c r="Z65" s="359"/>
       <c r="AN65" s="242"/>
     </row>
     <row r="66" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M66" s="362"/>
-      <c r="Z66" s="362"/>
+      <c r="M66" s="359"/>
+      <c r="Z66" s="359"/>
       <c r="AN66" s="242"/>
     </row>
     <row r="67" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M67" s="362"/>
-      <c r="Z67" s="362"/>
+      <c r="M67" s="359"/>
+      <c r="Z67" s="359"/>
       <c r="AN67" s="242"/>
     </row>
     <row r="68" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M68" s="362"/>
-      <c r="Z68" s="362"/>
+      <c r="M68" s="359"/>
+      <c r="Z68" s="359"/>
       <c r="AN68" s="242"/>
     </row>
     <row r="69" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M69" s="362"/>
-      <c r="Z69" s="362"/>
+      <c r="M69" s="359"/>
+      <c r="Z69" s="359"/>
       <c r="AN69" s="242"/>
     </row>
     <row r="70" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M70" s="362"/>
-      <c r="Z70" s="362"/>
+      <c r="M70" s="359"/>
+      <c r="Z70" s="359"/>
       <c r="AN70" s="242"/>
     </row>
     <row r="71" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M71" s="362"/>
-      <c r="Z71" s="362"/>
+      <c r="M71" s="359"/>
+      <c r="Z71" s="359"/>
       <c r="AN71" s="242"/>
     </row>
     <row r="72" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M72" s="362"/>
-      <c r="Z72" s="362"/>
+      <c r="M72" s="359"/>
+      <c r="Z72" s="359"/>
       <c r="AN72" s="242"/>
     </row>
     <row r="73" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M73" s="362"/>
-      <c r="Z73" s="362"/>
+      <c r="M73" s="359"/>
+      <c r="Z73" s="359"/>
       <c r="AN73" s="242"/>
     </row>
     <row r="74" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M74" s="362"/>
-      <c r="Z74" s="362"/>
+      <c r="M74" s="359"/>
+      <c r="Z74" s="359"/>
       <c r="AN74" s="242"/>
     </row>
     <row r="75" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M75" s="362"/>
-      <c r="Z75" s="362"/>
+      <c r="M75" s="359"/>
+      <c r="Z75" s="359"/>
       <c r="AN75" s="242"/>
     </row>
     <row r="76" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M76" s="362"/>
-      <c r="Z76" s="362"/>
+      <c r="M76" s="359"/>
+      <c r="Z76" s="359"/>
       <c r="AN76" s="242"/>
     </row>
     <row r="77" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M77" s="362"/>
-      <c r="Z77" s="362"/>
+      <c r="M77" s="359"/>
+      <c r="Z77" s="359"/>
       <c r="AN77" s="242"/>
     </row>
     <row r="78" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M78" s="362"/>
-      <c r="Z78" s="362"/>
+      <c r="M78" s="359"/>
+      <c r="Z78" s="359"/>
       <c r="AN78" s="242"/>
     </row>
     <row r="79" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M79" s="362"/>
-      <c r="Z79" s="362"/>
+      <c r="M79" s="359"/>
+      <c r="Z79" s="359"/>
       <c r="AN79" s="242"/>
     </row>
     <row r="80" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M80" s="362"/>
-      <c r="Z80" s="362"/>
+      <c r="M80" s="359"/>
+      <c r="Z80" s="359"/>
       <c r="AN80" s="242"/>
     </row>
     <row r="81" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M81" s="362"/>
-      <c r="Z81" s="362"/>
+      <c r="M81" s="359"/>
+      <c r="Z81" s="359"/>
       <c r="AN81" s="242"/>
     </row>
     <row r="82" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M82" s="362"/>
-      <c r="Z82" s="362"/>
+      <c r="M82" s="359"/>
+      <c r="Z82" s="359"/>
       <c r="AN82" s="242"/>
     </row>
     <row r="83" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z83" s="362"/>
+      <c r="Z83" s="359"/>
       <c r="AN83" s="242"/>
     </row>
     <row r="84" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z84" s="362"/>
+      <c r="Z84" s="359"/>
       <c r="AN84" s="242"/>
     </row>
     <row r="85" spans="13:40" x14ac:dyDescent="0.2">
@@ -34316,6 +34325,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N20:Y20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="N51:Y51"/>
+    <mergeCell ref="AA51:AL51"/>
     <mergeCell ref="AA19:AL19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:K1"/>
@@ -34332,11 +34346,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="AD11:AH11"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="N20:Y20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="N51:Y51"/>
-    <mergeCell ref="AA51:AL51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34347,6 +34356,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE44752-4144-46CD-ACBB-906358077C46}">
+  <sheetPr codeName="Sheet34"/>
   <dimension ref="C23:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -34469,6 +34479,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7EE854-E2BF-4E78-BADD-E12ED2074CEA}">
+  <sheetPr codeName="Sheet35"/>
   <dimension ref="E1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -35063,8 +35074,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId8" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId16" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -35083,182 +35269,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId6" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId14" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35267,6 +35278,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E22132C-15D4-4A3A-8153-ABAF1B7BF562}">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="C1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -35446,8 +35458,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35466,82 +35553,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35615,33 +35627,208 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35660,207 +35847,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35924,8 +35936,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35944,182 +36131,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36194,33 +36206,208 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36239,24 +36426,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
@@ -36264,182 +36451,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36526,33 +36538,208 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -36571,24 +36758,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
@@ -36596,182 +36783,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36848,8 +36860,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36868,182 +37055,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37129,33 +37141,208 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -37174,207 +37361,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37383,12 +37395,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C52CBF-4FE0-46D1-B70B-95F07BE7C2F3}">
-  <sheetPr>
+  <sheetPr codeName="Sheet20">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="B3:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -40730,8 +40742,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -40750,32 +40787,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40836,18 +40848,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1933575</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -40856,7 +40868,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -40886,18 +40898,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -40906,7 +40918,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40920,7 +40932,9 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -41172,18 +41186,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41192,7 +41206,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41222,18 +41236,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1933575</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41242,7 +41256,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF3C084-8F93-4180-BCF1-0DE8A9FEA3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998724C-5BE0-4DF8-BB5E-0C6FB78C3CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -435,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="593">
   <si>
     <t>Comment</t>
   </si>
@@ -3321,7 +3321,7 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3941,14 +3941,20 @@
     <xf numFmtId="4" fontId="56" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="42" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="42" fillId="9" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="42" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3965,12 +3971,7 @@
     <xf numFmtId="4" fontId="56" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Bad" xfId="21" builtinId="27"/>
@@ -4118,7 +4119,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4250,7 +4251,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4338,7 +4339,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4382,7 +4383,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10641,9 +10642,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10699,9 +10700,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10757,9 +10758,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10815,9 +10816,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10873,9 +10874,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10936,7 +10937,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -11115,7 +11116,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1314450</xdr:colOff>
+          <xdr:colOff>1304925</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -11173,7 +11174,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -13440,7 +13441,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -13830,7 +13831,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13886,7 +13887,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
@@ -13944,7 +13945,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
@@ -14239,7 +14240,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
@@ -14826,7 +14827,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15878,9 +15879,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
+          <xdr:colOff>847725</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16404,8 +16405,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -16462,10 +16463,10 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17459,7 +17460,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -17519,7 +17520,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17580,7 +17581,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -17759,7 +17760,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -17938,7 +17939,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -18233,9 +18234,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18354,7 +18355,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -18472,7 +18473,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18649,7 +18650,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -18886,7 +18887,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
+          <xdr:colOff>847725</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -19433,21 +19434,80 @@
       <sheetData sheetId="54"/>
       <sheetData sheetId="55">
         <row r="31">
+          <cell r="P31"/>
           <cell r="R31">
             <v>4.5246489747494749</v>
           </cell>
           <cell r="S31">
             <v>32.653642004977343</v>
           </cell>
+          <cell r="T31"/>
+        </row>
+        <row r="32">
+          <cell r="P32"/>
+          <cell r="R32"/>
+          <cell r="S32"/>
+          <cell r="T32"/>
+        </row>
+        <row r="33">
+          <cell r="P33"/>
+          <cell r="R33"/>
+          <cell r="S33"/>
+          <cell r="T33"/>
+        </row>
+        <row r="34">
+          <cell r="P34"/>
+          <cell r="R34"/>
+          <cell r="S34"/>
+          <cell r="T34"/>
+        </row>
+        <row r="35">
+          <cell r="P35"/>
+          <cell r="R35"/>
+          <cell r="S35"/>
+          <cell r="T35"/>
         </row>
         <row r="36">
+          <cell r="P36"/>
+          <cell r="R36"/>
           <cell r="S36">
             <v>6.6440578329725435</v>
           </cell>
+          <cell r="T36"/>
+        </row>
+        <row r="37">
+          <cell r="P37"/>
+          <cell r="R37"/>
+          <cell r="S37"/>
+          <cell r="T37"/>
+        </row>
+        <row r="38">
+          <cell r="P38"/>
+          <cell r="R38"/>
+          <cell r="S38"/>
+          <cell r="T38"/>
+        </row>
+        <row r="39">
+          <cell r="P39"/>
+          <cell r="R39"/>
+          <cell r="S39"/>
+          <cell r="T39"/>
+        </row>
+        <row r="40">
+          <cell r="P40"/>
+          <cell r="R40"/>
+          <cell r="S40"/>
+          <cell r="T40"/>
         </row>
       </sheetData>
       <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
+      <sheetData sheetId="57">
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Mining</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="58"/>
       <sheetData sheetId="59">
         <row r="47">
@@ -19457,11 +19517,23 @@
         </row>
       </sheetData>
       <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
+      <sheetData sheetId="61">
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>*</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="62"/>
       <sheetData sheetId="63"/>
       <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
+      <sheetData sheetId="65">
+        <row r="10">
+          <cell r="A10" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="66"/>
       <sheetData sheetId="67"/>
       <sheetData sheetId="68"/>
@@ -20001,52 +20073,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20076,52 +20148,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20194,18 +20266,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20214,7 +20286,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20244,18 +20316,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20264,7 +20336,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20340,18 +20412,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -20360,7 +20432,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20390,18 +20462,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -20410,7 +20482,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20467,19 +20539,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -20487,32 +20584,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20542,235 +20614,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr codeName="Sheet17">
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="str">
-        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
-        <v>CommData</v>
-      </c>
-      <c r="B1" s="19" t="str">
-        <f>Commodities_BASE!B1</f>
-        <v>REGION1</v>
-      </c>
-      <c r="F1" s="53"/>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
-        <v>CommData_BASE</v>
-      </c>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="63"/>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="63"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2012</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2013</v>
-      </c>
-      <c r="G7" s="12">
-        <v>2014</v>
-      </c>
-      <c r="H7" s="12">
-        <v>2015</v>
-      </c>
-      <c r="I7" s="12">
-        <v>2016</v>
-      </c>
-      <c r="J7" s="12">
-        <v>2017</v>
-      </c>
-      <c r="K7" s="12">
-        <v>2030</v>
-      </c>
-      <c r="L7" s="12">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="str">
-        <f>RES!W2</f>
-        <v>IPGMD</v>
-      </c>
-      <c r="C8" s="50" t="str">
-        <f>RES!O3</f>
-        <v>Industry - PGMs - Platinum</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="303">
-        <f>'PGM methodology'!G22</f>
-        <v>28</v>
-      </c>
-      <c r="F8" s="303">
-        <f>'PGM methodology'!H22</f>
-        <v>28</v>
-      </c>
-      <c r="G8" s="303">
-        <f>'PGM methodology'!I22</f>
-        <v>29</v>
-      </c>
-      <c r="H8" s="303">
-        <f>'PGM methodology'!J22</f>
-        <v>32</v>
-      </c>
-      <c r="I8" s="303">
-        <f>'PGM methodology'!K22</f>
-        <v>31</v>
-      </c>
-      <c r="J8" s="303">
-        <f>'PGM methodology'!L22</f>
-        <v>31</v>
-      </c>
-      <c r="K8" s="303">
-        <f>J8</f>
-        <v>31</v>
-      </c>
-      <c r="L8" s="303">
-        <f>K8</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="303"/>
-      <c r="J9" s="303"/>
-    </row>
-    <row r="10" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -20789,32 +20634,279 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet17">
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="str">
+        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
+        <v>CommData</v>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>Commodities_BASE!B1</f>
+        <v>REGION1</v>
+      </c>
+      <c r="F1" s="53"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
+        <v>CommData_BASE</v>
+      </c>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="63"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="63"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2012</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2013</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2014</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2015</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2016</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2017</v>
+      </c>
+      <c r="K7" s="12">
+        <v>2018</v>
+      </c>
+      <c r="L7" s="12">
+        <v>2019</v>
+      </c>
+      <c r="M7" s="12">
+        <v>2030</v>
+      </c>
+      <c r="N7" s="12">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="50" t="str">
+        <f>RES!W2</f>
+        <v>IPGMD</v>
+      </c>
+      <c r="C8" s="50" t="str">
+        <f>RES!O3</f>
+        <v>Industry - PGMs - Platinum</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="303">
+        <f>'PGM methodology'!G22</f>
+        <v>28</v>
+      </c>
+      <c r="F8" s="303">
+        <f>'PGM methodology'!H22</f>
+        <v>28</v>
+      </c>
+      <c r="G8" s="303">
+        <f>'PGM methodology'!I22</f>
+        <v>29</v>
+      </c>
+      <c r="H8" s="303">
+        <f>'PGM methodology'!J22</f>
+        <v>32</v>
+      </c>
+      <c r="I8" s="303">
+        <f>'PGM methodology'!K22</f>
+        <v>31</v>
+      </c>
+      <c r="J8" s="303">
+        <f>'PGM methodology'!L22</f>
+        <v>31</v>
+      </c>
+      <c r="K8" s="369">
+        <v>30.822038664165241</v>
+      </c>
+      <c r="L8" s="369">
+        <v>30.425949170614519</v>
+      </c>
+      <c r="M8" s="303">
+        <f>J8</f>
+        <v>31</v>
+      </c>
+      <c r="N8" s="303">
+        <f>M8</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="303"/>
+      <c r="F9" s="303"/>
+      <c r="G9" s="303"/>
+      <c r="H9" s="303"/>
+      <c r="I9" s="303"/>
+      <c r="J9" s="303"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20844,52 +20936,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21697,43 +21789,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -21742,32 +21809,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21797,18 +21889,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -21817,57 +21934,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22276,18 +22368,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22296,7 +22388,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22326,18 +22418,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22346,7 +22438,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22427,43 +22519,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22472,32 +22539,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22527,18 +22619,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22547,57 +22664,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23010,18 +23102,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23030,57 +23147,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23110,43 +23202,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23155,32 +23222,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -32478,59 +32570,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="359" t="s">
+      <c r="A1" s="362" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="359"/>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="359"/>
-      <c r="F1" s="359"/>
-      <c r="I1" s="359" t="s">
+      <c r="B1" s="362"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="I1" s="362" t="s">
         <v>385</v>
       </c>
-      <c r="J1" s="359"/>
-      <c r="K1" s="359"/>
-      <c r="M1" s="359"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="M1" s="362"/>
       <c r="N1" s="241" t="s">
         <v>386</v>
       </c>
       <c r="O1" s="241"/>
       <c r="P1" s="241"/>
-      <c r="Z1" s="359"/>
-      <c r="AA1" s="360" t="s">
+      <c r="Z1" s="362"/>
+      <c r="AA1" s="363" t="s">
         <v>387</v>
       </c>
-      <c r="AB1" s="360"/>
-      <c r="AC1" s="360"/>
-      <c r="AD1" s="360"/>
-      <c r="AE1" s="360"/>
-      <c r="AF1" s="360"/>
-      <c r="AG1" s="360"/>
-      <c r="AH1" s="360"/>
-      <c r="AI1" s="360"/>
-      <c r="AJ1" s="360"/>
-      <c r="AK1" s="360"/>
-      <c r="AL1" s="360"/>
-      <c r="AM1" s="360"/>
+      <c r="AB1" s="363"/>
+      <c r="AC1" s="363"/>
+      <c r="AD1" s="363"/>
+      <c r="AE1" s="363"/>
+      <c r="AF1" s="363"/>
+      <c r="AG1" s="363"/>
+      <c r="AH1" s="363"/>
+      <c r="AI1" s="363"/>
+      <c r="AJ1" s="363"/>
+      <c r="AK1" s="363"/>
+      <c r="AL1" s="363"/>
+      <c r="AM1" s="363"/>
       <c r="AN1" s="242"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="361" t="s">
+      <c r="A2" s="359" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="361"/>
-      <c r="C2" s="361"/>
-      <c r="D2" s="361"/>
-      <c r="E2" s="361"/>
-      <c r="F2" s="361"/>
-      <c r="I2" s="361" t="s">
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="I2" s="359" t="s">
         <v>235</v>
       </c>
-      <c r="J2" s="361"/>
-      <c r="K2" s="361"/>
-      <c r="M2" s="359"/>
-      <c r="Z2" s="359"/>
+      <c r="J2" s="359"/>
+      <c r="K2" s="359"/>
+      <c r="M2" s="362"/>
+      <c r="Z2" s="362"/>
       <c r="AN2" s="242"/>
     </row>
     <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -32561,7 +32653,7 @@
       <c r="K3" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="359"/>
+      <c r="M3" s="362"/>
       <c r="N3" s="240" t="s">
         <v>391</v>
       </c>
@@ -32571,18 +32663,18 @@
       <c r="P3" s="240" t="s">
         <v>392</v>
       </c>
-      <c r="Z3" s="359"/>
-      <c r="AA3" s="362" t="s">
+      <c r="Z3" s="362"/>
+      <c r="AA3" s="364" t="s">
         <v>393</v>
       </c>
-      <c r="AB3" s="362"/>
-      <c r="AD3" s="363" t="s">
+      <c r="AB3" s="364"/>
+      <c r="AD3" s="365" t="s">
         <v>394</v>
       </c>
-      <c r="AE3" s="364"/>
-      <c r="AF3" s="364"/>
-      <c r="AG3" s="364"/>
-      <c r="AH3" s="364"/>
+      <c r="AE3" s="366"/>
+      <c r="AF3" s="366"/>
+      <c r="AG3" s="366"/>
+      <c r="AH3" s="366"/>
       <c r="AN3" s="242"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -32614,8 +32706,8 @@
       <c r="K4" s="243">
         <v>0.21</v>
       </c>
-      <c r="M4" s="359"/>
-      <c r="Z4" s="359"/>
+      <c r="M4" s="362"/>
+      <c r="Z4" s="362"/>
       <c r="AA4" s="243" t="s">
         <v>178</v>
       </c>
@@ -32674,12 +32766,12 @@
       <c r="K5" s="243">
         <v>0.78</v>
       </c>
-      <c r="M5" s="359"/>
-      <c r="N5" s="362" t="s">
+      <c r="M5" s="362"/>
+      <c r="N5" s="364" t="s">
         <v>399</v>
       </c>
-      <c r="O5" s="362"/>
-      <c r="Z5" s="359"/>
+      <c r="O5" s="364"/>
+      <c r="Z5" s="362"/>
       <c r="AA5" s="243" t="s">
         <v>143</v>
       </c>
@@ -32732,7 +32824,7 @@
       <c r="K6" s="243">
         <v>0.01</v>
       </c>
-      <c r="M6" s="359"/>
+      <c r="M6" s="362"/>
       <c r="N6" s="243" t="s">
         <v>401</v>
       </c>
@@ -32740,7 +32832,7 @@
         <f>O3/B34</f>
         <v>99500000</v>
       </c>
-      <c r="Z6" s="359"/>
+      <c r="Z6" s="362"/>
       <c r="AA6" s="243" t="s">
         <v>232</v>
       </c>
@@ -32789,7 +32881,7 @@
       <c r="K7" s="243">
         <v>100</v>
       </c>
-      <c r="M7" s="359"/>
+      <c r="M7" s="362"/>
       <c r="N7" s="243" t="s">
         <v>402</v>
       </c>
@@ -32797,7 +32889,7 @@
         <f>O3/B35</f>
         <v>1990000.0000000002</v>
       </c>
-      <c r="Z7" s="359"/>
+      <c r="Z7" s="362"/>
       <c r="AA7" s="243" t="s">
         <v>179</v>
       </c>
@@ -32845,7 +32937,7 @@
         <f>SUM('Students worksheet'!B8:E8)</f>
         <v>23.700000000000003</v>
       </c>
-      <c r="M8" s="359"/>
+      <c r="M8" s="362"/>
       <c r="N8" s="243" t="s">
         <v>403</v>
       </c>
@@ -32853,7 +32945,7 @@
         <f>O3/B38</f>
         <v>298.64932466233114</v>
       </c>
-      <c r="Z8" s="359"/>
+      <c r="Z8" s="362"/>
       <c r="AA8" s="243" t="s">
         <v>400</v>
       </c>
@@ -32876,18 +32968,18 @@
       <c r="AN8" s="242"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="I9" s="361" t="s">
+      <c r="I9" s="359" t="s">
         <v>404</v>
       </c>
-      <c r="J9" s="361"/>
-      <c r="M9" s="359"/>
-      <c r="R9" s="365" t="s">
+      <c r="J9" s="359"/>
+      <c r="M9" s="362"/>
+      <c r="R9" s="367" t="s">
         <v>394</v>
       </c>
-      <c r="S9" s="365"/>
-      <c r="T9" s="365"/>
-      <c r="U9" s="365"/>
-      <c r="Z9" s="359"/>
+      <c r="S9" s="367"/>
+      <c r="T9" s="367"/>
+      <c r="U9" s="367"/>
+      <c r="Z9" s="362"/>
       <c r="AD9" s="248" t="s">
         <v>239</v>
       </c>
@@ -32904,20 +32996,20 @@
       <c r="AN9" s="242"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="361" t="s">
+      <c r="A10" s="359" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="361"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="361"/>
-      <c r="E10" s="361"/>
+      <c r="B10" s="359"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
       <c r="I10" s="243" t="s">
         <v>291</v>
       </c>
       <c r="J10" s="243" t="s">
         <v>405</v>
       </c>
-      <c r="M10" s="359"/>
+      <c r="M10" s="362"/>
       <c r="N10" s="243" t="s">
         <v>396</v>
       </c>
@@ -32945,7 +33037,7 @@
       <c r="V10" s="243" t="s">
         <v>409</v>
       </c>
-      <c r="Z10" s="359"/>
+      <c r="Z10" s="362"/>
       <c r="AN10" s="242"/>
     </row>
     <row r="11" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -32972,7 +33064,7 @@
         <v>293</v>
       </c>
       <c r="J11" s="243"/>
-      <c r="M11" s="359"/>
+      <c r="M11" s="362"/>
       <c r="N11" s="243" t="s">
         <v>226</v>
       </c>
@@ -33005,14 +33097,14 @@
         <f>Q11/$O$3</f>
         <v>0.1</v>
       </c>
-      <c r="Z11" s="359"/>
-      <c r="AD11" s="366" t="s">
+      <c r="Z11" s="362"/>
+      <c r="AD11" s="368" t="s">
         <v>410</v>
       </c>
-      <c r="AE11" s="366"/>
-      <c r="AF11" s="366"/>
-      <c r="AG11" s="366"/>
-      <c r="AH11" s="366"/>
+      <c r="AE11" s="368"/>
+      <c r="AF11" s="368"/>
+      <c r="AG11" s="368"/>
+      <c r="AH11" s="368"/>
       <c r="AN11" s="242"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -33042,7 +33134,7 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M12" s="359"/>
+      <c r="M12" s="362"/>
       <c r="N12" s="243" t="s">
         <v>324</v>
       </c>
@@ -33071,7 +33163,7 @@
         <f>Q12/$O$3</f>
         <v>4.2753623188405795E-2</v>
       </c>
-      <c r="Z12" s="359"/>
+      <c r="Z12" s="362"/>
       <c r="AD12" s="243" t="s">
         <v>396</v>
       </c>
@@ -33122,7 +33214,7 @@
         <f>(C29+C30)/2</f>
         <v>64.481351981351992</v>
       </c>
-      <c r="M13" s="359"/>
+      <c r="M13" s="362"/>
       <c r="N13" s="243" t="s">
         <v>228</v>
       </c>
@@ -33157,7 +33249,7 @@
         <f>Q13/$O$3</f>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="Z13" s="359"/>
+      <c r="Z13" s="362"/>
       <c r="AD13" s="243" t="s">
         <v>226</v>
       </c>
@@ -33202,7 +33294,7 @@
         <f t="shared" si="0"/>
         <v>1.9083969465648859E-2</v>
       </c>
-      <c r="M14" s="359"/>
+      <c r="M14" s="362"/>
       <c r="N14" s="243" t="s">
         <v>229</v>
       </c>
@@ -33237,7 +33329,7 @@
         <f>Q14/$O$3</f>
         <v>1.1800000000000001E-2</v>
       </c>
-      <c r="Z14" s="359"/>
+      <c r="Z14" s="362"/>
       <c r="AA14" s="252"/>
       <c r="AD14" s="243" t="s">
         <v>324</v>
@@ -33284,7 +33376,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="254"/>
-      <c r="M15" s="359"/>
+      <c r="M15" s="362"/>
       <c r="N15" s="255" t="s">
         <v>239</v>
       </c>
@@ -33316,7 +33408,7 @@
         <f>Q15/$O$3</f>
         <v>2.0866666666666669E-2</v>
       </c>
-      <c r="Z15" s="359"/>
+      <c r="Z15" s="362"/>
       <c r="AD15" s="243" t="s">
         <v>228</v>
       </c>
@@ -33344,10 +33436,10 @@
       <c r="AN15" s="242"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M16" s="359"/>
+      <c r="M16" s="362"/>
       <c r="Q16" s="257"/>
       <c r="R16" s="257"/>
-      <c r="Z16" s="359"/>
+      <c r="Z16" s="362"/>
       <c r="AD16" s="243" t="s">
         <v>229</v>
       </c>
@@ -33374,14 +33466,14 @@
       <c r="AN16" s="242"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="361" t="s">
+      <c r="A17" s="359" t="s">
         <v>297</v>
       </c>
-      <c r="B17" s="361"/>
-      <c r="C17" s="361"/>
-      <c r="M17" s="359"/>
+      <c r="B17" s="359"/>
+      <c r="C17" s="359"/>
+      <c r="M17" s="362"/>
       <c r="Q17" s="258"/>
-      <c r="Z17" s="359"/>
+      <c r="Z17" s="362"/>
       <c r="AD17" s="243" t="s">
         <v>239</v>
       </c>
@@ -33415,8 +33507,8 @@
       <c r="C18" s="243" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="359"/>
-      <c r="Z18" s="359"/>
+      <c r="M18" s="362"/>
+      <c r="Z18" s="362"/>
       <c r="AN18" s="242"/>
     </row>
     <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33430,8 +33522,8 @@
         <v>236</v>
       </c>
       <c r="J19" s="254"/>
-      <c r="M19" s="359"/>
-      <c r="Z19" s="359"/>
+      <c r="M19" s="362"/>
+      <c r="Z19" s="362"/>
       <c r="AA19" s="358" t="s">
         <v>414</v>
       </c>
@@ -33459,7 +33551,7 @@
         <v>237</v>
       </c>
       <c r="J20" s="259"/>
-      <c r="M20" s="359"/>
+      <c r="M20" s="362"/>
       <c r="N20" s="358" t="s">
         <v>415</v>
       </c>
@@ -33474,7 +33566,7 @@
       <c r="W20" s="358"/>
       <c r="X20" s="358"/>
       <c r="Y20" s="358"/>
-      <c r="Z20" s="359"/>
+      <c r="Z20" s="362"/>
       <c r="AN20" s="242"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -33487,7 +33579,7 @@
       <c r="C21" s="243" t="s">
         <v>238</v>
       </c>
-      <c r="M21" s="359"/>
+      <c r="M21" s="362"/>
       <c r="N21" s="243"/>
       <c r="O21" s="243" t="s">
         <v>178</v>
@@ -33501,7 +33593,7 @@
       <c r="R21" s="243" t="s">
         <v>397</v>
       </c>
-      <c r="Z21" s="359"/>
+      <c r="Z21" s="362"/>
       <c r="AJ21" s="260"/>
       <c r="AN21" s="242"/>
     </row>
@@ -33515,7 +33607,7 @@
       <c r="C22" s="243" t="s">
         <v>238</v>
       </c>
-      <c r="M22" s="359"/>
+      <c r="M22" s="362"/>
       <c r="N22" s="243" t="s">
         <v>226</v>
       </c>
@@ -33535,12 +33627,12 @@
         <f t="shared" si="1"/>
         <v>5.1005160550458708</v>
       </c>
-      <c r="Z22" s="359"/>
+      <c r="Z22" s="362"/>
       <c r="AJ22" s="260"/>
       <c r="AN22" s="242"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M23" s="359"/>
+      <c r="M23" s="362"/>
       <c r="N23" s="243" t="s">
         <v>416</v>
       </c>
@@ -33560,12 +33652,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="359"/>
+      <c r="Z23" s="362"/>
       <c r="AJ23" s="260"/>
       <c r="AN23" s="242"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M24" s="359"/>
+      <c r="M24" s="362"/>
       <c r="N24" s="243" t="s">
         <v>228</v>
       </c>
@@ -33585,17 +33677,17 @@
         <f t="shared" si="1"/>
         <v>2.6909552238805975E-2</v>
       </c>
-      <c r="Z24" s="359"/>
+      <c r="Z24" s="362"/>
       <c r="AJ24" s="260"/>
       <c r="AN24" s="242"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="361" t="s">
+      <c r="A25" s="359" t="s">
         <v>417</v>
       </c>
-      <c r="B25" s="361"/>
-      <c r="C25" s="361"/>
-      <c r="M25" s="359"/>
+      <c r="B25" s="359"/>
+      <c r="C25" s="359"/>
+      <c r="M25" s="362"/>
       <c r="N25" s="243" t="s">
         <v>229</v>
       </c>
@@ -33615,7 +33707,7 @@
         <f t="shared" si="1"/>
         <v>6.721946564885499E-2</v>
       </c>
-      <c r="Z25" s="359"/>
+      <c r="Z25" s="362"/>
       <c r="AN25" s="242"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -33626,7 +33718,7 @@
       <c r="C26" s="243" t="s">
         <v>405</v>
       </c>
-      <c r="M26" s="359"/>
+      <c r="M26" s="362"/>
       <c r="N26" s="243" t="s">
         <v>239</v>
       </c>
@@ -33646,7 +33738,7 @@
         <f t="shared" si="1"/>
         <v>6.2287000000000009E-2</v>
       </c>
-      <c r="Z26" s="359"/>
+      <c r="Z26" s="362"/>
       <c r="AN26" s="242"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -33657,8 +33749,8 @@
         <v>231</v>
       </c>
       <c r="C27" s="243"/>
-      <c r="M27" s="359"/>
-      <c r="Z27" s="359"/>
+      <c r="M27" s="362"/>
+      <c r="Z27" s="362"/>
       <c r="AN27" s="242"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -33672,8 +33764,8 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M28" s="359"/>
-      <c r="Z28" s="359"/>
+      <c r="M28" s="362"/>
+      <c r="Z28" s="362"/>
       <c r="AN28" s="242"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -33687,8 +33779,8 @@
         <f>109/1.56</f>
         <v>69.871794871794876</v>
       </c>
-      <c r="M29" s="359"/>
-      <c r="Z29" s="359"/>
+      <c r="M29" s="362"/>
+      <c r="Z29" s="362"/>
       <c r="AN29" s="242"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -33702,23 +33794,23 @@
         <f>13/0.22</f>
         <v>59.090909090909093</v>
       </c>
-      <c r="M30" s="359"/>
-      <c r="Z30" s="359"/>
+      <c r="M30" s="362"/>
+      <c r="Z30" s="362"/>
       <c r="AN30" s="242"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M31" s="359"/>
-      <c r="Z31" s="359"/>
+      <c r="M31" s="362"/>
+      <c r="Z31" s="362"/>
       <c r="AN31" s="242"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="367" t="s">
+      <c r="A32" s="360" t="s">
         <v>419</v>
       </c>
-      <c r="B32" s="367"/>
-      <c r="C32" s="367"/>
-      <c r="M32" s="359"/>
-      <c r="Z32" s="359"/>
+      <c r="B32" s="360"/>
+      <c r="C32" s="360"/>
+      <c r="M32" s="362"/>
+      <c r="Z32" s="362"/>
       <c r="AN32" s="242"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -33728,8 +33820,8 @@
       <c r="B33" s="243" t="s">
         <v>243</v>
       </c>
-      <c r="M33" s="359"/>
-      <c r="Z33" s="359"/>
+      <c r="M33" s="362"/>
+      <c r="Z33" s="362"/>
       <c r="AN33" s="242"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -33739,8 +33831,8 @@
       <c r="B34" s="261">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="M34" s="359"/>
-      <c r="Z34" s="359"/>
+      <c r="M34" s="362"/>
+      <c r="Z34" s="362"/>
       <c r="AN34" s="242"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -33750,8 +33842,8 @@
       <c r="B35" s="250">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M35" s="359"/>
-      <c r="Z35" s="359"/>
+      <c r="M35" s="362"/>
+      <c r="Z35" s="362"/>
       <c r="AN35" s="242"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -33761,8 +33853,8 @@
       <c r="B36" s="250">
         <v>2E-3</v>
       </c>
-      <c r="M36" s="359"/>
-      <c r="Z36" s="359"/>
+      <c r="M36" s="362"/>
+      <c r="Z36" s="362"/>
       <c r="AN36" s="242"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -33772,8 +33864,8 @@
       <c r="B37" s="250">
         <v>0.5</v>
       </c>
-      <c r="M37" s="359"/>
-      <c r="Z37" s="359"/>
+      <c r="M37" s="362"/>
+      <c r="Z37" s="362"/>
       <c r="AN37" s="242"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -33783,31 +33875,31 @@
       <c r="B38" s="250">
         <v>0.99950000000000006</v>
       </c>
-      <c r="M38" s="359"/>
-      <c r="Z38" s="359"/>
+      <c r="M38" s="362"/>
+      <c r="Z38" s="362"/>
       <c r="AN38" s="242"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M39" s="359"/>
-      <c r="Z39" s="359"/>
+      <c r="M39" s="362"/>
+      <c r="Z39" s="362"/>
       <c r="AN39" s="242"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M40" s="359"/>
-      <c r="Z40" s="359"/>
+      <c r="M40" s="362"/>
+      <c r="Z40" s="362"/>
       <c r="AN40" s="242"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="262" t="s">
         <v>420</v>
       </c>
-      <c r="M41" s="359"/>
-      <c r="Z41" s="359"/>
+      <c r="M41" s="362"/>
+      <c r="Z41" s="362"/>
       <c r="AN41" s="242"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M42" s="359"/>
-      <c r="Z42" s="359"/>
+      <c r="M42" s="362"/>
+      <c r="Z42" s="362"/>
       <c r="AN42" s="242"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -33821,8 +33913,8 @@
       <c r="D43" s="243" t="s">
         <v>421</v>
       </c>
-      <c r="M43" s="359"/>
-      <c r="Z43" s="359"/>
+      <c r="M43" s="362"/>
+      <c r="Z43" s="362"/>
       <c r="AN43" s="242"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -33841,8 +33933,8 @@
         <f>D45/B35/1000000</f>
         <v>1.9933333333333334</v>
       </c>
-      <c r="M44" s="359"/>
-      <c r="Z44" s="359"/>
+      <c r="M44" s="362"/>
+      <c r="Z44" s="362"/>
       <c r="AN44" s="242"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -33858,8 +33950,8 @@
       <c r="D45" s="246">
         <v>299</v>
       </c>
-      <c r="M45" s="359"/>
-      <c r="Z45" s="359"/>
+      <c r="M45" s="362"/>
+      <c r="Z45" s="362"/>
       <c r="AN45" s="242"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -33878,47 +33970,47 @@
         <f>((D44*1000000)-D45)/1000000</f>
         <v>1.9930343333333336</v>
       </c>
-      <c r="M46" s="359"/>
-      <c r="Z46" s="359"/>
+      <c r="M46" s="362"/>
+      <c r="Z46" s="362"/>
       <c r="AN46" s="242"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M47" s="359"/>
-      <c r="Z47" s="359"/>
+      <c r="M47" s="362"/>
+      <c r="Z47" s="362"/>
       <c r="AN47" s="242"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M48" s="359"/>
-      <c r="Z48" s="359"/>
+      <c r="M48" s="362"/>
+      <c r="Z48" s="362"/>
       <c r="AN48" s="242"/>
     </row>
     <row r="49" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M49" s="359"/>
-      <c r="Z49" s="359"/>
+      <c r="M49" s="362"/>
+      <c r="Z49" s="362"/>
       <c r="AN49" s="242"/>
     </row>
     <row r="50" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M50" s="359"/>
-      <c r="Z50" s="359"/>
+      <c r="M50" s="362"/>
+      <c r="Z50" s="362"/>
       <c r="AN50" s="242"/>
     </row>
     <row r="51" spans="13:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="M51" s="359"/>
-      <c r="N51" s="368" t="s">
+      <c r="M51" s="362"/>
+      <c r="N51" s="361" t="s">
         <v>425</v>
       </c>
-      <c r="O51" s="368"/>
-      <c r="P51" s="368"/>
-      <c r="Q51" s="368"/>
-      <c r="R51" s="368"/>
-      <c r="S51" s="368"/>
-      <c r="T51" s="368"/>
-      <c r="U51" s="368"/>
-      <c r="V51" s="368"/>
-      <c r="W51" s="368"/>
-      <c r="X51" s="368"/>
-      <c r="Y51" s="368"/>
-      <c r="Z51" s="359"/>
+      <c r="O51" s="361"/>
+      <c r="P51" s="361"/>
+      <c r="Q51" s="361"/>
+      <c r="R51" s="361"/>
+      <c r="S51" s="361"/>
+      <c r="T51" s="361"/>
+      <c r="U51" s="361"/>
+      <c r="V51" s="361"/>
+      <c r="W51" s="361"/>
+      <c r="X51" s="361"/>
+      <c r="Y51" s="361"/>
+      <c r="Z51" s="362"/>
       <c r="AA51" s="358" t="s">
         <v>426</v>
       </c>
@@ -33936,12 +34028,12 @@
       <c r="AN51" s="242"/>
     </row>
     <row r="52" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M52" s="359"/>
-      <c r="Z52" s="359"/>
+      <c r="M52" s="362"/>
+      <c r="Z52" s="362"/>
       <c r="AN52" s="242"/>
     </row>
     <row r="53" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M53" s="359"/>
+      <c r="M53" s="362"/>
       <c r="N53" s="243"/>
       <c r="O53" s="243" t="s">
         <v>226</v>
@@ -33961,7 +34053,7 @@
       <c r="T53" s="240" t="s">
         <v>222</v>
       </c>
-      <c r="Z53" s="359"/>
+      <c r="Z53" s="362"/>
       <c r="AA53" s="243"/>
       <c r="AB53" s="243" t="s">
         <v>226</v>
@@ -33987,7 +34079,7 @@
       <c r="AN53" s="242"/>
     </row>
     <row r="54" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M54" s="359"/>
+      <c r="M54" s="362"/>
       <c r="N54" s="243" t="s">
         <v>429</v>
       </c>
@@ -34014,7 +34106,7 @@
         <f>SUM(O54:S54)</f>
         <v>55.148956521739137</v>
       </c>
-      <c r="Z54" s="359"/>
+      <c r="Z54" s="362"/>
       <c r="AA54" s="243" t="s">
         <v>430</v>
       </c>
@@ -34051,7 +34143,7 @@
       <c r="AN54" s="242"/>
     </row>
     <row r="55" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M55" s="359"/>
+      <c r="M55" s="362"/>
       <c r="N55" s="243" t="s">
         <v>431</v>
       </c>
@@ -34077,7 +34169,7 @@
         <f>SUM(O55:S55)</f>
         <v>48.840656521739135</v>
       </c>
-      <c r="Z55" s="359"/>
+      <c r="Z55" s="362"/>
       <c r="AA55" s="243" t="s">
         <v>432</v>
       </c>
@@ -34113,27 +34205,27 @@
       <c r="AN55" s="242"/>
     </row>
     <row r="56" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M56" s="359"/>
-      <c r="Z56" s="359"/>
+      <c r="M56" s="362"/>
+      <c r="Z56" s="362"/>
       <c r="AH56" s="258"/>
       <c r="AN56" s="242"/>
     </row>
     <row r="57" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M57" s="359"/>
-      <c r="Z57" s="359"/>
+      <c r="M57" s="362"/>
+      <c r="Z57" s="362"/>
       <c r="AN57" s="242"/>
     </row>
     <row r="58" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M58" s="359"/>
+      <c r="M58" s="362"/>
       <c r="R58" s="258"/>
       <c r="V58" s="264"/>
-      <c r="Z58" s="359"/>
+      <c r="Z58" s="362"/>
       <c r="AN58" s="242"/>
     </row>
     <row r="59" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M59" s="359"/>
+      <c r="M59" s="362"/>
       <c r="V59" s="264"/>
-      <c r="Z59" s="359"/>
+      <c r="Z59" s="362"/>
       <c r="AA59" s="243"/>
       <c r="AB59" s="243" t="s">
         <v>226</v>
@@ -34154,8 +34246,8 @@
       <c r="AN59" s="242"/>
     </row>
     <row r="60" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M60" s="359"/>
-      <c r="Z60" s="359"/>
+      <c r="M60" s="362"/>
+      <c r="Z60" s="362"/>
       <c r="AA60" s="243" t="s">
         <v>429</v>
       </c>
@@ -34181,8 +34273,8 @@
       <c r="AN60" s="242"/>
     </row>
     <row r="61" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M61" s="359"/>
-      <c r="Z61" s="359"/>
+      <c r="M61" s="362"/>
+      <c r="Z61" s="362"/>
       <c r="AA61" s="243" t="s">
         <v>434</v>
       </c>
@@ -34208,116 +34300,116 @@
       <c r="AN61" s="242"/>
     </row>
     <row r="62" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M62" s="359"/>
-      <c r="Z62" s="359"/>
+      <c r="M62" s="362"/>
+      <c r="Z62" s="362"/>
       <c r="AN62" s="242"/>
     </row>
     <row r="63" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M63" s="359"/>
-      <c r="Z63" s="359"/>
+      <c r="M63" s="362"/>
+      <c r="Z63" s="362"/>
       <c r="AN63" s="242"/>
     </row>
     <row r="64" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M64" s="359"/>
-      <c r="Z64" s="359"/>
+      <c r="M64" s="362"/>
+      <c r="Z64" s="362"/>
       <c r="AN64" s="242"/>
     </row>
     <row r="65" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M65" s="359"/>
-      <c r="Z65" s="359"/>
+      <c r="M65" s="362"/>
+      <c r="Z65" s="362"/>
       <c r="AN65" s="242"/>
     </row>
     <row r="66" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M66" s="359"/>
-      <c r="Z66" s="359"/>
+      <c r="M66" s="362"/>
+      <c r="Z66" s="362"/>
       <c r="AN66" s="242"/>
     </row>
     <row r="67" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M67" s="359"/>
-      <c r="Z67" s="359"/>
+      <c r="M67" s="362"/>
+      <c r="Z67" s="362"/>
       <c r="AN67" s="242"/>
     </row>
     <row r="68" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M68" s="359"/>
-      <c r="Z68" s="359"/>
+      <c r="M68" s="362"/>
+      <c r="Z68" s="362"/>
       <c r="AN68" s="242"/>
     </row>
     <row r="69" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M69" s="359"/>
-      <c r="Z69" s="359"/>
+      <c r="M69" s="362"/>
+      <c r="Z69" s="362"/>
       <c r="AN69" s="242"/>
     </row>
     <row r="70" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M70" s="359"/>
-      <c r="Z70" s="359"/>
+      <c r="M70" s="362"/>
+      <c r="Z70" s="362"/>
       <c r="AN70" s="242"/>
     </row>
     <row r="71" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M71" s="359"/>
-      <c r="Z71" s="359"/>
+      <c r="M71" s="362"/>
+      <c r="Z71" s="362"/>
       <c r="AN71" s="242"/>
     </row>
     <row r="72" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M72" s="359"/>
-      <c r="Z72" s="359"/>
+      <c r="M72" s="362"/>
+      <c r="Z72" s="362"/>
       <c r="AN72" s="242"/>
     </row>
     <row r="73" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M73" s="359"/>
-      <c r="Z73" s="359"/>
+      <c r="M73" s="362"/>
+      <c r="Z73" s="362"/>
       <c r="AN73" s="242"/>
     </row>
     <row r="74" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M74" s="359"/>
-      <c r="Z74" s="359"/>
+      <c r="M74" s="362"/>
+      <c r="Z74" s="362"/>
       <c r="AN74" s="242"/>
     </row>
     <row r="75" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M75" s="359"/>
-      <c r="Z75" s="359"/>
+      <c r="M75" s="362"/>
+      <c r="Z75" s="362"/>
       <c r="AN75" s="242"/>
     </row>
     <row r="76" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M76" s="359"/>
-      <c r="Z76" s="359"/>
+      <c r="M76" s="362"/>
+      <c r="Z76" s="362"/>
       <c r="AN76" s="242"/>
     </row>
     <row r="77" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M77" s="359"/>
-      <c r="Z77" s="359"/>
+      <c r="M77" s="362"/>
+      <c r="Z77" s="362"/>
       <c r="AN77" s="242"/>
     </row>
     <row r="78" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M78" s="359"/>
-      <c r="Z78" s="359"/>
+      <c r="M78" s="362"/>
+      <c r="Z78" s="362"/>
       <c r="AN78" s="242"/>
     </row>
     <row r="79" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M79" s="359"/>
-      <c r="Z79" s="359"/>
+      <c r="M79" s="362"/>
+      <c r="Z79" s="362"/>
       <c r="AN79" s="242"/>
     </row>
     <row r="80" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M80" s="359"/>
-      <c r="Z80" s="359"/>
+      <c r="M80" s="362"/>
+      <c r="Z80" s="362"/>
       <c r="AN80" s="242"/>
     </row>
     <row r="81" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M81" s="359"/>
-      <c r="Z81" s="359"/>
+      <c r="M81" s="362"/>
+      <c r="Z81" s="362"/>
       <c r="AN81" s="242"/>
     </row>
     <row r="82" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M82" s="359"/>
-      <c r="Z82" s="359"/>
+      <c r="M82" s="362"/>
+      <c r="Z82" s="362"/>
       <c r="AN82" s="242"/>
     </row>
     <row r="83" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z83" s="359"/>
+      <c r="Z83" s="362"/>
       <c r="AN83" s="242"/>
     </row>
     <row r="84" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z84" s="359"/>
+      <c r="Z84" s="362"/>
       <c r="AN84" s="242"/>
     </row>
     <row r="85" spans="13:40" x14ac:dyDescent="0.2">
@@ -34325,11 +34417,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N20:Y20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="N51:Y51"/>
-    <mergeCell ref="AA51:AL51"/>
     <mergeCell ref="AA19:AL19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:K1"/>
@@ -34346,6 +34433,11 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="AD11:AH11"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="N20:Y20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="N51:Y51"/>
+    <mergeCell ref="AA51:AL51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35074,8 +35166,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId6" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId14" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35094,182 +35361,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId8" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId16" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35458,8 +35550,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -35478,82 +35645,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35627,8 +35719,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -35647,232 +35964,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35936,8 +36028,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -35956,182 +36223,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36206,8 +36298,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -36226,232 +36543,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36538,8 +36630,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36558,232 +36875,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36860,8 +36952,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -36880,182 +37147,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37141,8 +37233,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -37161,232 +37478,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40742,8 +40834,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -40762,32 +40879,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40848,18 +40940,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -40868,7 +40960,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -40898,18 +40990,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -40918,7 +41010,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40932,7 +41024,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -41186,18 +41278,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41206,7 +41298,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41236,18 +41328,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41256,7 +41348,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998724C-5BE0-4DF8-BB5E-0C6FB78C3CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B9B91A-8016-42BD-941E-EBD23F8612B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28770" windowHeight="15570" firstSheet="3" activeTab="13" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -3881,6 +3881,7 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="50" fillId="0" borderId="34" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
     </xf>
@@ -3941,20 +3942,14 @@
     <xf numFmtId="4" fontId="56" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="42" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="42" fillId="9" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="42" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3971,7 +3966,12 @@
     <xf numFmtId="4" fontId="56" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Bad" xfId="21" builtinId="27"/>
@@ -4119,7 +4119,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4251,7 +4251,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4339,7 +4339,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4383,7 +4383,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19434,80 +19434,21 @@
       <sheetData sheetId="54"/>
       <sheetData sheetId="55">
         <row r="31">
-          <cell r="P31"/>
           <cell r="R31">
             <v>4.5246489747494749</v>
           </cell>
           <cell r="S31">
             <v>32.653642004977343</v>
           </cell>
-          <cell r="T31"/>
-        </row>
-        <row r="32">
-          <cell r="P32"/>
-          <cell r="R32"/>
-          <cell r="S32"/>
-          <cell r="T32"/>
-        </row>
-        <row r="33">
-          <cell r="P33"/>
-          <cell r="R33"/>
-          <cell r="S33"/>
-          <cell r="T33"/>
-        </row>
-        <row r="34">
-          <cell r="P34"/>
-          <cell r="R34"/>
-          <cell r="S34"/>
-          <cell r="T34"/>
-        </row>
-        <row r="35">
-          <cell r="P35"/>
-          <cell r="R35"/>
-          <cell r="S35"/>
-          <cell r="T35"/>
         </row>
         <row r="36">
-          <cell r="P36"/>
-          <cell r="R36"/>
           <cell r="S36">
             <v>6.6440578329725435</v>
           </cell>
-          <cell r="T36"/>
-        </row>
-        <row r="37">
-          <cell r="P37"/>
-          <cell r="R37"/>
-          <cell r="S37"/>
-          <cell r="T37"/>
-        </row>
-        <row r="38">
-          <cell r="P38"/>
-          <cell r="R38"/>
-          <cell r="S38"/>
-          <cell r="T38"/>
-        </row>
-        <row r="39">
-          <cell r="P39"/>
-          <cell r="R39"/>
-          <cell r="S39"/>
-          <cell r="T39"/>
-        </row>
-        <row r="40">
-          <cell r="P40"/>
-          <cell r="R40"/>
-          <cell r="S40"/>
-          <cell r="T40"/>
         </row>
       </sheetData>
       <sheetData sheetId="56"/>
-      <sheetData sheetId="57">
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Mining</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="57"/>
       <sheetData sheetId="58"/>
       <sheetData sheetId="59">
         <row r="47">
@@ -19517,23 +19458,11 @@
         </row>
       </sheetData>
       <sheetData sheetId="60"/>
-      <sheetData sheetId="61">
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>*</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="61"/>
       <sheetData sheetId="62"/>
       <sheetData sheetId="63"/>
       <sheetData sheetId="64"/>
-      <sheetData sheetId="65">
-        <row r="10">
-          <cell r="A10" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="65"/>
       <sheetData sheetId="66"/>
       <sheetData sheetId="67"/>
       <sheetData sheetId="68"/>
@@ -20073,52 +20002,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20148,52 +20077,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20266,18 +20195,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20286,7 +20215,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20316,18 +20245,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20336,7 +20265,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20412,18 +20341,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -20432,7 +20361,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20462,18 +20391,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -20482,7 +20411,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20539,44 +20468,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -20584,7 +20488,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20614,8 +20543,255 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet17">
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="str">
+        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
+        <v>CommData</v>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>Commodities_BASE!B1</f>
+        <v>REGION1</v>
+      </c>
+      <c r="F1" s="53"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
+        <v>CommData_BASE</v>
+      </c>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="63"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="63"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2012</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2013</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2014</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2015</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2016</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2017</v>
+      </c>
+      <c r="K7" s="12">
+        <v>2018</v>
+      </c>
+      <c r="L7" s="12">
+        <v>2019</v>
+      </c>
+      <c r="M7" s="12">
+        <v>2030</v>
+      </c>
+      <c r="N7" s="12">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="50" t="str">
+        <f>RES!W2</f>
+        <v>IPGMD</v>
+      </c>
+      <c r="C8" s="50" t="str">
+        <f>RES!O3</f>
+        <v>Industry - PGMs - Platinum</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="303">
+        <f>'PGM methodology'!G22</f>
+        <v>28</v>
+      </c>
+      <c r="F8" s="303">
+        <f>'PGM methodology'!H22</f>
+        <v>28</v>
+      </c>
+      <c r="G8" s="303">
+        <f>'PGM methodology'!I22</f>
+        <v>29</v>
+      </c>
+      <c r="H8" s="303">
+        <f>'PGM methodology'!J22</f>
+        <v>32</v>
+      </c>
+      <c r="I8" s="303">
+        <f>'PGM methodology'!K22</f>
+        <v>31</v>
+      </c>
+      <c r="J8" s="303">
+        <f>'PGM methodology'!L22</f>
+        <v>31</v>
+      </c>
+      <c r="K8" s="339">
+        <v>30.822038664165241</v>
+      </c>
+      <c r="L8" s="339">
+        <v>30.425949170614519</v>
+      </c>
+      <c r="M8" s="303">
+        <f>J8</f>
+        <v>31</v>
+      </c>
+      <c r="N8" s="303">
+        <f>M8</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="303"/>
+      <c r="F9" s="303"/>
+      <c r="G9" s="303"/>
+      <c r="H9" s="303"/>
+      <c r="I9" s="303"/>
+      <c r="J9" s="303"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -20634,279 +20810,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr codeName="Sheet17">
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="str">
-        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
-        <v>CommData</v>
-      </c>
-      <c r="B1" s="19" t="str">
-        <f>Commodities_BASE!B1</f>
-        <v>REGION1</v>
-      </c>
-      <c r="F1" s="53"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
-        <v>CommData_BASE</v>
-      </c>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="63"/>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="63"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2012</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2013</v>
-      </c>
-      <c r="G7" s="12">
-        <v>2014</v>
-      </c>
-      <c r="H7" s="12">
-        <v>2015</v>
-      </c>
-      <c r="I7" s="12">
-        <v>2016</v>
-      </c>
-      <c r="J7" s="12">
-        <v>2017</v>
-      </c>
-      <c r="K7" s="12">
-        <v>2018</v>
-      </c>
-      <c r="L7" s="12">
-        <v>2019</v>
-      </c>
-      <c r="M7" s="12">
-        <v>2030</v>
-      </c>
-      <c r="N7" s="12">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="str">
-        <f>RES!W2</f>
-        <v>IPGMD</v>
-      </c>
-      <c r="C8" s="50" t="str">
-        <f>RES!O3</f>
-        <v>Industry - PGMs - Platinum</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="303">
-        <f>'PGM methodology'!G22</f>
-        <v>28</v>
-      </c>
-      <c r="F8" s="303">
-        <f>'PGM methodology'!H22</f>
-        <v>28</v>
-      </c>
-      <c r="G8" s="303">
-        <f>'PGM methodology'!I22</f>
-        <v>29</v>
-      </c>
-      <c r="H8" s="303">
-        <f>'PGM methodology'!J22</f>
-        <v>32</v>
-      </c>
-      <c r="I8" s="303">
-        <f>'PGM methodology'!K22</f>
-        <v>31</v>
-      </c>
-      <c r="J8" s="303">
-        <f>'PGM methodology'!L22</f>
-        <v>31</v>
-      </c>
-      <c r="K8" s="369">
-        <v>30.822038664165241</v>
-      </c>
-      <c r="L8" s="369">
-        <v>30.425949170614519</v>
-      </c>
-      <c r="M8" s="303">
-        <f>J8</f>
-        <v>31</v>
-      </c>
-      <c r="N8" s="303">
-        <f>M8</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="303"/>
-      <c r="J9" s="303"/>
-    </row>
-    <row r="10" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20936,52 +20865,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20995,8 +20924,8 @@
   </sheetPr>
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21520,20 +21449,20 @@
       </c>
       <c r="H13" s="119"/>
       <c r="I13" s="119">
-        <f>EB_Exist!F4/0.9</f>
-        <v>288.88888888888886</v>
+        <f>EB_Exist!F4/0.85</f>
+        <v>305.88235294117646</v>
       </c>
       <c r="J13" s="119">
         <f>I13</f>
-        <v>288.88888888888886</v>
+        <v>305.88235294117646</v>
       </c>
       <c r="K13" s="119">
         <f>J13</f>
-        <v>288.88888888888886</v>
+        <v>305.88235294117646</v>
       </c>
       <c r="L13" s="119">
         <f>I13</f>
-        <v>288.88888888888886</v>
+        <v>305.88235294117646</v>
       </c>
       <c r="M13" s="126">
         <v>3</v>
@@ -21789,18 +21718,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -21809,57 +21763,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21889,43 +21818,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -21934,32 +21838,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22368,18 +22297,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22388,7 +22317,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22418,18 +22347,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22438,7 +22367,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22519,18 +22448,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22539,57 +22493,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22619,43 +22548,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22664,32 +22568,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23102,43 +23031,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23147,32 +23051,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23202,18 +23131,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23222,57 +23176,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -26004,26 +25933,26 @@
     </row>
     <row r="50" spans="2:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="177"/>
-      <c r="Q50" s="347"/>
-      <c r="R50" s="347"/>
-      <c r="S50" s="347"/>
-      <c r="T50" s="347"/>
-      <c r="U50" s="347"/>
-      <c r="V50" s="347"/>
-      <c r="W50" s="347"/>
+      <c r="Q50" s="348"/>
+      <c r="R50" s="348"/>
+      <c r="S50" s="348"/>
+      <c r="T50" s="348"/>
+      <c r="U50" s="348"/>
+      <c r="V50" s="348"/>
+      <c r="W50" s="348"/>
       <c r="Y50" s="161"/>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="177"/>
-      <c r="Q51" s="347"/>
-      <c r="R51" s="347"/>
-      <c r="S51" s="347"/>
-      <c r="T51" s="347"/>
-      <c r="U51" s="347"/>
-      <c r="V51" s="347"/>
-      <c r="W51" s="347"/>
-      <c r="X51" s="347"/>
-      <c r="Y51" s="348"/>
+      <c r="Q51" s="348"/>
+      <c r="R51" s="348"/>
+      <c r="S51" s="348"/>
+      <c r="T51" s="348"/>
+      <c r="U51" s="348"/>
+      <c r="V51" s="348"/>
+      <c r="W51" s="348"/>
+      <c r="X51" s="348"/>
+      <c r="Y51" s="349"/>
     </row>
     <row r="52" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="177"/>
@@ -26039,15 +25968,15 @@
       <c r="T52" s="194">
         <v>0.71299999999999997</v>
       </c>
-      <c r="U52" s="349">
+      <c r="U52" s="350">
         <v>0.34</v>
       </c>
-      <c r="V52" s="350"/>
-      <c r="W52" s="349">
+      <c r="V52" s="351"/>
+      <c r="W52" s="350">
         <v>0.21</v>
       </c>
-      <c r="X52" s="351"/>
-      <c r="Y52" s="352"/>
+      <c r="X52" s="352"/>
+      <c r="Y52" s="353"/>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="177"/>
@@ -26063,15 +25992,15 @@
       <c r="T53" s="197">
         <v>0.252</v>
       </c>
-      <c r="U53" s="353">
+      <c r="U53" s="354">
         <v>0.64100000000000001</v>
       </c>
-      <c r="V53" s="354"/>
-      <c r="W53" s="353">
+      <c r="V53" s="355"/>
+      <c r="W53" s="354">
         <v>0.78</v>
       </c>
-      <c r="X53" s="355"/>
-      <c r="Y53" s="356"/>
+      <c r="X53" s="356"/>
+      <c r="Y53" s="357"/>
     </row>
     <row r="54" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="177"/>
@@ -26087,15 +26016,15 @@
       <c r="T54" s="198">
         <v>2.99E-3</v>
       </c>
-      <c r="U54" s="339">
+      <c r="U54" s="340">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="V54" s="340"/>
-      <c r="W54" s="339">
+      <c r="V54" s="341"/>
+      <c r="W54" s="340">
         <v>0.01</v>
       </c>
-      <c r="X54" s="341"/>
-      <c r="Y54" s="342"/>
+      <c r="X54" s="342"/>
+      <c r="Y54" s="343"/>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="177"/>
@@ -26111,15 +26040,15 @@
       <c r="T55" s="199">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="U55" s="343" t="s">
+      <c r="U55" s="344" t="s">
         <v>231</v>
       </c>
-      <c r="V55" s="344"/>
-      <c r="W55" s="343" t="s">
+      <c r="V55" s="345"/>
+      <c r="W55" s="344" t="s">
         <v>231</v>
       </c>
-      <c r="X55" s="345"/>
-      <c r="Y55" s="346"/>
+      <c r="X55" s="346"/>
+      <c r="Y55" s="347"/>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="177"/>
@@ -26615,26 +26544,26 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="177"/>
-      <c r="C26" s="347"/>
-      <c r="D26" s="347"/>
-      <c r="E26" s="347"/>
-      <c r="F26" s="347"/>
-      <c r="G26" s="347"/>
-      <c r="H26" s="347"/>
-      <c r="I26" s="347"/>
+      <c r="C26" s="348"/>
+      <c r="D26" s="348"/>
+      <c r="E26" s="348"/>
+      <c r="F26" s="348"/>
+      <c r="G26" s="348"/>
+      <c r="H26" s="348"/>
+      <c r="I26" s="348"/>
       <c r="K26" s="161"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="177"/>
-      <c r="C27" s="347"/>
-      <c r="D27" s="347"/>
-      <c r="E27" s="347"/>
-      <c r="F27" s="347"/>
-      <c r="G27" s="347"/>
-      <c r="H27" s="347"/>
-      <c r="I27" s="347"/>
-      <c r="J27" s="347"/>
-      <c r="K27" s="348"/>
+      <c r="C27" s="348"/>
+      <c r="D27" s="348"/>
+      <c r="E27" s="348"/>
+      <c r="F27" s="348"/>
+      <c r="G27" s="348"/>
+      <c r="H27" s="348"/>
+      <c r="I27" s="348"/>
+      <c r="J27" s="348"/>
+      <c r="K27" s="349"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="177"/>
@@ -26650,15 +26579,15 @@
       <c r="F28" s="194">
         <v>0.71299999999999997</v>
       </c>
-      <c r="G28" s="349">
+      <c r="G28" s="350">
         <v>0.34</v>
       </c>
-      <c r="H28" s="350"/>
-      <c r="I28" s="349">
+      <c r="H28" s="351"/>
+      <c r="I28" s="350">
         <v>0.21</v>
       </c>
-      <c r="J28" s="351"/>
-      <c r="K28" s="352"/>
+      <c r="J28" s="352"/>
+      <c r="K28" s="353"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="177"/>
@@ -26674,15 +26603,15 @@
       <c r="F29" s="197">
         <v>0.252</v>
       </c>
-      <c r="G29" s="353">
+      <c r="G29" s="354">
         <v>0.64100000000000001</v>
       </c>
-      <c r="H29" s="354"/>
-      <c r="I29" s="353">
+      <c r="H29" s="355"/>
+      <c r="I29" s="354">
         <v>0.78</v>
       </c>
-      <c r="J29" s="355"/>
-      <c r="K29" s="356"/>
+      <c r="J29" s="356"/>
+      <c r="K29" s="357"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="177"/>
@@ -26698,15 +26627,15 @@
       <c r="F30" s="198">
         <v>2.99E-3</v>
       </c>
-      <c r="G30" s="339">
+      <c r="G30" s="340">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="H30" s="340"/>
-      <c r="I30" s="339">
+      <c r="H30" s="341"/>
+      <c r="I30" s="340">
         <v>0.01</v>
       </c>
-      <c r="J30" s="341"/>
-      <c r="K30" s="342"/>
+      <c r="J30" s="342"/>
+      <c r="K30" s="343"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="177"/>
@@ -26722,15 +26651,15 @@
       <c r="F31" s="199">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="G31" s="343" t="s">
+      <c r="G31" s="344" t="s">
         <v>231</v>
       </c>
-      <c r="H31" s="344"/>
-      <c r="I31" s="343" t="s">
+      <c r="H31" s="345"/>
+      <c r="I31" s="344" t="s">
         <v>231</v>
       </c>
-      <c r="J31" s="345"/>
-      <c r="K31" s="346"/>
+      <c r="J31" s="346"/>
+      <c r="K31" s="347"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="177"/>
@@ -27409,13 +27338,13 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="357" t="s">
+      <c r="C5" s="358" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="357"/>
-      <c r="E5" s="357"/>
-      <c r="F5" s="357"/>
-      <c r="G5" s="357"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="358"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="205" t="s">
@@ -27510,11 +27439,11 @@
       <c r="G11" s="220"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="357" t="s">
+      <c r="C12" s="358" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="357"/>
-      <c r="E12" s="357"/>
+      <c r="D12" s="358"/>
+      <c r="E12" s="358"/>
       <c r="F12" s="220"/>
       <c r="G12" s="220"/>
     </row>
@@ -32570,59 +32499,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="360" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="I1" s="362" t="s">
+      <c r="B1" s="360"/>
+      <c r="C1" s="360"/>
+      <c r="D1" s="360"/>
+      <c r="E1" s="360"/>
+      <c r="F1" s="360"/>
+      <c r="I1" s="360" t="s">
         <v>385</v>
       </c>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="M1" s="362"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+      <c r="M1" s="360"/>
       <c r="N1" s="241" t="s">
         <v>386</v>
       </c>
       <c r="O1" s="241"/>
       <c r="P1" s="241"/>
-      <c r="Z1" s="362"/>
-      <c r="AA1" s="363" t="s">
+      <c r="Z1" s="360"/>
+      <c r="AA1" s="361" t="s">
         <v>387</v>
       </c>
-      <c r="AB1" s="363"/>
-      <c r="AC1" s="363"/>
-      <c r="AD1" s="363"/>
-      <c r="AE1" s="363"/>
-      <c r="AF1" s="363"/>
-      <c r="AG1" s="363"/>
-      <c r="AH1" s="363"/>
-      <c r="AI1" s="363"/>
-      <c r="AJ1" s="363"/>
-      <c r="AK1" s="363"/>
-      <c r="AL1" s="363"/>
-      <c r="AM1" s="363"/>
+      <c r="AB1" s="361"/>
+      <c r="AC1" s="361"/>
+      <c r="AD1" s="361"/>
+      <c r="AE1" s="361"/>
+      <c r="AF1" s="361"/>
+      <c r="AG1" s="361"/>
+      <c r="AH1" s="361"/>
+      <c r="AI1" s="361"/>
+      <c r="AJ1" s="361"/>
+      <c r="AK1" s="361"/>
+      <c r="AL1" s="361"/>
+      <c r="AM1" s="361"/>
       <c r="AN1" s="242"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="362" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="359"/>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="359"/>
-      <c r="I2" s="359" t="s">
+      <c r="B2" s="362"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="362"/>
+      <c r="F2" s="362"/>
+      <c r="I2" s="362" t="s">
         <v>235</v>
       </c>
-      <c r="J2" s="359"/>
-      <c r="K2" s="359"/>
-      <c r="M2" s="362"/>
-      <c r="Z2" s="362"/>
+      <c r="J2" s="362"/>
+      <c r="K2" s="362"/>
+      <c r="M2" s="360"/>
+      <c r="Z2" s="360"/>
       <c r="AN2" s="242"/>
     </row>
     <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -32653,7 +32582,7 @@
       <c r="K3" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="362"/>
+      <c r="M3" s="360"/>
       <c r="N3" s="240" t="s">
         <v>391</v>
       </c>
@@ -32663,18 +32592,18 @@
       <c r="P3" s="240" t="s">
         <v>392</v>
       </c>
-      <c r="Z3" s="362"/>
-      <c r="AA3" s="364" t="s">
+      <c r="Z3" s="360"/>
+      <c r="AA3" s="363" t="s">
         <v>393</v>
       </c>
-      <c r="AB3" s="364"/>
-      <c r="AD3" s="365" t="s">
+      <c r="AB3" s="363"/>
+      <c r="AD3" s="364" t="s">
         <v>394</v>
       </c>
-      <c r="AE3" s="366"/>
-      <c r="AF3" s="366"/>
-      <c r="AG3" s="366"/>
-      <c r="AH3" s="366"/>
+      <c r="AE3" s="365"/>
+      <c r="AF3" s="365"/>
+      <c r="AG3" s="365"/>
+      <c r="AH3" s="365"/>
       <c r="AN3" s="242"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -32706,8 +32635,8 @@
       <c r="K4" s="243">
         <v>0.21</v>
       </c>
-      <c r="M4" s="362"/>
-      <c r="Z4" s="362"/>
+      <c r="M4" s="360"/>
+      <c r="Z4" s="360"/>
       <c r="AA4" s="243" t="s">
         <v>178</v>
       </c>
@@ -32766,12 +32695,12 @@
       <c r="K5" s="243">
         <v>0.78</v>
       </c>
-      <c r="M5" s="362"/>
-      <c r="N5" s="364" t="s">
+      <c r="M5" s="360"/>
+      <c r="N5" s="363" t="s">
         <v>399</v>
       </c>
-      <c r="O5" s="364"/>
-      <c r="Z5" s="362"/>
+      <c r="O5" s="363"/>
+      <c r="Z5" s="360"/>
       <c r="AA5" s="243" t="s">
         <v>143</v>
       </c>
@@ -32824,7 +32753,7 @@
       <c r="K6" s="243">
         <v>0.01</v>
       </c>
-      <c r="M6" s="362"/>
+      <c r="M6" s="360"/>
       <c r="N6" s="243" t="s">
         <v>401</v>
       </c>
@@ -32832,7 +32761,7 @@
         <f>O3/B34</f>
         <v>99500000</v>
       </c>
-      <c r="Z6" s="362"/>
+      <c r="Z6" s="360"/>
       <c r="AA6" s="243" t="s">
         <v>232</v>
       </c>
@@ -32881,7 +32810,7 @@
       <c r="K7" s="243">
         <v>100</v>
       </c>
-      <c r="M7" s="362"/>
+      <c r="M7" s="360"/>
       <c r="N7" s="243" t="s">
         <v>402</v>
       </c>
@@ -32889,7 +32818,7 @@
         <f>O3/B35</f>
         <v>1990000.0000000002</v>
       </c>
-      <c r="Z7" s="362"/>
+      <c r="Z7" s="360"/>
       <c r="AA7" s="243" t="s">
         <v>179</v>
       </c>
@@ -32937,7 +32866,7 @@
         <f>SUM('Students worksheet'!B8:E8)</f>
         <v>23.700000000000003</v>
       </c>
-      <c r="M8" s="362"/>
+      <c r="M8" s="360"/>
       <c r="N8" s="243" t="s">
         <v>403</v>
       </c>
@@ -32945,7 +32874,7 @@
         <f>O3/B38</f>
         <v>298.64932466233114</v>
       </c>
-      <c r="Z8" s="362"/>
+      <c r="Z8" s="360"/>
       <c r="AA8" s="243" t="s">
         <v>400</v>
       </c>
@@ -32968,18 +32897,18 @@
       <c r="AN8" s="242"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="I9" s="359" t="s">
+      <c r="I9" s="362" t="s">
         <v>404</v>
       </c>
-      <c r="J9" s="359"/>
-      <c r="M9" s="362"/>
-      <c r="R9" s="367" t="s">
+      <c r="J9" s="362"/>
+      <c r="M9" s="360"/>
+      <c r="R9" s="366" t="s">
         <v>394</v>
       </c>
-      <c r="S9" s="367"/>
-      <c r="T9" s="367"/>
-      <c r="U9" s="367"/>
-      <c r="Z9" s="362"/>
+      <c r="S9" s="366"/>
+      <c r="T9" s="366"/>
+      <c r="U9" s="366"/>
+      <c r="Z9" s="360"/>
       <c r="AD9" s="248" t="s">
         <v>239</v>
       </c>
@@ -32996,20 +32925,20 @@
       <c r="AN9" s="242"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="359" t="s">
+      <c r="A10" s="362" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="359"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
+      <c r="B10" s="362"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
       <c r="I10" s="243" t="s">
         <v>291</v>
       </c>
       <c r="J10" s="243" t="s">
         <v>405</v>
       </c>
-      <c r="M10" s="362"/>
+      <c r="M10" s="360"/>
       <c r="N10" s="243" t="s">
         <v>396</v>
       </c>
@@ -33037,7 +32966,7 @@
       <c r="V10" s="243" t="s">
         <v>409</v>
       </c>
-      <c r="Z10" s="362"/>
+      <c r="Z10" s="360"/>
       <c r="AN10" s="242"/>
     </row>
     <row r="11" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33064,7 +32993,7 @@
         <v>293</v>
       </c>
       <c r="J11" s="243"/>
-      <c r="M11" s="362"/>
+      <c r="M11" s="360"/>
       <c r="N11" s="243" t="s">
         <v>226</v>
       </c>
@@ -33097,14 +33026,14 @@
         <f>Q11/$O$3</f>
         <v>0.1</v>
       </c>
-      <c r="Z11" s="362"/>
-      <c r="AD11" s="368" t="s">
+      <c r="Z11" s="360"/>
+      <c r="AD11" s="367" t="s">
         <v>410</v>
       </c>
-      <c r="AE11" s="368"/>
-      <c r="AF11" s="368"/>
-      <c r="AG11" s="368"/>
-      <c r="AH11" s="368"/>
+      <c r="AE11" s="367"/>
+      <c r="AF11" s="367"/>
+      <c r="AG11" s="367"/>
+      <c r="AH11" s="367"/>
       <c r="AN11" s="242"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -33134,7 +33063,7 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M12" s="362"/>
+      <c r="M12" s="360"/>
       <c r="N12" s="243" t="s">
         <v>324</v>
       </c>
@@ -33163,7 +33092,7 @@
         <f>Q12/$O$3</f>
         <v>4.2753623188405795E-2</v>
       </c>
-      <c r="Z12" s="362"/>
+      <c r="Z12" s="360"/>
       <c r="AD12" s="243" t="s">
         <v>396</v>
       </c>
@@ -33214,7 +33143,7 @@
         <f>(C29+C30)/2</f>
         <v>64.481351981351992</v>
       </c>
-      <c r="M13" s="362"/>
+      <c r="M13" s="360"/>
       <c r="N13" s="243" t="s">
         <v>228</v>
       </c>
@@ -33249,7 +33178,7 @@
         <f>Q13/$O$3</f>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="Z13" s="362"/>
+      <c r="Z13" s="360"/>
       <c r="AD13" s="243" t="s">
         <v>226</v>
       </c>
@@ -33294,7 +33223,7 @@
         <f t="shared" si="0"/>
         <v>1.9083969465648859E-2</v>
       </c>
-      <c r="M14" s="362"/>
+      <c r="M14" s="360"/>
       <c r="N14" s="243" t="s">
         <v>229</v>
       </c>
@@ -33329,7 +33258,7 @@
         <f>Q14/$O$3</f>
         <v>1.1800000000000001E-2</v>
       </c>
-      <c r="Z14" s="362"/>
+      <c r="Z14" s="360"/>
       <c r="AA14" s="252"/>
       <c r="AD14" s="243" t="s">
         <v>324</v>
@@ -33376,7 +33305,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="254"/>
-      <c r="M15" s="362"/>
+      <c r="M15" s="360"/>
       <c r="N15" s="255" t="s">
         <v>239</v>
       </c>
@@ -33408,7 +33337,7 @@
         <f>Q15/$O$3</f>
         <v>2.0866666666666669E-2</v>
       </c>
-      <c r="Z15" s="362"/>
+      <c r="Z15" s="360"/>
       <c r="AD15" s="243" t="s">
         <v>228</v>
       </c>
@@ -33436,10 +33365,10 @@
       <c r="AN15" s="242"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M16" s="362"/>
+      <c r="M16" s="360"/>
       <c r="Q16" s="257"/>
       <c r="R16" s="257"/>
-      <c r="Z16" s="362"/>
+      <c r="Z16" s="360"/>
       <c r="AD16" s="243" t="s">
         <v>229</v>
       </c>
@@ -33466,14 +33395,14 @@
       <c r="AN16" s="242"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="359" t="s">
+      <c r="A17" s="362" t="s">
         <v>297</v>
       </c>
-      <c r="B17" s="359"/>
-      <c r="C17" s="359"/>
-      <c r="M17" s="362"/>
+      <c r="B17" s="362"/>
+      <c r="C17" s="362"/>
+      <c r="M17" s="360"/>
       <c r="Q17" s="258"/>
-      <c r="Z17" s="362"/>
+      <c r="Z17" s="360"/>
       <c r="AD17" s="243" t="s">
         <v>239</v>
       </c>
@@ -33507,8 +33436,8 @@
       <c r="C18" s="243" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="362"/>
-      <c r="Z18" s="362"/>
+      <c r="M18" s="360"/>
+      <c r="Z18" s="360"/>
       <c r="AN18" s="242"/>
     </row>
     <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33522,22 +33451,22 @@
         <v>236</v>
       </c>
       <c r="J19" s="254"/>
-      <c r="M19" s="362"/>
-      <c r="Z19" s="362"/>
-      <c r="AA19" s="358" t="s">
+      <c r="M19" s="360"/>
+      <c r="Z19" s="360"/>
+      <c r="AA19" s="359" t="s">
         <v>414</v>
       </c>
-      <c r="AB19" s="358"/>
-      <c r="AC19" s="358"/>
-      <c r="AD19" s="358"/>
-      <c r="AE19" s="358"/>
-      <c r="AF19" s="358"/>
-      <c r="AG19" s="358"/>
-      <c r="AH19" s="358"/>
-      <c r="AI19" s="358"/>
-      <c r="AJ19" s="358"/>
-      <c r="AK19" s="358"/>
-      <c r="AL19" s="358"/>
+      <c r="AB19" s="359"/>
+      <c r="AC19" s="359"/>
+      <c r="AD19" s="359"/>
+      <c r="AE19" s="359"/>
+      <c r="AF19" s="359"/>
+      <c r="AG19" s="359"/>
+      <c r="AH19" s="359"/>
+      <c r="AI19" s="359"/>
+      <c r="AJ19" s="359"/>
+      <c r="AK19" s="359"/>
+      <c r="AL19" s="359"/>
       <c r="AN19" s="242"/>
     </row>
     <row r="20" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33551,22 +33480,22 @@
         <v>237</v>
       </c>
       <c r="J20" s="259"/>
-      <c r="M20" s="362"/>
-      <c r="N20" s="358" t="s">
+      <c r="M20" s="360"/>
+      <c r="N20" s="359" t="s">
         <v>415</v>
       </c>
-      <c r="O20" s="358"/>
-      <c r="P20" s="358"/>
-      <c r="Q20" s="358"/>
-      <c r="R20" s="358"/>
-      <c r="S20" s="358"/>
-      <c r="T20" s="358"/>
-      <c r="U20" s="358"/>
-      <c r="V20" s="358"/>
-      <c r="W20" s="358"/>
-      <c r="X20" s="358"/>
-      <c r="Y20" s="358"/>
-      <c r="Z20" s="362"/>
+      <c r="O20" s="359"/>
+      <c r="P20" s="359"/>
+      <c r="Q20" s="359"/>
+      <c r="R20" s="359"/>
+      <c r="S20" s="359"/>
+      <c r="T20" s="359"/>
+      <c r="U20" s="359"/>
+      <c r="V20" s="359"/>
+      <c r="W20" s="359"/>
+      <c r="X20" s="359"/>
+      <c r="Y20" s="359"/>
+      <c r="Z20" s="360"/>
       <c r="AN20" s="242"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -33579,7 +33508,7 @@
       <c r="C21" s="243" t="s">
         <v>238</v>
       </c>
-      <c r="M21" s="362"/>
+      <c r="M21" s="360"/>
       <c r="N21" s="243"/>
       <c r="O21" s="243" t="s">
         <v>178</v>
@@ -33593,7 +33522,7 @@
       <c r="R21" s="243" t="s">
         <v>397</v>
       </c>
-      <c r="Z21" s="362"/>
+      <c r="Z21" s="360"/>
       <c r="AJ21" s="260"/>
       <c r="AN21" s="242"/>
     </row>
@@ -33607,7 +33536,7 @@
       <c r="C22" s="243" t="s">
         <v>238</v>
       </c>
-      <c r="M22" s="362"/>
+      <c r="M22" s="360"/>
       <c r="N22" s="243" t="s">
         <v>226</v>
       </c>
@@ -33627,12 +33556,12 @@
         <f t="shared" si="1"/>
         <v>5.1005160550458708</v>
       </c>
-      <c r="Z22" s="362"/>
+      <c r="Z22" s="360"/>
       <c r="AJ22" s="260"/>
       <c r="AN22" s="242"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M23" s="362"/>
+      <c r="M23" s="360"/>
       <c r="N23" s="243" t="s">
         <v>416</v>
       </c>
@@ -33652,12 +33581,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="362"/>
+      <c r="Z23" s="360"/>
       <c r="AJ23" s="260"/>
       <c r="AN23" s="242"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M24" s="362"/>
+      <c r="M24" s="360"/>
       <c r="N24" s="243" t="s">
         <v>228</v>
       </c>
@@ -33677,17 +33606,17 @@
         <f t="shared" si="1"/>
         <v>2.6909552238805975E-2</v>
       </c>
-      <c r="Z24" s="362"/>
+      <c r="Z24" s="360"/>
       <c r="AJ24" s="260"/>
       <c r="AN24" s="242"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="359" t="s">
+      <c r="A25" s="362" t="s">
         <v>417</v>
       </c>
-      <c r="B25" s="359"/>
-      <c r="C25" s="359"/>
-      <c r="M25" s="362"/>
+      <c r="B25" s="362"/>
+      <c r="C25" s="362"/>
+      <c r="M25" s="360"/>
       <c r="N25" s="243" t="s">
         <v>229</v>
       </c>
@@ -33707,7 +33636,7 @@
         <f t="shared" si="1"/>
         <v>6.721946564885499E-2</v>
       </c>
-      <c r="Z25" s="362"/>
+      <c r="Z25" s="360"/>
       <c r="AN25" s="242"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -33718,7 +33647,7 @@
       <c r="C26" s="243" t="s">
         <v>405</v>
       </c>
-      <c r="M26" s="362"/>
+      <c r="M26" s="360"/>
       <c r="N26" s="243" t="s">
         <v>239</v>
       </c>
@@ -33738,7 +33667,7 @@
         <f t="shared" si="1"/>
         <v>6.2287000000000009E-2</v>
       </c>
-      <c r="Z26" s="362"/>
+      <c r="Z26" s="360"/>
       <c r="AN26" s="242"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -33749,8 +33678,8 @@
         <v>231</v>
       </c>
       <c r="C27" s="243"/>
-      <c r="M27" s="362"/>
-      <c r="Z27" s="362"/>
+      <c r="M27" s="360"/>
+      <c r="Z27" s="360"/>
       <c r="AN27" s="242"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -33764,8 +33693,8 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M28" s="362"/>
-      <c r="Z28" s="362"/>
+      <c r="M28" s="360"/>
+      <c r="Z28" s="360"/>
       <c r="AN28" s="242"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -33779,8 +33708,8 @@
         <f>109/1.56</f>
         <v>69.871794871794876</v>
       </c>
-      <c r="M29" s="362"/>
-      <c r="Z29" s="362"/>
+      <c r="M29" s="360"/>
+      <c r="Z29" s="360"/>
       <c r="AN29" s="242"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -33794,23 +33723,23 @@
         <f>13/0.22</f>
         <v>59.090909090909093</v>
       </c>
-      <c r="M30" s="362"/>
-      <c r="Z30" s="362"/>
+      <c r="M30" s="360"/>
+      <c r="Z30" s="360"/>
       <c r="AN30" s="242"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M31" s="362"/>
-      <c r="Z31" s="362"/>
+      <c r="M31" s="360"/>
+      <c r="Z31" s="360"/>
       <c r="AN31" s="242"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="360" t="s">
+      <c r="A32" s="368" t="s">
         <v>419</v>
       </c>
-      <c r="B32" s="360"/>
-      <c r="C32" s="360"/>
-      <c r="M32" s="362"/>
-      <c r="Z32" s="362"/>
+      <c r="B32" s="368"/>
+      <c r="C32" s="368"/>
+      <c r="M32" s="360"/>
+      <c r="Z32" s="360"/>
       <c r="AN32" s="242"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -33820,8 +33749,8 @@
       <c r="B33" s="243" t="s">
         <v>243</v>
       </c>
-      <c r="M33" s="362"/>
-      <c r="Z33" s="362"/>
+      <c r="M33" s="360"/>
+      <c r="Z33" s="360"/>
       <c r="AN33" s="242"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -33831,8 +33760,8 @@
       <c r="B34" s="261">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="M34" s="362"/>
-      <c r="Z34" s="362"/>
+      <c r="M34" s="360"/>
+      <c r="Z34" s="360"/>
       <c r="AN34" s="242"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -33842,8 +33771,8 @@
       <c r="B35" s="250">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M35" s="362"/>
-      <c r="Z35" s="362"/>
+      <c r="M35" s="360"/>
+      <c r="Z35" s="360"/>
       <c r="AN35" s="242"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -33853,8 +33782,8 @@
       <c r="B36" s="250">
         <v>2E-3</v>
       </c>
-      <c r="M36" s="362"/>
-      <c r="Z36" s="362"/>
+      <c r="M36" s="360"/>
+      <c r="Z36" s="360"/>
       <c r="AN36" s="242"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -33864,8 +33793,8 @@
       <c r="B37" s="250">
         <v>0.5</v>
       </c>
-      <c r="M37" s="362"/>
-      <c r="Z37" s="362"/>
+      <c r="M37" s="360"/>
+      <c r="Z37" s="360"/>
       <c r="AN37" s="242"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -33875,31 +33804,31 @@
       <c r="B38" s="250">
         <v>0.99950000000000006</v>
       </c>
-      <c r="M38" s="362"/>
-      <c r="Z38" s="362"/>
+      <c r="M38" s="360"/>
+      <c r="Z38" s="360"/>
       <c r="AN38" s="242"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M39" s="362"/>
-      <c r="Z39" s="362"/>
+      <c r="M39" s="360"/>
+      <c r="Z39" s="360"/>
       <c r="AN39" s="242"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M40" s="362"/>
-      <c r="Z40" s="362"/>
+      <c r="M40" s="360"/>
+      <c r="Z40" s="360"/>
       <c r="AN40" s="242"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="262" t="s">
         <v>420</v>
       </c>
-      <c r="M41" s="362"/>
-      <c r="Z41" s="362"/>
+      <c r="M41" s="360"/>
+      <c r="Z41" s="360"/>
       <c r="AN41" s="242"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M42" s="362"/>
-      <c r="Z42" s="362"/>
+      <c r="M42" s="360"/>
+      <c r="Z42" s="360"/>
       <c r="AN42" s="242"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -33913,8 +33842,8 @@
       <c r="D43" s="243" t="s">
         <v>421</v>
       </c>
-      <c r="M43" s="362"/>
-      <c r="Z43" s="362"/>
+      <c r="M43" s="360"/>
+      <c r="Z43" s="360"/>
       <c r="AN43" s="242"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -33933,8 +33862,8 @@
         <f>D45/B35/1000000</f>
         <v>1.9933333333333334</v>
       </c>
-      <c r="M44" s="362"/>
-      <c r="Z44" s="362"/>
+      <c r="M44" s="360"/>
+      <c r="Z44" s="360"/>
       <c r="AN44" s="242"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -33950,8 +33879,8 @@
       <c r="D45" s="246">
         <v>299</v>
       </c>
-      <c r="M45" s="362"/>
-      <c r="Z45" s="362"/>
+      <c r="M45" s="360"/>
+      <c r="Z45" s="360"/>
       <c r="AN45" s="242"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -33970,70 +33899,70 @@
         <f>((D44*1000000)-D45)/1000000</f>
         <v>1.9930343333333336</v>
       </c>
-      <c r="M46" s="362"/>
-      <c r="Z46" s="362"/>
+      <c r="M46" s="360"/>
+      <c r="Z46" s="360"/>
       <c r="AN46" s="242"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M47" s="362"/>
-      <c r="Z47" s="362"/>
+      <c r="M47" s="360"/>
+      <c r="Z47" s="360"/>
       <c r="AN47" s="242"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M48" s="362"/>
-      <c r="Z48" s="362"/>
+      <c r="M48" s="360"/>
+      <c r="Z48" s="360"/>
       <c r="AN48" s="242"/>
     </row>
     <row r="49" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M49" s="362"/>
-      <c r="Z49" s="362"/>
+      <c r="M49" s="360"/>
+      <c r="Z49" s="360"/>
       <c r="AN49" s="242"/>
     </row>
     <row r="50" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M50" s="362"/>
-      <c r="Z50" s="362"/>
+      <c r="M50" s="360"/>
+      <c r="Z50" s="360"/>
       <c r="AN50" s="242"/>
     </row>
     <row r="51" spans="13:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="M51" s="362"/>
-      <c r="N51" s="361" t="s">
+      <c r="M51" s="360"/>
+      <c r="N51" s="369" t="s">
         <v>425</v>
       </c>
-      <c r="O51" s="361"/>
-      <c r="P51" s="361"/>
-      <c r="Q51" s="361"/>
-      <c r="R51" s="361"/>
-      <c r="S51" s="361"/>
-      <c r="T51" s="361"/>
-      <c r="U51" s="361"/>
-      <c r="V51" s="361"/>
-      <c r="W51" s="361"/>
-      <c r="X51" s="361"/>
-      <c r="Y51" s="361"/>
-      <c r="Z51" s="362"/>
-      <c r="AA51" s="358" t="s">
+      <c r="O51" s="369"/>
+      <c r="P51" s="369"/>
+      <c r="Q51" s="369"/>
+      <c r="R51" s="369"/>
+      <c r="S51" s="369"/>
+      <c r="T51" s="369"/>
+      <c r="U51" s="369"/>
+      <c r="V51" s="369"/>
+      <c r="W51" s="369"/>
+      <c r="X51" s="369"/>
+      <c r="Y51" s="369"/>
+      <c r="Z51" s="360"/>
+      <c r="AA51" s="359" t="s">
         <v>426</v>
       </c>
-      <c r="AB51" s="358"/>
-      <c r="AC51" s="358"/>
-      <c r="AD51" s="358"/>
-      <c r="AE51" s="358"/>
-      <c r="AF51" s="358"/>
-      <c r="AG51" s="358"/>
-      <c r="AH51" s="358"/>
-      <c r="AI51" s="358"/>
-      <c r="AJ51" s="358"/>
-      <c r="AK51" s="358"/>
-      <c r="AL51" s="358"/>
+      <c r="AB51" s="359"/>
+      <c r="AC51" s="359"/>
+      <c r="AD51" s="359"/>
+      <c r="AE51" s="359"/>
+      <c r="AF51" s="359"/>
+      <c r="AG51" s="359"/>
+      <c r="AH51" s="359"/>
+      <c r="AI51" s="359"/>
+      <c r="AJ51" s="359"/>
+      <c r="AK51" s="359"/>
+      <c r="AL51" s="359"/>
       <c r="AN51" s="242"/>
     </row>
     <row r="52" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M52" s="362"/>
-      <c r="Z52" s="362"/>
+      <c r="M52" s="360"/>
+      <c r="Z52" s="360"/>
       <c r="AN52" s="242"/>
     </row>
     <row r="53" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M53" s="362"/>
+      <c r="M53" s="360"/>
       <c r="N53" s="243"/>
       <c r="O53" s="243" t="s">
         <v>226</v>
@@ -34053,7 +33982,7 @@
       <c r="T53" s="240" t="s">
         <v>222</v>
       </c>
-      <c r="Z53" s="362"/>
+      <c r="Z53" s="360"/>
       <c r="AA53" s="243"/>
       <c r="AB53" s="243" t="s">
         <v>226</v>
@@ -34079,7 +34008,7 @@
       <c r="AN53" s="242"/>
     </row>
     <row r="54" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M54" s="362"/>
+      <c r="M54" s="360"/>
       <c r="N54" s="243" t="s">
         <v>429</v>
       </c>
@@ -34106,7 +34035,7 @@
         <f>SUM(O54:S54)</f>
         <v>55.148956521739137</v>
       </c>
-      <c r="Z54" s="362"/>
+      <c r="Z54" s="360"/>
       <c r="AA54" s="243" t="s">
         <v>430</v>
       </c>
@@ -34143,7 +34072,7 @@
       <c r="AN54" s="242"/>
     </row>
     <row r="55" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M55" s="362"/>
+      <c r="M55" s="360"/>
       <c r="N55" s="243" t="s">
         <v>431</v>
       </c>
@@ -34169,7 +34098,7 @@
         <f>SUM(O55:S55)</f>
         <v>48.840656521739135</v>
       </c>
-      <c r="Z55" s="362"/>
+      <c r="Z55" s="360"/>
       <c r="AA55" s="243" t="s">
         <v>432</v>
       </c>
@@ -34205,27 +34134,27 @@
       <c r="AN55" s="242"/>
     </row>
     <row r="56" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M56" s="362"/>
-      <c r="Z56" s="362"/>
+      <c r="M56" s="360"/>
+      <c r="Z56" s="360"/>
       <c r="AH56" s="258"/>
       <c r="AN56" s="242"/>
     </row>
     <row r="57" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M57" s="362"/>
-      <c r="Z57" s="362"/>
+      <c r="M57" s="360"/>
+      <c r="Z57" s="360"/>
       <c r="AN57" s="242"/>
     </row>
     <row r="58" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M58" s="362"/>
+      <c r="M58" s="360"/>
       <c r="R58" s="258"/>
       <c r="V58" s="264"/>
-      <c r="Z58" s="362"/>
+      <c r="Z58" s="360"/>
       <c r="AN58" s="242"/>
     </row>
     <row r="59" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M59" s="362"/>
+      <c r="M59" s="360"/>
       <c r="V59" s="264"/>
-      <c r="Z59" s="362"/>
+      <c r="Z59" s="360"/>
       <c r="AA59" s="243"/>
       <c r="AB59" s="243" t="s">
         <v>226</v>
@@ -34246,8 +34175,8 @@
       <c r="AN59" s="242"/>
     </row>
     <row r="60" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M60" s="362"/>
-      <c r="Z60" s="362"/>
+      <c r="M60" s="360"/>
+      <c r="Z60" s="360"/>
       <c r="AA60" s="243" t="s">
         <v>429</v>
       </c>
@@ -34273,8 +34202,8 @@
       <c r="AN60" s="242"/>
     </row>
     <row r="61" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M61" s="362"/>
-      <c r="Z61" s="362"/>
+      <c r="M61" s="360"/>
+      <c r="Z61" s="360"/>
       <c r="AA61" s="243" t="s">
         <v>434</v>
       </c>
@@ -34300,116 +34229,116 @@
       <c r="AN61" s="242"/>
     </row>
     <row r="62" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M62" s="362"/>
-      <c r="Z62" s="362"/>
+      <c r="M62" s="360"/>
+      <c r="Z62" s="360"/>
       <c r="AN62" s="242"/>
     </row>
     <row r="63" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M63" s="362"/>
-      <c r="Z63" s="362"/>
+      <c r="M63" s="360"/>
+      <c r="Z63" s="360"/>
       <c r="AN63" s="242"/>
     </row>
     <row r="64" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M64" s="362"/>
-      <c r="Z64" s="362"/>
+      <c r="M64" s="360"/>
+      <c r="Z64" s="360"/>
       <c r="AN64" s="242"/>
     </row>
     <row r="65" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M65" s="362"/>
-      <c r="Z65" s="362"/>
+      <c r="M65" s="360"/>
+      <c r="Z65" s="360"/>
       <c r="AN65" s="242"/>
     </row>
     <row r="66" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M66" s="362"/>
-      <c r="Z66" s="362"/>
+      <c r="M66" s="360"/>
+      <c r="Z66" s="360"/>
       <c r="AN66" s="242"/>
     </row>
     <row r="67" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M67" s="362"/>
-      <c r="Z67" s="362"/>
+      <c r="M67" s="360"/>
+      <c r="Z67" s="360"/>
       <c r="AN67" s="242"/>
     </row>
     <row r="68" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M68" s="362"/>
-      <c r="Z68" s="362"/>
+      <c r="M68" s="360"/>
+      <c r="Z68" s="360"/>
       <c r="AN68" s="242"/>
     </row>
     <row r="69" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M69" s="362"/>
-      <c r="Z69" s="362"/>
+      <c r="M69" s="360"/>
+      <c r="Z69" s="360"/>
       <c r="AN69" s="242"/>
     </row>
     <row r="70" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M70" s="362"/>
-      <c r="Z70" s="362"/>
+      <c r="M70" s="360"/>
+      <c r="Z70" s="360"/>
       <c r="AN70" s="242"/>
     </row>
     <row r="71" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M71" s="362"/>
-      <c r="Z71" s="362"/>
+      <c r="M71" s="360"/>
+      <c r="Z71" s="360"/>
       <c r="AN71" s="242"/>
     </row>
     <row r="72" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M72" s="362"/>
-      <c r="Z72" s="362"/>
+      <c r="M72" s="360"/>
+      <c r="Z72" s="360"/>
       <c r="AN72" s="242"/>
     </row>
     <row r="73" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M73" s="362"/>
-      <c r="Z73" s="362"/>
+      <c r="M73" s="360"/>
+      <c r="Z73" s="360"/>
       <c r="AN73" s="242"/>
     </row>
     <row r="74" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M74" s="362"/>
-      <c r="Z74" s="362"/>
+      <c r="M74" s="360"/>
+      <c r="Z74" s="360"/>
       <c r="AN74" s="242"/>
     </row>
     <row r="75" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M75" s="362"/>
-      <c r="Z75" s="362"/>
+      <c r="M75" s="360"/>
+      <c r="Z75" s="360"/>
       <c r="AN75" s="242"/>
     </row>
     <row r="76" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M76" s="362"/>
-      <c r="Z76" s="362"/>
+      <c r="M76" s="360"/>
+      <c r="Z76" s="360"/>
       <c r="AN76" s="242"/>
     </row>
     <row r="77" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M77" s="362"/>
-      <c r="Z77" s="362"/>
+      <c r="M77" s="360"/>
+      <c r="Z77" s="360"/>
       <c r="AN77" s="242"/>
     </row>
     <row r="78" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M78" s="362"/>
-      <c r="Z78" s="362"/>
+      <c r="M78" s="360"/>
+      <c r="Z78" s="360"/>
       <c r="AN78" s="242"/>
     </row>
     <row r="79" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M79" s="362"/>
-      <c r="Z79" s="362"/>
+      <c r="M79" s="360"/>
+      <c r="Z79" s="360"/>
       <c r="AN79" s="242"/>
     </row>
     <row r="80" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M80" s="362"/>
-      <c r="Z80" s="362"/>
+      <c r="M80" s="360"/>
+      <c r="Z80" s="360"/>
       <c r="AN80" s="242"/>
     </row>
     <row r="81" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M81" s="362"/>
-      <c r="Z81" s="362"/>
+      <c r="M81" s="360"/>
+      <c r="Z81" s="360"/>
       <c r="AN81" s="242"/>
     </row>
     <row r="82" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M82" s="362"/>
-      <c r="Z82" s="362"/>
+      <c r="M82" s="360"/>
+      <c r="Z82" s="360"/>
       <c r="AN82" s="242"/>
     </row>
     <row r="83" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z83" s="362"/>
+      <c r="Z83" s="360"/>
       <c r="AN83" s="242"/>
     </row>
     <row r="84" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z84" s="362"/>
+      <c r="Z84" s="360"/>
       <c r="AN84" s="242"/>
     </row>
     <row r="85" spans="13:40" x14ac:dyDescent="0.2">
@@ -34417,6 +34346,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N20:Y20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="N51:Y51"/>
+    <mergeCell ref="AA51:AL51"/>
     <mergeCell ref="AA19:AL19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:K1"/>
@@ -34433,11 +34367,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="AD11:AH11"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="N20:Y20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="N51:Y51"/>
-    <mergeCell ref="AA51:AL51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35166,8 +35095,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId8" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId16" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -35186,182 +35290,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId6" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId14" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35550,8 +35479,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35570,82 +35574,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35719,8 +35648,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35739,232 +35893,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36028,8 +35957,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36048,182 +36152,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36298,8 +36227,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36318,232 +36472,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36630,8 +36559,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36650,232 +36804,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36952,8 +36881,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36972,182 +37076,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37233,8 +37162,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -37253,232 +37407,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40080,7 +40009,7 @@
   <dimension ref="A1:AF66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40609,7 +40538,7 @@
       <c r="B34" s="92" t="s">
         <v>572</v>
       </c>
-      <c r="D34" s="309">
+      <c r="D34" s="152">
         <f>'PGM methodology'!L22</f>
         <v>31</v>
       </c>
@@ -40619,7 +40548,7 @@
       <c r="B35" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="D35" s="309">
+      <c r="D35" s="152">
         <f>'PGM methodology'!L23</f>
         <v>125.30659928953824</v>
       </c>
@@ -40629,7 +40558,7 @@
       <c r="B36" s="92" t="s">
         <v>574</v>
       </c>
-      <c r="D36" s="309">
+      <c r="D36" s="152">
         <f>'PGM methodology'!L24</f>
         <v>103.69340071046176</v>
       </c>
@@ -40834,8 +40763,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -40854,32 +40808,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40940,18 +40869,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -40960,7 +40889,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -40990,18 +40919,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41010,7 +40939,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41278,18 +41207,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41298,7 +41227,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41328,18 +41257,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41348,7 +41277,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B9B91A-8016-42BD-941E-EBD23F8612B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FBD31E-6FF8-4690-8895-F3930289AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="28770" windowHeight="15570" firstSheet="3" activeTab="13" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -3942,14 +3942,20 @@
     <xf numFmtId="4" fontId="56" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="42" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="42" fillId="9" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="42" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="8" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3964,12 +3970,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4119,7 +4119,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4251,7 +4251,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4339,7 +4339,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4383,7 +4383,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20002,52 +20002,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12300" r:id="rId4" name="optMultiRegionCommon"/>
+        <control shapeId="12289" r:id="rId4" name="cmdUpdate"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12299" r:id="rId6" name="optMultiRegionNotCommon"/>
+        <control shapeId="12291" r:id="rId6" name="cmdAddNewAnswerSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20077,52 +20077,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId10" name="cmdAddNewAnswerSheet"/>
+        <control shapeId="12299" r:id="rId10" name="optMultiRegionNotCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12289" r:id="rId12" name="cmdUpdate"/>
+        <control shapeId="12300" r:id="rId12" name="optMultiRegionCommon"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20195,18 +20195,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20215,7 +20215,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20245,18 +20245,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -20265,7 +20265,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20341,18 +20341,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -20361,7 +20361,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20391,18 +20391,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -20411,7 +20411,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20468,19 +20468,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -20488,32 +20513,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20543,19 +20543,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -20563,32 +20588,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20790,52 +20790,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -20865,52 +20865,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -20924,7 +20924,7 @@
   </sheetPr>
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -21718,43 +21718,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -21763,32 +21738,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21818,18 +21818,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -21838,57 +21863,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22297,18 +22297,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22317,7 +22317,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22347,18 +22347,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -22367,7 +22367,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22448,43 +22448,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22493,32 +22468,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22548,18 +22548,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22568,57 +22593,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23031,18 +23031,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23051,57 +23076,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23131,43 +23131,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23176,32 +23151,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -32499,59 +32499,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="363" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="360"/>
-      <c r="F1" s="360"/>
-      <c r="I1" s="360" t="s">
+      <c r="B1" s="363"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="I1" s="363" t="s">
         <v>385</v>
       </c>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="M1" s="360"/>
+      <c r="J1" s="363"/>
+      <c r="K1" s="363"/>
+      <c r="M1" s="363"/>
       <c r="N1" s="241" t="s">
         <v>386</v>
       </c>
       <c r="O1" s="241"/>
       <c r="P1" s="241"/>
-      <c r="Z1" s="360"/>
-      <c r="AA1" s="361" t="s">
+      <c r="Z1" s="363"/>
+      <c r="AA1" s="364" t="s">
         <v>387</v>
       </c>
-      <c r="AB1" s="361"/>
-      <c r="AC1" s="361"/>
-      <c r="AD1" s="361"/>
-      <c r="AE1" s="361"/>
-      <c r="AF1" s="361"/>
-      <c r="AG1" s="361"/>
-      <c r="AH1" s="361"/>
-      <c r="AI1" s="361"/>
-      <c r="AJ1" s="361"/>
-      <c r="AK1" s="361"/>
-      <c r="AL1" s="361"/>
-      <c r="AM1" s="361"/>
+      <c r="AB1" s="364"/>
+      <c r="AC1" s="364"/>
+      <c r="AD1" s="364"/>
+      <c r="AE1" s="364"/>
+      <c r="AF1" s="364"/>
+      <c r="AG1" s="364"/>
+      <c r="AH1" s="364"/>
+      <c r="AI1" s="364"/>
+      <c r="AJ1" s="364"/>
+      <c r="AK1" s="364"/>
+      <c r="AL1" s="364"/>
+      <c r="AM1" s="364"/>
       <c r="AN1" s="242"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="362" t="s">
+      <c r="A2" s="360" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="362"/>
-      <c r="I2" s="362" t="s">
+      <c r="B2" s="360"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="I2" s="360" t="s">
         <v>235</v>
       </c>
-      <c r="J2" s="362"/>
-      <c r="K2" s="362"/>
-      <c r="M2" s="360"/>
-      <c r="Z2" s="360"/>
+      <c r="J2" s="360"/>
+      <c r="K2" s="360"/>
+      <c r="M2" s="363"/>
+      <c r="Z2" s="363"/>
       <c r="AN2" s="242"/>
     </row>
     <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -32582,7 +32582,7 @@
       <c r="K3" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="360"/>
+      <c r="M3" s="363"/>
       <c r="N3" s="240" t="s">
         <v>391</v>
       </c>
@@ -32592,18 +32592,18 @@
       <c r="P3" s="240" t="s">
         <v>392</v>
       </c>
-      <c r="Z3" s="360"/>
-      <c r="AA3" s="363" t="s">
+      <c r="Z3" s="363"/>
+      <c r="AA3" s="365" t="s">
         <v>393</v>
       </c>
-      <c r="AB3" s="363"/>
-      <c r="AD3" s="364" t="s">
+      <c r="AB3" s="365"/>
+      <c r="AD3" s="366" t="s">
         <v>394</v>
       </c>
-      <c r="AE3" s="365"/>
-      <c r="AF3" s="365"/>
-      <c r="AG3" s="365"/>
-      <c r="AH3" s="365"/>
+      <c r="AE3" s="367"/>
+      <c r="AF3" s="367"/>
+      <c r="AG3" s="367"/>
+      <c r="AH3" s="367"/>
       <c r="AN3" s="242"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -32635,8 +32635,8 @@
       <c r="K4" s="243">
         <v>0.21</v>
       </c>
-      <c r="M4" s="360"/>
-      <c r="Z4" s="360"/>
+      <c r="M4" s="363"/>
+      <c r="Z4" s="363"/>
       <c r="AA4" s="243" t="s">
         <v>178</v>
       </c>
@@ -32695,12 +32695,12 @@
       <c r="K5" s="243">
         <v>0.78</v>
       </c>
-      <c r="M5" s="360"/>
-      <c r="N5" s="363" t="s">
+      <c r="M5" s="363"/>
+      <c r="N5" s="365" t="s">
         <v>399</v>
       </c>
-      <c r="O5" s="363"/>
-      <c r="Z5" s="360"/>
+      <c r="O5" s="365"/>
+      <c r="Z5" s="363"/>
       <c r="AA5" s="243" t="s">
         <v>143</v>
       </c>
@@ -32753,7 +32753,7 @@
       <c r="K6" s="243">
         <v>0.01</v>
       </c>
-      <c r="M6" s="360"/>
+      <c r="M6" s="363"/>
       <c r="N6" s="243" t="s">
         <v>401</v>
       </c>
@@ -32761,7 +32761,7 @@
         <f>O3/B34</f>
         <v>99500000</v>
       </c>
-      <c r="Z6" s="360"/>
+      <c r="Z6" s="363"/>
       <c r="AA6" s="243" t="s">
         <v>232</v>
       </c>
@@ -32810,7 +32810,7 @@
       <c r="K7" s="243">
         <v>100</v>
       </c>
-      <c r="M7" s="360"/>
+      <c r="M7" s="363"/>
       <c r="N7" s="243" t="s">
         <v>402</v>
       </c>
@@ -32818,7 +32818,7 @@
         <f>O3/B35</f>
         <v>1990000.0000000002</v>
       </c>
-      <c r="Z7" s="360"/>
+      <c r="Z7" s="363"/>
       <c r="AA7" s="243" t="s">
         <v>179</v>
       </c>
@@ -32866,7 +32866,7 @@
         <f>SUM('Students worksheet'!B8:E8)</f>
         <v>23.700000000000003</v>
       </c>
-      <c r="M8" s="360"/>
+      <c r="M8" s="363"/>
       <c r="N8" s="243" t="s">
         <v>403</v>
       </c>
@@ -32874,7 +32874,7 @@
         <f>O3/B38</f>
         <v>298.64932466233114</v>
       </c>
-      <c r="Z8" s="360"/>
+      <c r="Z8" s="363"/>
       <c r="AA8" s="243" t="s">
         <v>400</v>
       </c>
@@ -32897,18 +32897,18 @@
       <c r="AN8" s="242"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="I9" s="362" t="s">
+      <c r="I9" s="360" t="s">
         <v>404</v>
       </c>
-      <c r="J9" s="362"/>
-      <c r="M9" s="360"/>
-      <c r="R9" s="366" t="s">
+      <c r="J9" s="360"/>
+      <c r="M9" s="363"/>
+      <c r="R9" s="368" t="s">
         <v>394</v>
       </c>
-      <c r="S9" s="366"/>
-      <c r="T9" s="366"/>
-      <c r="U9" s="366"/>
-      <c r="Z9" s="360"/>
+      <c r="S9" s="368"/>
+      <c r="T9" s="368"/>
+      <c r="U9" s="368"/>
+      <c r="Z9" s="363"/>
       <c r="AD9" s="248" t="s">
         <v>239</v>
       </c>
@@ -32925,20 +32925,20 @@
       <c r="AN9" s="242"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="362" t="s">
+      <c r="A10" s="360" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="362"/>
-      <c r="C10" s="362"/>
-      <c r="D10" s="362"/>
-      <c r="E10" s="362"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
       <c r="I10" s="243" t="s">
         <v>291</v>
       </c>
       <c r="J10" s="243" t="s">
         <v>405</v>
       </c>
-      <c r="M10" s="360"/>
+      <c r="M10" s="363"/>
       <c r="N10" s="243" t="s">
         <v>396</v>
       </c>
@@ -32966,7 +32966,7 @@
       <c r="V10" s="243" t="s">
         <v>409</v>
       </c>
-      <c r="Z10" s="360"/>
+      <c r="Z10" s="363"/>
       <c r="AN10" s="242"/>
     </row>
     <row r="11" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -32993,7 +32993,7 @@
         <v>293</v>
       </c>
       <c r="J11" s="243"/>
-      <c r="M11" s="360"/>
+      <c r="M11" s="363"/>
       <c r="N11" s="243" t="s">
         <v>226</v>
       </c>
@@ -33026,14 +33026,14 @@
         <f>Q11/$O$3</f>
         <v>0.1</v>
       </c>
-      <c r="Z11" s="360"/>
-      <c r="AD11" s="367" t="s">
+      <c r="Z11" s="363"/>
+      <c r="AD11" s="369" t="s">
         <v>410</v>
       </c>
-      <c r="AE11" s="367"/>
-      <c r="AF11" s="367"/>
-      <c r="AG11" s="367"/>
-      <c r="AH11" s="367"/>
+      <c r="AE11" s="369"/>
+      <c r="AF11" s="369"/>
+      <c r="AG11" s="369"/>
+      <c r="AH11" s="369"/>
       <c r="AN11" s="242"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -33063,7 +33063,7 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M12" s="360"/>
+      <c r="M12" s="363"/>
       <c r="N12" s="243" t="s">
         <v>324</v>
       </c>
@@ -33092,7 +33092,7 @@
         <f>Q12/$O$3</f>
         <v>4.2753623188405795E-2</v>
       </c>
-      <c r="Z12" s="360"/>
+      <c r="Z12" s="363"/>
       <c r="AD12" s="243" t="s">
         <v>396</v>
       </c>
@@ -33143,7 +33143,7 @@
         <f>(C29+C30)/2</f>
         <v>64.481351981351992</v>
       </c>
-      <c r="M13" s="360"/>
+      <c r="M13" s="363"/>
       <c r="N13" s="243" t="s">
         <v>228</v>
       </c>
@@ -33178,7 +33178,7 @@
         <f>Q13/$O$3</f>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="Z13" s="360"/>
+      <c r="Z13" s="363"/>
       <c r="AD13" s="243" t="s">
         <v>226</v>
       </c>
@@ -33223,7 +33223,7 @@
         <f t="shared" si="0"/>
         <v>1.9083969465648859E-2</v>
       </c>
-      <c r="M14" s="360"/>
+      <c r="M14" s="363"/>
       <c r="N14" s="243" t="s">
         <v>229</v>
       </c>
@@ -33258,7 +33258,7 @@
         <f>Q14/$O$3</f>
         <v>1.1800000000000001E-2</v>
       </c>
-      <c r="Z14" s="360"/>
+      <c r="Z14" s="363"/>
       <c r="AA14" s="252"/>
       <c r="AD14" s="243" t="s">
         <v>324</v>
@@ -33305,7 +33305,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="254"/>
-      <c r="M15" s="360"/>
+      <c r="M15" s="363"/>
       <c r="N15" s="255" t="s">
         <v>239</v>
       </c>
@@ -33337,7 +33337,7 @@
         <f>Q15/$O$3</f>
         <v>2.0866666666666669E-2</v>
       </c>
-      <c r="Z15" s="360"/>
+      <c r="Z15" s="363"/>
       <c r="AD15" s="243" t="s">
         <v>228</v>
       </c>
@@ -33365,10 +33365,10 @@
       <c r="AN15" s="242"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M16" s="360"/>
+      <c r="M16" s="363"/>
       <c r="Q16" s="257"/>
       <c r="R16" s="257"/>
-      <c r="Z16" s="360"/>
+      <c r="Z16" s="363"/>
       <c r="AD16" s="243" t="s">
         <v>229</v>
       </c>
@@ -33395,14 +33395,14 @@
       <c r="AN16" s="242"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="362" t="s">
+      <c r="A17" s="360" t="s">
         <v>297</v>
       </c>
-      <c r="B17" s="362"/>
-      <c r="C17" s="362"/>
-      <c r="M17" s="360"/>
+      <c r="B17" s="360"/>
+      <c r="C17" s="360"/>
+      <c r="M17" s="363"/>
       <c r="Q17" s="258"/>
-      <c r="Z17" s="360"/>
+      <c r="Z17" s="363"/>
       <c r="AD17" s="243" t="s">
         <v>239</v>
       </c>
@@ -33436,8 +33436,8 @@
       <c r="C18" s="243" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="360"/>
-      <c r="Z18" s="360"/>
+      <c r="M18" s="363"/>
+      <c r="Z18" s="363"/>
       <c r="AN18" s="242"/>
     </row>
     <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33451,8 +33451,8 @@
         <v>236</v>
       </c>
       <c r="J19" s="254"/>
-      <c r="M19" s="360"/>
-      <c r="Z19" s="360"/>
+      <c r="M19" s="363"/>
+      <c r="Z19" s="363"/>
       <c r="AA19" s="359" t="s">
         <v>414</v>
       </c>
@@ -33480,7 +33480,7 @@
         <v>237</v>
       </c>
       <c r="J20" s="259"/>
-      <c r="M20" s="360"/>
+      <c r="M20" s="363"/>
       <c r="N20" s="359" t="s">
         <v>415</v>
       </c>
@@ -33495,7 +33495,7 @@
       <c r="W20" s="359"/>
       <c r="X20" s="359"/>
       <c r="Y20" s="359"/>
-      <c r="Z20" s="360"/>
+      <c r="Z20" s="363"/>
       <c r="AN20" s="242"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -33508,7 +33508,7 @@
       <c r="C21" s="243" t="s">
         <v>238</v>
       </c>
-      <c r="M21" s="360"/>
+      <c r="M21" s="363"/>
       <c r="N21" s="243"/>
       <c r="O21" s="243" t="s">
         <v>178</v>
@@ -33522,7 +33522,7 @@
       <c r="R21" s="243" t="s">
         <v>397</v>
       </c>
-      <c r="Z21" s="360"/>
+      <c r="Z21" s="363"/>
       <c r="AJ21" s="260"/>
       <c r="AN21" s="242"/>
     </row>
@@ -33536,7 +33536,7 @@
       <c r="C22" s="243" t="s">
         <v>238</v>
       </c>
-      <c r="M22" s="360"/>
+      <c r="M22" s="363"/>
       <c r="N22" s="243" t="s">
         <v>226</v>
       </c>
@@ -33556,12 +33556,12 @@
         <f t="shared" si="1"/>
         <v>5.1005160550458708</v>
       </c>
-      <c r="Z22" s="360"/>
+      <c r="Z22" s="363"/>
       <c r="AJ22" s="260"/>
       <c r="AN22" s="242"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M23" s="360"/>
+      <c r="M23" s="363"/>
       <c r="N23" s="243" t="s">
         <v>416</v>
       </c>
@@ -33581,12 +33581,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="360"/>
+      <c r="Z23" s="363"/>
       <c r="AJ23" s="260"/>
       <c r="AN23" s="242"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M24" s="360"/>
+      <c r="M24" s="363"/>
       <c r="N24" s="243" t="s">
         <v>228</v>
       </c>
@@ -33606,17 +33606,17 @@
         <f t="shared" si="1"/>
         <v>2.6909552238805975E-2</v>
       </c>
-      <c r="Z24" s="360"/>
+      <c r="Z24" s="363"/>
       <c r="AJ24" s="260"/>
       <c r="AN24" s="242"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="362" t="s">
+      <c r="A25" s="360" t="s">
         <v>417</v>
       </c>
-      <c r="B25" s="362"/>
-      <c r="C25" s="362"/>
-      <c r="M25" s="360"/>
+      <c r="B25" s="360"/>
+      <c r="C25" s="360"/>
+      <c r="M25" s="363"/>
       <c r="N25" s="243" t="s">
         <v>229</v>
       </c>
@@ -33636,7 +33636,7 @@
         <f t="shared" si="1"/>
         <v>6.721946564885499E-2</v>
       </c>
-      <c r="Z25" s="360"/>
+      <c r="Z25" s="363"/>
       <c r="AN25" s="242"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -33647,7 +33647,7 @@
       <c r="C26" s="243" t="s">
         <v>405</v>
       </c>
-      <c r="M26" s="360"/>
+      <c r="M26" s="363"/>
       <c r="N26" s="243" t="s">
         <v>239</v>
       </c>
@@ -33667,7 +33667,7 @@
         <f t="shared" si="1"/>
         <v>6.2287000000000009E-2</v>
       </c>
-      <c r="Z26" s="360"/>
+      <c r="Z26" s="363"/>
       <c r="AN26" s="242"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -33678,8 +33678,8 @@
         <v>231</v>
       </c>
       <c r="C27" s="243"/>
-      <c r="M27" s="360"/>
-      <c r="Z27" s="360"/>
+      <c r="M27" s="363"/>
+      <c r="Z27" s="363"/>
       <c r="AN27" s="242"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -33693,8 +33693,8 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M28" s="360"/>
-      <c r="Z28" s="360"/>
+      <c r="M28" s="363"/>
+      <c r="Z28" s="363"/>
       <c r="AN28" s="242"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -33708,8 +33708,8 @@
         <f>109/1.56</f>
         <v>69.871794871794876</v>
       </c>
-      <c r="M29" s="360"/>
-      <c r="Z29" s="360"/>
+      <c r="M29" s="363"/>
+      <c r="Z29" s="363"/>
       <c r="AN29" s="242"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -33723,23 +33723,23 @@
         <f>13/0.22</f>
         <v>59.090909090909093</v>
       </c>
-      <c r="M30" s="360"/>
-      <c r="Z30" s="360"/>
+      <c r="M30" s="363"/>
+      <c r="Z30" s="363"/>
       <c r="AN30" s="242"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M31" s="360"/>
-      <c r="Z31" s="360"/>
+      <c r="M31" s="363"/>
+      <c r="Z31" s="363"/>
       <c r="AN31" s="242"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="368" t="s">
+      <c r="A32" s="361" t="s">
         <v>419</v>
       </c>
-      <c r="B32" s="368"/>
-      <c r="C32" s="368"/>
-      <c r="M32" s="360"/>
-      <c r="Z32" s="360"/>
+      <c r="B32" s="361"/>
+      <c r="C32" s="361"/>
+      <c r="M32" s="363"/>
+      <c r="Z32" s="363"/>
       <c r="AN32" s="242"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -33749,8 +33749,8 @@
       <c r="B33" s="243" t="s">
         <v>243</v>
       </c>
-      <c r="M33" s="360"/>
-      <c r="Z33" s="360"/>
+      <c r="M33" s="363"/>
+      <c r="Z33" s="363"/>
       <c r="AN33" s="242"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -33760,8 +33760,8 @@
       <c r="B34" s="261">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="M34" s="360"/>
-      <c r="Z34" s="360"/>
+      <c r="M34" s="363"/>
+      <c r="Z34" s="363"/>
       <c r="AN34" s="242"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -33771,8 +33771,8 @@
       <c r="B35" s="250">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M35" s="360"/>
-      <c r="Z35" s="360"/>
+      <c r="M35" s="363"/>
+      <c r="Z35" s="363"/>
       <c r="AN35" s="242"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -33782,8 +33782,8 @@
       <c r="B36" s="250">
         <v>2E-3</v>
       </c>
-      <c r="M36" s="360"/>
-      <c r="Z36" s="360"/>
+      <c r="M36" s="363"/>
+      <c r="Z36" s="363"/>
       <c r="AN36" s="242"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -33793,8 +33793,8 @@
       <c r="B37" s="250">
         <v>0.5</v>
       </c>
-      <c r="M37" s="360"/>
-      <c r="Z37" s="360"/>
+      <c r="M37" s="363"/>
+      <c r="Z37" s="363"/>
       <c r="AN37" s="242"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -33804,31 +33804,31 @@
       <c r="B38" s="250">
         <v>0.99950000000000006</v>
       </c>
-      <c r="M38" s="360"/>
-      <c r="Z38" s="360"/>
+      <c r="M38" s="363"/>
+      <c r="Z38" s="363"/>
       <c r="AN38" s="242"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M39" s="360"/>
-      <c r="Z39" s="360"/>
+      <c r="M39" s="363"/>
+      <c r="Z39" s="363"/>
       <c r="AN39" s="242"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M40" s="360"/>
-      <c r="Z40" s="360"/>
+      <c r="M40" s="363"/>
+      <c r="Z40" s="363"/>
       <c r="AN40" s="242"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="262" t="s">
         <v>420</v>
       </c>
-      <c r="M41" s="360"/>
-      <c r="Z41" s="360"/>
+      <c r="M41" s="363"/>
+      <c r="Z41" s="363"/>
       <c r="AN41" s="242"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M42" s="360"/>
-      <c r="Z42" s="360"/>
+      <c r="M42" s="363"/>
+      <c r="Z42" s="363"/>
       <c r="AN42" s="242"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -33842,8 +33842,8 @@
       <c r="D43" s="243" t="s">
         <v>421</v>
       </c>
-      <c r="M43" s="360"/>
-      <c r="Z43" s="360"/>
+      <c r="M43" s="363"/>
+      <c r="Z43" s="363"/>
       <c r="AN43" s="242"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -33862,8 +33862,8 @@
         <f>D45/B35/1000000</f>
         <v>1.9933333333333334</v>
       </c>
-      <c r="M44" s="360"/>
-      <c r="Z44" s="360"/>
+      <c r="M44" s="363"/>
+      <c r="Z44" s="363"/>
       <c r="AN44" s="242"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -33879,8 +33879,8 @@
       <c r="D45" s="246">
         <v>299</v>
       </c>
-      <c r="M45" s="360"/>
-      <c r="Z45" s="360"/>
+      <c r="M45" s="363"/>
+      <c r="Z45" s="363"/>
       <c r="AN45" s="242"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -33899,47 +33899,47 @@
         <f>((D44*1000000)-D45)/1000000</f>
         <v>1.9930343333333336</v>
       </c>
-      <c r="M46" s="360"/>
-      <c r="Z46" s="360"/>
+      <c r="M46" s="363"/>
+      <c r="Z46" s="363"/>
       <c r="AN46" s="242"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M47" s="360"/>
-      <c r="Z47" s="360"/>
+      <c r="M47" s="363"/>
+      <c r="Z47" s="363"/>
       <c r="AN47" s="242"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M48" s="360"/>
-      <c r="Z48" s="360"/>
+      <c r="M48" s="363"/>
+      <c r="Z48" s="363"/>
       <c r="AN48" s="242"/>
     </row>
     <row r="49" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M49" s="360"/>
-      <c r="Z49" s="360"/>
+      <c r="M49" s="363"/>
+      <c r="Z49" s="363"/>
       <c r="AN49" s="242"/>
     </row>
     <row r="50" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M50" s="360"/>
-      <c r="Z50" s="360"/>
+      <c r="M50" s="363"/>
+      <c r="Z50" s="363"/>
       <c r="AN50" s="242"/>
     </row>
     <row r="51" spans="13:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="M51" s="360"/>
-      <c r="N51" s="369" t="s">
+      <c r="M51" s="363"/>
+      <c r="N51" s="362" t="s">
         <v>425</v>
       </c>
-      <c r="O51" s="369"/>
-      <c r="P51" s="369"/>
-      <c r="Q51" s="369"/>
-      <c r="R51" s="369"/>
-      <c r="S51" s="369"/>
-      <c r="T51" s="369"/>
-      <c r="U51" s="369"/>
-      <c r="V51" s="369"/>
-      <c r="W51" s="369"/>
-      <c r="X51" s="369"/>
-      <c r="Y51" s="369"/>
-      <c r="Z51" s="360"/>
+      <c r="O51" s="362"/>
+      <c r="P51" s="362"/>
+      <c r="Q51" s="362"/>
+      <c r="R51" s="362"/>
+      <c r="S51" s="362"/>
+      <c r="T51" s="362"/>
+      <c r="U51" s="362"/>
+      <c r="V51" s="362"/>
+      <c r="W51" s="362"/>
+      <c r="X51" s="362"/>
+      <c r="Y51" s="362"/>
+      <c r="Z51" s="363"/>
       <c r="AA51" s="359" t="s">
         <v>426</v>
       </c>
@@ -33957,12 +33957,12 @@
       <c r="AN51" s="242"/>
     </row>
     <row r="52" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M52" s="360"/>
-      <c r="Z52" s="360"/>
+      <c r="M52" s="363"/>
+      <c r="Z52" s="363"/>
       <c r="AN52" s="242"/>
     </row>
     <row r="53" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M53" s="360"/>
+      <c r="M53" s="363"/>
       <c r="N53" s="243"/>
       <c r="O53" s="243" t="s">
         <v>226</v>
@@ -33982,7 +33982,7 @@
       <c r="T53" s="240" t="s">
         <v>222</v>
       </c>
-      <c r="Z53" s="360"/>
+      <c r="Z53" s="363"/>
       <c r="AA53" s="243"/>
       <c r="AB53" s="243" t="s">
         <v>226</v>
@@ -34008,7 +34008,7 @@
       <c r="AN53" s="242"/>
     </row>
     <row r="54" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M54" s="360"/>
+      <c r="M54" s="363"/>
       <c r="N54" s="243" t="s">
         <v>429</v>
       </c>
@@ -34035,7 +34035,7 @@
         <f>SUM(O54:S54)</f>
         <v>55.148956521739137</v>
       </c>
-      <c r="Z54" s="360"/>
+      <c r="Z54" s="363"/>
       <c r="AA54" s="243" t="s">
         <v>430</v>
       </c>
@@ -34072,7 +34072,7 @@
       <c r="AN54" s="242"/>
     </row>
     <row r="55" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M55" s="360"/>
+      <c r="M55" s="363"/>
       <c r="N55" s="243" t="s">
         <v>431</v>
       </c>
@@ -34098,7 +34098,7 @@
         <f>SUM(O55:S55)</f>
         <v>48.840656521739135</v>
       </c>
-      <c r="Z55" s="360"/>
+      <c r="Z55" s="363"/>
       <c r="AA55" s="243" t="s">
         <v>432</v>
       </c>
@@ -34134,27 +34134,27 @@
       <c r="AN55" s="242"/>
     </row>
     <row r="56" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M56" s="360"/>
-      <c r="Z56" s="360"/>
+      <c r="M56" s="363"/>
+      <c r="Z56" s="363"/>
       <c r="AH56" s="258"/>
       <c r="AN56" s="242"/>
     </row>
     <row r="57" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M57" s="360"/>
-      <c r="Z57" s="360"/>
+      <c r="M57" s="363"/>
+      <c r="Z57" s="363"/>
       <c r="AN57" s="242"/>
     </row>
     <row r="58" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M58" s="360"/>
+      <c r="M58" s="363"/>
       <c r="R58" s="258"/>
       <c r="V58" s="264"/>
-      <c r="Z58" s="360"/>
+      <c r="Z58" s="363"/>
       <c r="AN58" s="242"/>
     </row>
     <row r="59" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M59" s="360"/>
+      <c r="M59" s="363"/>
       <c r="V59" s="264"/>
-      <c r="Z59" s="360"/>
+      <c r="Z59" s="363"/>
       <c r="AA59" s="243"/>
       <c r="AB59" s="243" t="s">
         <v>226</v>
@@ -34175,8 +34175,8 @@
       <c r="AN59" s="242"/>
     </row>
     <row r="60" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M60" s="360"/>
-      <c r="Z60" s="360"/>
+      <c r="M60" s="363"/>
+      <c r="Z60" s="363"/>
       <c r="AA60" s="243" t="s">
         <v>429</v>
       </c>
@@ -34202,8 +34202,8 @@
       <c r="AN60" s="242"/>
     </row>
     <row r="61" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M61" s="360"/>
-      <c r="Z61" s="360"/>
+      <c r="M61" s="363"/>
+      <c r="Z61" s="363"/>
       <c r="AA61" s="243" t="s">
         <v>434</v>
       </c>
@@ -34229,116 +34229,116 @@
       <c r="AN61" s="242"/>
     </row>
     <row r="62" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M62" s="360"/>
-      <c r="Z62" s="360"/>
+      <c r="M62" s="363"/>
+      <c r="Z62" s="363"/>
       <c r="AN62" s="242"/>
     </row>
     <row r="63" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M63" s="360"/>
-      <c r="Z63" s="360"/>
+      <c r="M63" s="363"/>
+      <c r="Z63" s="363"/>
       <c r="AN63" s="242"/>
     </row>
     <row r="64" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M64" s="360"/>
-      <c r="Z64" s="360"/>
+      <c r="M64" s="363"/>
+      <c r="Z64" s="363"/>
       <c r="AN64" s="242"/>
     </row>
     <row r="65" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M65" s="360"/>
-      <c r="Z65" s="360"/>
+      <c r="M65" s="363"/>
+      <c r="Z65" s="363"/>
       <c r="AN65" s="242"/>
     </row>
     <row r="66" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M66" s="360"/>
-      <c r="Z66" s="360"/>
+      <c r="M66" s="363"/>
+      <c r="Z66" s="363"/>
       <c r="AN66" s="242"/>
     </row>
     <row r="67" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M67" s="360"/>
-      <c r="Z67" s="360"/>
+      <c r="M67" s="363"/>
+      <c r="Z67" s="363"/>
       <c r="AN67" s="242"/>
     </row>
     <row r="68" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M68" s="360"/>
-      <c r="Z68" s="360"/>
+      <c r="M68" s="363"/>
+      <c r="Z68" s="363"/>
       <c r="AN68" s="242"/>
     </row>
     <row r="69" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M69" s="360"/>
-      <c r="Z69" s="360"/>
+      <c r="M69" s="363"/>
+      <c r="Z69" s="363"/>
       <c r="AN69" s="242"/>
     </row>
     <row r="70" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M70" s="360"/>
-      <c r="Z70" s="360"/>
+      <c r="M70" s="363"/>
+      <c r="Z70" s="363"/>
       <c r="AN70" s="242"/>
     </row>
     <row r="71" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M71" s="360"/>
-      <c r="Z71" s="360"/>
+      <c r="M71" s="363"/>
+      <c r="Z71" s="363"/>
       <c r="AN71" s="242"/>
     </row>
     <row r="72" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M72" s="360"/>
-      <c r="Z72" s="360"/>
+      <c r="M72" s="363"/>
+      <c r="Z72" s="363"/>
       <c r="AN72" s="242"/>
     </row>
     <row r="73" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M73" s="360"/>
-      <c r="Z73" s="360"/>
+      <c r="M73" s="363"/>
+      <c r="Z73" s="363"/>
       <c r="AN73" s="242"/>
     </row>
     <row r="74" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M74" s="360"/>
-      <c r="Z74" s="360"/>
+      <c r="M74" s="363"/>
+      <c r="Z74" s="363"/>
       <c r="AN74" s="242"/>
     </row>
     <row r="75" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M75" s="360"/>
-      <c r="Z75" s="360"/>
+      <c r="M75" s="363"/>
+      <c r="Z75" s="363"/>
       <c r="AN75" s="242"/>
     </row>
     <row r="76" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M76" s="360"/>
-      <c r="Z76" s="360"/>
+      <c r="M76" s="363"/>
+      <c r="Z76" s="363"/>
       <c r="AN76" s="242"/>
     </row>
     <row r="77" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M77" s="360"/>
-      <c r="Z77" s="360"/>
+      <c r="M77" s="363"/>
+      <c r="Z77" s="363"/>
       <c r="AN77" s="242"/>
     </row>
     <row r="78" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M78" s="360"/>
-      <c r="Z78" s="360"/>
+      <c r="M78" s="363"/>
+      <c r="Z78" s="363"/>
       <c r="AN78" s="242"/>
     </row>
     <row r="79" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M79" s="360"/>
-      <c r="Z79" s="360"/>
+      <c r="M79" s="363"/>
+      <c r="Z79" s="363"/>
       <c r="AN79" s="242"/>
     </row>
     <row r="80" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M80" s="360"/>
-      <c r="Z80" s="360"/>
+      <c r="M80" s="363"/>
+      <c r="Z80" s="363"/>
       <c r="AN80" s="242"/>
     </row>
     <row r="81" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M81" s="360"/>
-      <c r="Z81" s="360"/>
+      <c r="M81" s="363"/>
+      <c r="Z81" s="363"/>
       <c r="AN81" s="242"/>
     </row>
     <row r="82" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M82" s="360"/>
-      <c r="Z82" s="360"/>
+      <c r="M82" s="363"/>
+      <c r="Z82" s="363"/>
       <c r="AN82" s="242"/>
     </row>
     <row r="83" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z83" s="360"/>
+      <c r="Z83" s="363"/>
       <c r="AN83" s="242"/>
     </row>
     <row r="84" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z84" s="360"/>
+      <c r="Z84" s="363"/>
       <c r="AN84" s="242"/>
     </row>
     <row r="85" spans="13:40" x14ac:dyDescent="0.2">
@@ -34346,11 +34346,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N20:Y20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="N51:Y51"/>
-    <mergeCell ref="AA51:AL51"/>
     <mergeCell ref="AA19:AL19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:K1"/>
@@ -34367,6 +34362,11 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="AD11:AH11"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="N20:Y20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="N51:Y51"/>
+    <mergeCell ref="AA51:AL51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35095,8 +35095,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId6" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId14" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35115,182 +35290,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId8" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId16" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35302,7 +35302,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="C1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35479,8 +35481,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -35499,82 +35576,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35648,8 +35650,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -35668,232 +35895,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35957,8 +35959,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -35977,182 +36154,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36227,8 +36229,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -36247,232 +36474,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36559,8 +36561,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36579,232 +36806,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36881,8 +36883,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -36901,182 +37078,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37162,8 +37164,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -37182,232 +37409,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40763,8 +40765,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -40783,32 +40810,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40869,18 +40871,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -40889,7 +40891,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -40919,18 +40921,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -40939,7 +40941,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41207,18 +41209,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41227,7 +41229,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41257,18 +41259,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41277,7 +41279,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_PGM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FBD31E-6FF8-4690-8895-F3930289AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA1480C-F5A4-445A-9A14-EC406FB5604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -432,6 +432,28 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19376,6 +19398,9 @@
       <sheetName val="Sc6 NEEA"/>
       <sheetName val="Sc7 Finance"/>
     </sheetNames>
+    <definedNames>
+      <definedName name="pamsindex" refersTo="='PAMS central control panel'!$C$2"/>
+    </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
@@ -19384,18 +19409,54 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Agriculture, forestry and fishing</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>1994</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="11">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>FMP20000</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="14">
+        <row r="2">
+          <cell r="C2">
+            <v>813472</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="2">
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="18">
+        <row r="2">
+          <cell r="C2">
+            <v>1992</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
@@ -19407,30 +19468,108 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="2">
+          <cell r="C2">
+            <v>1988</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="32">
+        <row r="2">
+          <cell r="C2">
+            <v>1996</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
       <sheetData sheetId="36"/>
       <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
+      <sheetData sheetId="38">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>IFAEAF_CG-I</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="39">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="40">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
+      <sheetData sheetId="42">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>IALPOT_CG-I</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="43">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="44">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
+      <sheetData sheetId="46">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>UC-INM-KLD</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
+      <sheetData sheetId="48">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
+      <sheetData sheetId="50">
+        <row r="2">
+          <cell r="C2">
+            <v>2001</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
+      <sheetData sheetId="52">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>High Temperature Heat</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="53">
+        <row r="2">
+          <cell r="C2">
+            <v>2006</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="54"/>
       <sheetData sheetId="55">
         <row r="31">
@@ -19451,6 +19590,11 @@
       <sheetData sheetId="57"/>
       <sheetData sheetId="58"/>
       <sheetData sheetId="59">
+        <row r="2">
+          <cell r="C2" t="b">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="47">
           <cell r="P47">
             <v>0.04</v>
@@ -19476,13 +19620,55 @@
       <sheetData sheetId="76"/>
       <sheetData sheetId="77"/>
       <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
+      <sheetData sheetId="79">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="80">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="81">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="82">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="83">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="84">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="85">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -35302,7 +35488,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="C1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -37423,8 +37609,8 @@
   </sheetPr>
   <dimension ref="B3:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37512,7 +37698,8 @@
       <c r="L10" s="92" t="s">
         <v>585</v>
       </c>
-      <c r="M10" t="b">
+      <c r="M10" t="b" cm="1">
+        <f t="array" ref="M10">[1]!pamsindex</f>
         <v>0</v>
       </c>
     </row>
@@ -37622,10 +37809,7 @@
       <c r="E27" s="122"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10" xr:uid="{77357846-1F86-48AB-AA7B-8565983D6854}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11" xr:uid="{8FB983AD-6D33-4A11-AF69-737BC8A94B74}">
       <formula1>$L$14:$L$15</formula1>
     </dataValidation>
